--- a/optimization/hrp_portfolio_weights_all_rm.xlsx
+++ b/optimization/hrp_portfolio_weights_all_rm.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\work\repovault\quant\optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8538B2-E36B-44B3-946D-2CDB31B4741C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRP_MSV" sheetId="1" r:id="rId1"/>
@@ -35,32 +41,88 @@
     <sheet name="MeanHERCWeights" sheetId="26" r:id="rId26"/>
     <sheet name="MeanAllWeights" sheetId="27" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="68">
   <si>
     <t>weights</t>
   </si>
   <si>
-    <t>ACWI</t>
+    <t>BTC-USD</t>
   </si>
   <si>
-    <t>GLD</t>
+    <t>EEM</t>
+  </si>
+  <si>
+    <t>GDX</t>
+  </si>
+  <si>
+    <t>IJH</t>
+  </si>
+  <si>
+    <t>IWM</t>
   </si>
   <si>
     <t>SLV</t>
   </si>
   <si>
-    <t>ON</t>
+    <t>URA</t>
+  </si>
+  <si>
+    <t>VEA</t>
+  </si>
+  <si>
+    <t>XLB</t>
+  </si>
+  <si>
+    <t>XLC</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>XLF</t>
+  </si>
+  <si>
+    <t>XLI</t>
+  </si>
+  <si>
+    <t>XLK</t>
+  </si>
+  <si>
+    <t>XLP</t>
+  </si>
+  <si>
+    <t>XLRE</t>
+  </si>
+  <si>
+    <t>XLU</t>
+  </si>
+  <si>
+    <t>XLV</t>
+  </si>
+  <si>
+    <t>XLY</t>
   </si>
   <si>
     <t>Risk Measure</t>
   </si>
   <si>
     <t>Annualized Return</t>
+  </si>
+  <si>
+    <t>Geometric Mean (daily)</t>
+  </si>
+  <si>
+    <t>Geometric Mean (annualized)</t>
   </si>
   <si>
     <t>Annualized Volatility</t>
@@ -198,8 +260,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +271,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -248,25 +317,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -308,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +420,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,6 +472,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,48 +665,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2442092365177083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3.2978044924406612E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2419023829447413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7.0638141941681554E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1317597949361472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>5.0844872785450218E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3821285856014031</v>
+        <v>5.5144052872934078E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5.1549567001554573E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7.1698674072620802E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5.0945825042043577E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.9836277543779227E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5.9560508511646779E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.4013549104386351E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4.7761597631752577E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.8338771857746609E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.1225872283826339E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2.941503682862584E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8.8127484449320698E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3.2362270339111869E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3.5477420476173839E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8.9068034627999948E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6.1013997704938518E-2</v>
       </c>
     </row>
   </sheetData>
@@ -599,48 +835,168 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2783399968447329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1.8771160996697369E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2325698581944167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3.5652090416431179E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1072998137875491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4.2065487335419108E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3817903311733012</v>
+        <v>6.2261119032454799E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.8020921008135568E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5.7666811460592528E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.8091996064906717E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.1560242955600983E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.9208940046423209E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.9492289024182079E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4.4856505509324032E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.84983955030189E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.8099440250148282E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3.2903642345148323E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.12638241972216521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.5545802141488171E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4.2152001918547337E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.15616466210998239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4.260607215933386E-2</v>
       </c>
     </row>
   </sheetData>
@@ -649,48 +1005,168 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2442092365177083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.1169033021665377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2419023829447413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.8003653089719941E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1317597949361472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.19893516029962799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3821285856014031</v>
+        <v>1.62373846170615E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.5178974026010639E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.25416339201625687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.066422430941549E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.0347996215125012E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.7264741254001969E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.6648391451783949E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.1688707726967991E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.6013672059709109E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.7645114652167431E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.4397587449304181E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7.1966801988992662E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4.9620985236530753E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5.4397436868044137E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6.437439385124695E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.554808072149561E-2</v>
       </c>
     </row>
   </sheetData>
@@ -699,48 +1175,168 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2517983534768781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.1829764153108473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2548010804869865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.4757695028993529E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2329183875523199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.22553455107414561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2604821784838155</v>
+        <v>1.457631961920109E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.4313224605385391E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.24096747824918699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.3091250679849471E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.508199458208867E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.468220418855821E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.46936273890232E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.3502783823701219E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.458616010742724E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.483669106367801E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.4389845634820779E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4.5361619028299022E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4.3252783833311471E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4.4069099644724032E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4.4829074472343168E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.4497181664415571E-2</v>
       </c>
     </row>
   </sheetData>
@@ -749,48 +1345,168 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2291545738101212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.1161087954347084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2348847014025844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.78980709766716E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.126250128853724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.20968475508865131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4097105959335703</v>
+        <v>1.572318094614869E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.471544886787826E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.25475393808646268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.052456652559965E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.006793797054713E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.676018997225303E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.5517402303679239E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.136891030565278E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.5244083096757949E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.6871814613673371E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.374400713603597E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7.1464580162545338E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4.8853016957268562E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5.3671603621608881E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6.2282816496360707E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.4744881437496461E-2</v>
       </c>
     </row>
   </sheetData>
@@ -799,48 +1515,168 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.211452065805646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.1152095569238874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1911766054194577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.7505199216594911E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1102703673692836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.1945102446342182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4871009614056127</v>
+        <v>1.5991167098679811E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.436032798594015E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.248401371167326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9.5936676994823611E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.0532850353099031E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.6979204461508801E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.5593704639839541E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.1462731393174261E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.5928684175861449E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.7378413654637409E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.3524775707960259E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7.9456157488438081E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5.2069170335143973E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5.906940483901707E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6.8347177179956073E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.408619104523528E-2</v>
       </c>
     </row>
   </sheetData>
@@ -849,48 +1685,168 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2844370168643908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.1161859521472758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3770337878226501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.4681694889499551E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1489385168858208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.18921607996795811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1895906784271383</v>
+        <v>1.2694990998606499E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.381001875204502E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.31771555788838962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.630787362172054E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.6387421599624759E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.6643426394153438E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.6243374439597849E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>9.096618155222563E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.3364397029018E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.615078370550381E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.326308796060067E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6.051736105883166E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3.5534965243032741E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5.0062758137680588E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5.7661374879903332E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.4462263131335539E-2</v>
       </c>
     </row>
   </sheetData>
@@ -899,48 +1855,168 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2103657191108973</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.10753152083803171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3584885180610548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.4745858721421449E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1715299553235965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.2235237136210908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2596158075044514</v>
+        <v>1.37696830131017E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.4106817300054451E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.28563353734989277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.2054684006503939E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.7048740348729101E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.6155488058279811E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.1936219371376851E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6.9375159003293163E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.361627745812834E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.3485686940065911E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.888069003751747E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7.1115739429965838E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4.0419657104548631E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4.4519935916813101E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5.8841108409618779E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.5677126174530039E-2</v>
       </c>
     </row>
   </sheetData>
@@ -949,48 +2025,168 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2841874267622446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>7.9817433593335527E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1937983316578019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.050140869150629E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0825959180149311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.17691316551159711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4394183235650225</v>
+        <v>2.4465782005797139E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.3269032244953819E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.21711567913381491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.1603688691894719E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.5139970767475039E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.513958205667571E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.3549312601261489E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.047879693806158E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.0427095590002609E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.0557820977013161E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2.2584117244367791E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.1150662549903273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3.9165559763512978E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6.4676699326320641E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8.3745653153548177E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.578294671853412E-2</v>
       </c>
     </row>
   </sheetData>
@@ -999,48 +2195,168 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2598237159333561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>7.789257188269795E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2775687573978579</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.356857547926635E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1395590379884784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.1860100696246321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3230484886803077</v>
+        <v>2.0363680159053921E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.5860674943423199E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.23568165520826889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.4324870369002939E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.9195755622063489E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.3018762296839329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.0542200761701041E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8.0284135712845525E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.8305304570161222E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.043844538725836E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.759103246323878E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.1043234095279251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4.3086977637555569E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6.6645058846710181E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>9.0956781910568774E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.416575973834829E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1049,48 +2365,168 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2446064042934056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>8.8473442761677082E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3151362641040295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.3748587231546981E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1593408865935438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.20412674539674089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2809164450090212</v>
+        <v>1.6837237620703951E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.503032999883017E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.25958420977356872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.326244507882391E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.861458975073298E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.0029238069284042E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.119250473163259E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7.7494642626273098E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.6488177925850219E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.730585865966322E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.8357273715272421E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8.9452773642167319E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4.2987346409166079E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5.6330981299383569E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7.5545853053154033E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.4882940619174509E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1099,48 +2535,168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2517983534768781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>5.2022540654888129E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2548010804869865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6.3892167413202486E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.23291838755232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>6.1669219662441078E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2604821784838154</v>
+        <v>6.1368779545647581E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6.0261104883989773E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6.8510143301408616E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6.1507571231904111E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6.5296194349500694E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.205577751066909E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.2171329013845812E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5.908080044981269E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3.0984658322462121E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.151684883877745E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3.1506206474386962E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6.5292753087465072E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3.1450844676217032E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3.2044420846722467E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6.6456253431770348E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6.2912386304888546E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1149,48 +2705,168 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.278339996844733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>7.6852196996437819E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2325698581944167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.0920055977238189E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1072998137875492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.18498880365345821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3817903311733011</v>
+        <v>2.2415559311311142E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.368848204421577E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.23609733864120791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.238054157418631E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.191854249476996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.4288063458166979E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.12895542313516E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>9.3918134259483831E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.8659529993131429E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.494588328644157E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.9057148916872081E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.1106350756118131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3.8770434612118737E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6.3973384946045778E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8.5625571098775402E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.410201972650954E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1199,48 +2875,168 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2498374509419381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>2.953587237078887E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2677360287491581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>5.7874589653084993E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1410462807305395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4.9615565348253142E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3413802395783644</v>
+        <v>5.6157218716028599E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4.8232189137485629E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6.9251555043817567E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5.6749728432225477E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.4725631340224627E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.2601942621054854E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.8121997124177671E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4.3649415338772868E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.7594272961701419E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.1869572945037568E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3.347718833690954E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9.9114509507354259E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.8497749423202282E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3.6526801165362291E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.1101852523810702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5.6218948153448058E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1249,48 +3045,170 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.2498374509419381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="2">
+        <v>0.1077951188055437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.2677360287491581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="2">
+        <v>1.4633079930245881E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.1410462807305395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="2">
+        <v>0.19934432888721201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.3413802395783644</v>
+      <c r="B5" s="2">
+        <v>1.7307498538966549E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.4433333076873689E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.25501141575143749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.238078125564793E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.9433579970425521E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.909609002097213E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.372062919212474E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9.9705755502969961E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.626333820060475E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.8961651294010229E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.6578956626599039E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8.1935977292930534E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.3376089713218949E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.574163634463479E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6.9220980450547545E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.479493909770749E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1299,48 +3217,168 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2498374509419381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>6.8665495588166273E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2677360287491581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3.6253834791665433E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1410462807305395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.1244799471177326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3413802395783644</v>
+        <v>3.6732358627497567E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.1332761107179648E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.16213148539762751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3.4565254843936702E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4.7079605655325069E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4.0849016321013502E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.0921313158151201E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2.680999544453494E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.192880558115309E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.5415612119523891E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2.5028072481754291E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9.0525243400142397E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3.5936919568210622E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4.6134218754998541E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8.9703116415808887E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3.5506943625577783E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1349,1643 +3387,1789 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>41</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B2">
-        <v>0.1007541839234996</v>
+        <v>0.14406133104371241</v>
       </c>
       <c r="C2">
-        <v>0.09916353215957117</v>
+        <v>5.342081247634578E-4</v>
       </c>
       <c r="D2">
-        <v>0.7154815023525435</v>
+        <v>0.14406133104371241</v>
       </c>
       <c r="E2">
-        <v>0.887514712260643</v>
+        <v>0.17977135347787229</v>
       </c>
       <c r="F2">
-        <v>-0.2296435087121614</v>
+        <v>0.67239735211889717</v>
       </c>
       <c r="G2">
-        <v>0.2296435087121614</v>
+        <v>0.80986575809974581</v>
       </c>
       <c r="H2">
-        <v>-0.008060833387289449</v>
+        <v>-0.33515036067156911</v>
       </c>
       <c r="I2">
-        <v>368</v>
+        <v>0.33515036067156911</v>
       </c>
       <c r="J2">
-        <v>0.4387417022520168</v>
+        <v>-1.0388303108777469E-2</v>
       </c>
       <c r="K2">
-        <v>1.203572848524254</v>
+        <v>522</v>
       </c>
       <c r="L2">
-        <v>-1.042882552230939</v>
+        <v>0.42984089515835389</v>
       </c>
       <c r="M2">
-        <v>14.81192705992449</v>
+        <v>1.1716101793340681</v>
       </c>
       <c r="N2">
-        <v>1.13390859708334</v>
+        <v>-0.8055800037485159</v>
       </c>
       <c r="O2">
-        <v>-0.008469688714361755</v>
+        <v>15.12836758185615</v>
       </c>
       <c r="P2">
-        <v>-0.0142291257996819</v>
+        <v>0.99037904037439317</v>
       </c>
       <c r="Q2">
-        <v>0.07962410630392799</v>
+        <v>-1.558145804457354E-2</v>
       </c>
       <c r="R2">
-        <v>0.005933544303797469</v>
+        <v>-2.6666834615437299E-2</v>
       </c>
       <c r="S2">
-        <v>0.5482594936708861</v>
+        <v>0.14866309828968169</v>
       </c>
       <c r="T2">
-        <v>1.619551564465941</v>
+        <v>3.107960741548528E-2</v>
       </c>
       <c r="U2">
-        <v>0.3040932509111403</v>
-      </c>
-      <c r="V2">
-        <v>0.03456400470282795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>0.55398037077426387</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1.663060704377838</v>
+      </c>
+      <c r="W2">
+        <v>0.83498370586097348</v>
+      </c>
+      <c r="X2">
+        <v>1.465815226231784E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>0.1066494038841908</v>
+        <v>0.1581726989840897</v>
       </c>
       <c r="C3">
-        <v>0.1202509116348195</v>
+        <v>5.8288212566059983E-4</v>
       </c>
       <c r="D3">
-        <v>0.6536143172475797</v>
+        <v>0.1581726989840897</v>
       </c>
       <c r="E3">
-        <v>0.8580562974444451</v>
+        <v>0.18703828095981681</v>
       </c>
       <c r="F3">
-        <v>-0.2392162449981348</v>
+        <v>0.71906675555613309</v>
       </c>
       <c r="G3">
-        <v>0.2392162449981348</v>
+        <v>0.86663321258253956</v>
       </c>
       <c r="H3">
-        <v>-0.01136442730066163</v>
+        <v>-0.34083348394997293</v>
       </c>
       <c r="I3">
-        <v>371</v>
+        <v>0.34083348394997293</v>
       </c>
       <c r="J3">
-        <v>0.4458284339553207</v>
+        <v>-1.143954072814359E-2</v>
       </c>
       <c r="K3">
-        <v>1.177418799573898</v>
+        <v>522</v>
       </c>
       <c r="L3">
-        <v>-0.3702104417155353</v>
+        <v>0.46407617335891233</v>
       </c>
       <c r="M3">
-        <v>10.81056141157167</v>
+        <v>1.1789648834474571</v>
       </c>
       <c r="N3">
-        <v>1.088211971929451</v>
+        <v>-0.83557219100519375</v>
       </c>
       <c r="O3">
-        <v>-0.01078755961542321</v>
+        <v>14.5530548932005</v>
       </c>
       <c r="P3">
-        <v>-0.01725094979865446</v>
+        <v>0.99624972166558978</v>
       </c>
       <c r="Q3">
-        <v>0.09123550602298258</v>
+        <v>-1.608356679657658E-2</v>
       </c>
       <c r="R3">
-        <v>0.01147151898734177</v>
+        <v>-2.7738324374988289E-2</v>
       </c>
       <c r="S3">
-        <v>0.5458860759493671</v>
+        <v>0.15457317159455819</v>
       </c>
       <c r="T3">
-        <v>1.763743210833618</v>
+        <v>3.5441657579062161E-2</v>
       </c>
       <c r="U3">
-        <v>0.3438575998683624</v>
-      </c>
-      <c r="V3">
-        <v>0.03745412578983898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>0.56052344601962922</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1.911575627157696</v>
+      </c>
+      <c r="W3">
+        <v>0.85418178531881495</v>
+      </c>
+      <c r="X3">
+        <v>2.583116126495905E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>0.09936441448723499</v>
+        <v>0.14472430153888149</v>
       </c>
       <c r="C4">
-        <v>0.09700727013598121</v>
+        <v>5.3650824739048808E-4</v>
       </c>
       <c r="D4">
-        <v>0.7161980640432283</v>
+        <v>0.14472430153888149</v>
       </c>
       <c r="E4">
-        <v>0.8774278047802323</v>
+        <v>0.17968598764271471</v>
       </c>
       <c r="F4">
-        <v>-0.228777251361057</v>
+        <v>0.67585925199481012</v>
       </c>
       <c r="G4">
-        <v>0.228777251361057</v>
+        <v>0.81452632960439897</v>
       </c>
       <c r="H4">
-        <v>-0.008006603243199418</v>
+        <v>-0.3347112152515278</v>
       </c>
       <c r="I4">
-        <v>368</v>
+        <v>0.3347112152515278</v>
       </c>
       <c r="J4">
-        <v>0.4343282118134104</v>
+        <v>-1.0504985805630789E-2</v>
       </c>
       <c r="K4">
-        <v>1.205981817043421</v>
+        <v>522</v>
       </c>
       <c r="L4">
-        <v>-1.212062217954191</v>
+        <v>0.43238557581682607</v>
       </c>
       <c r="M4">
-        <v>16.39088197782832</v>
+        <v>1.172197537937314</v>
       </c>
       <c r="N4">
-        <v>1.112261312070406</v>
+        <v>-0.81038621575924874</v>
       </c>
       <c r="O4">
-        <v>-0.008360327098876784</v>
+        <v>15.104574190614249</v>
       </c>
       <c r="P4">
-        <v>-0.01391564513687502</v>
+        <v>0.99290727448867278</v>
       </c>
       <c r="Q4">
-        <v>0.07886708104224101</v>
+        <v>-1.5467678855910719E-2</v>
       </c>
       <c r="R4">
-        <v>0.005537974683544304</v>
+        <v>-2.664028458841728E-2</v>
       </c>
       <c r="S4">
-        <v>0.5510284810126582</v>
+        <v>0.14850294997196639</v>
       </c>
       <c r="T4">
-        <v>1.58656166083994</v>
+        <v>3.053435114503817E-2</v>
       </c>
       <c r="U4">
-        <v>0.2888243169454962</v>
-      </c>
-      <c r="V4">
-        <v>0.03491772448539937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>0.55343511450381677</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.6743123176818659</v>
+      </c>
+      <c r="W4">
+        <v>0.83179531615739166</v>
+      </c>
+      <c r="X4">
+        <v>1.5628407618148391E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>0.09514180386017035</v>
+        <v>0.14175628907488799</v>
       </c>
       <c r="C5">
-        <v>0.09204608729470494</v>
+        <v>5.2620062255814837E-4</v>
       </c>
       <c r="D5">
-        <v>0.7079736983299045</v>
+        <v>0.14175628907488799</v>
       </c>
       <c r="E5">
-        <v>0.8262519304446952</v>
+        <v>0.17844902636723631</v>
       </c>
       <c r="F5">
-        <v>-0.2312550287240061</v>
+        <v>0.664740647009883</v>
       </c>
       <c r="G5">
-        <v>0.2312550287240061</v>
+        <v>0.79878408509874099</v>
       </c>
       <c r="H5">
-        <v>-0.007364846696736171</v>
+        <v>-0.33470235845940488</v>
       </c>
       <c r="I5">
-        <v>368</v>
+        <v>0.33470235845940488</v>
       </c>
       <c r="J5">
-        <v>0.4114150701289978</v>
+        <v>-1.0242528868820809E-2</v>
       </c>
       <c r="K5">
-        <v>1.212746051446257</v>
+        <v>522</v>
       </c>
       <c r="L5">
-        <v>-1.889554323266149</v>
+        <v>0.42352940005375328</v>
       </c>
       <c r="M5">
-        <v>25.54651721680294</v>
+        <v>1.1707685624408499</v>
       </c>
       <c r="N5">
-        <v>1.079901454491574</v>
+        <v>-0.81554709885896226</v>
       </c>
       <c r="O5">
-        <v>-0.007801886364823311</v>
+        <v>15.473137580864559</v>
       </c>
       <c r="P5">
-        <v>-0.01321199056511735</v>
+        <v>0.9954540456890334</v>
       </c>
       <c r="Q5">
-        <v>0.07855606171282875</v>
+        <v>-1.5313756924885621E-2</v>
       </c>
       <c r="R5">
-        <v>0.005537974683544304</v>
+        <v>-2.6477160162716989E-2</v>
       </c>
       <c r="S5">
-        <v>0.5534018987341772</v>
+        <v>0.14791313729554159</v>
       </c>
       <c r="T5">
-        <v>1.488608609782145</v>
+        <v>2.998909487459106E-2</v>
       </c>
       <c r="U5">
-        <v>0.2675108009148188</v>
-      </c>
-      <c r="V5">
-        <v>0.03315774028418853</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>0.55398037077426387</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1.6242578318405629</v>
+      </c>
+      <c r="W5">
+        <v>0.83088721571469815</v>
+      </c>
+      <c r="X5">
+        <v>1.292381258997133E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>0.1104485207178796</v>
+        <v>0.1512935090986276</v>
       </c>
       <c r="C6">
-        <v>0.1156993520566876</v>
+        <v>5.5922813832576246E-4</v>
       </c>
       <c r="D6">
-        <v>0.7042597983774576</v>
+        <v>0.1512935090986276</v>
       </c>
       <c r="E6">
-        <v>0.9380436030877586</v>
+        <v>0.1830582880472556</v>
       </c>
       <c r="F6">
-        <v>-0.2176123977930021</v>
+        <v>0.69804428209734337</v>
       </c>
       <c r="G6">
-        <v>0.2176123977930021</v>
+        <v>0.84853054660551142</v>
       </c>
       <c r="H6">
-        <v>-0.01078219410055639</v>
+        <v>-0.33379196030588731</v>
       </c>
       <c r="I6">
-        <v>366</v>
+        <v>0.33379196030588731</v>
       </c>
       <c r="J6">
-        <v>0.5075470048491481</v>
+        <v>-1.095954577753048E-2</v>
       </c>
       <c r="K6">
-        <v>1.189106035830184</v>
+        <v>522</v>
       </c>
       <c r="L6">
-        <v>-0.2069445547639425</v>
+        <v>0.45325689977668138</v>
       </c>
       <c r="M6">
-        <v>10.66872477099265</v>
+        <v>1.1740393920315271</v>
       </c>
       <c r="N6">
-        <v>1.084996863646315</v>
+        <v>-0.79943929982623541</v>
       </c>
       <c r="O6">
-        <v>-0.01055324722197262</v>
+        <v>13.991989698869221</v>
       </c>
       <c r="P6">
-        <v>-0.0165111222353346</v>
+        <v>0.96577039547710164</v>
       </c>
       <c r="Q6">
-        <v>0.08651880904722209</v>
+        <v>-1.6198247553454309E-2</v>
       </c>
       <c r="R6">
-        <v>0.009098101265822785</v>
+        <v>-2.7092230097170909E-2</v>
       </c>
       <c r="S6">
-        <v>0.5443037974683544</v>
+        <v>0.14999425429038329</v>
       </c>
       <c r="T6">
-        <v>1.860412673197213</v>
+        <v>3.3805888767720831E-2</v>
       </c>
       <c r="U6">
-        <v>0.3465755688548837</v>
-      </c>
-      <c r="V6">
-        <v>0.04001359750523012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>0.55561613958560518</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1.788036915174525</v>
+      </c>
+      <c r="W6">
+        <v>0.83950495600446517</v>
+      </c>
+      <c r="X6">
+        <v>2.0988005904207019E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>0.1072611297414003</v>
+        <v>0.15036053834302091</v>
       </c>
       <c r="C7">
-        <v>0.1133904575724892</v>
+        <v>5.5600929702115387E-4</v>
       </c>
       <c r="D7">
-        <v>0.6909276840193747</v>
+        <v>0.15036053834302091</v>
       </c>
       <c r="E7">
-        <v>0.9211522414286247</v>
+        <v>0.17992438796904831</v>
       </c>
       <c r="F7">
-        <v>-0.2175910222224154</v>
+        <v>0.70245770873867541</v>
       </c>
       <c r="G7">
-        <v>0.2175910222224154</v>
+        <v>0.85369227776316614</v>
       </c>
       <c r="H7">
-        <v>-0.01141003363069209</v>
+        <v>-0.32505638074680632</v>
       </c>
       <c r="I7">
-        <v>370</v>
+        <v>0.32505638074680632</v>
       </c>
       <c r="J7">
-        <v>0.492948324089222</v>
+        <v>-1.0504713627244221E-2</v>
       </c>
       <c r="K7">
-        <v>1.186237010180542</v>
+        <v>523</v>
       </c>
       <c r="L7">
-        <v>-0.2997485031534434</v>
+        <v>0.46256756442550828</v>
       </c>
       <c r="M7">
-        <v>9.273689741057511</v>
+        <v>1.176527495875948</v>
       </c>
       <c r="N7">
-        <v>1.090887462353026</v>
+        <v>-0.73565693680575661</v>
       </c>
       <c r="O7">
-        <v>-0.01029793844598769</v>
+        <v>13.955431171275739</v>
       </c>
       <c r="P7">
-        <v>-0.01618801419187912</v>
+        <v>0.99256464226729713</v>
       </c>
       <c r="Q7">
-        <v>0.08471248522068894</v>
+        <v>-1.5658827232438902E-2</v>
       </c>
       <c r="R7">
-        <v>0.007911392405063292</v>
+        <v>-2.663978027979497E-2</v>
       </c>
       <c r="S7">
-        <v>0.5482594936708861</v>
+        <v>0.1474614832130581</v>
       </c>
       <c r="T7">
-        <v>1.779107248425552</v>
+        <v>3.162486368593239E-2</v>
       </c>
       <c r="U7">
-        <v>0.2877350311647446</v>
-      </c>
-      <c r="V7">
-        <v>0.04391624796254964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>0.55779716466739371</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1.77163574780253</v>
+      </c>
+      <c r="W7">
+        <v>0.82891062114167247</v>
+      </c>
+      <c r="X7">
+        <v>2.0942210460774439E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>0.09715803580619986</v>
+        <v>0.13466287355860679</v>
       </c>
       <c r="C8">
-        <v>0.09232853787438307</v>
+        <v>5.0145735085704857E-4</v>
       </c>
       <c r="D8">
-        <v>0.7259808636454822</v>
+        <v>0.13466287355860679</v>
       </c>
       <c r="E8">
-        <v>0.8490289422673603</v>
+        <v>0.17412049066324081</v>
       </c>
       <c r="F8">
-        <v>-0.2338407508987628</v>
+        <v>0.6409689275441347</v>
       </c>
       <c r="G8">
-        <v>0.2338407508987628</v>
+        <v>0.77038556744266351</v>
       </c>
       <c r="H8">
-        <v>-0.00679380917675433</v>
+        <v>-0.33279003302757809</v>
       </c>
       <c r="I8">
-        <v>366</v>
+        <v>0.33279003302757809</v>
       </c>
       <c r="J8">
-        <v>0.4154880423227118</v>
+        <v>-9.6649985422005685E-3</v>
       </c>
       <c r="K8">
-        <v>1.215974909977485</v>
+        <v>414</v>
       </c>
       <c r="L8">
-        <v>-1.676588315576759</v>
+        <v>0.40464815707821211</v>
       </c>
       <c r="M8">
-        <v>21.96549128062343</v>
+        <v>1.16873685955319</v>
       </c>
       <c r="N8">
-        <v>1.078535306884172</v>
+        <v>-0.71487310617537803</v>
       </c>
       <c r="O8">
-        <v>-0.007970401702533022</v>
+        <v>15.94684348360351</v>
       </c>
       <c r="P8">
-        <v>-0.01335352903660848</v>
+        <v>0.96688029599836456</v>
       </c>
       <c r="Q8">
-        <v>0.07863363823639874</v>
+        <v>-1.5202446541345579E-2</v>
       </c>
       <c r="R8">
-        <v>0.005142405063291139</v>
+        <v>-2.5874320489102511E-2</v>
       </c>
       <c r="S8">
-        <v>0.5581487341772152</v>
+        <v>0.1442940604964629</v>
       </c>
       <c r="T8">
-        <v>1.534955092680706</v>
+        <v>2.835332606324973E-2</v>
       </c>
       <c r="U8">
-        <v>0.3233861579912745</v>
-      </c>
-      <c r="V8">
-        <v>0.02833462928329997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>0.54961832061068705</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1.507891274087322</v>
+      </c>
+      <c r="W8">
+        <v>0.8238837987533989</v>
+      </c>
+      <c r="X8">
+        <v>6.7982315246080532E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>0.1038053924549032</v>
+        <v>0.13472468114776359</v>
       </c>
       <c r="C9">
-        <v>0.1037880557914601</v>
+        <v>5.0167361293040891E-4</v>
       </c>
       <c r="D9">
-        <v>0.7147556014323569</v>
+        <v>0.13472468114776359</v>
       </c>
       <c r="E9">
-        <v>0.9099962594034797</v>
+        <v>0.174163252803823</v>
       </c>
       <c r="F9">
-        <v>-0.2272047751550293</v>
+        <v>0.6411722951690515</v>
       </c>
       <c r="G9">
-        <v>0.2272047751550293</v>
+        <v>0.7735292479517738</v>
       </c>
       <c r="H9">
-        <v>-0.008860174269054685</v>
+        <v>-0.32996224765103632</v>
       </c>
       <c r="I9">
-        <v>368</v>
+        <v>0.32996224765103632</v>
       </c>
       <c r="J9">
-        <v>0.456880329139532</v>
+        <v>-9.655450313824988E-3</v>
       </c>
       <c r="K9">
-        <v>1.199047673828547</v>
+        <v>414</v>
       </c>
       <c r="L9">
-        <v>-0.7127236476102301</v>
+        <v>0.40830331987023738</v>
       </c>
       <c r="M9">
-        <v>12.43370199698218</v>
+        <v>1.1676293788585921</v>
       </c>
       <c r="N9">
-        <v>1.1055815164425</v>
+        <v>-0.72593391961367304</v>
       </c>
       <c r="O9">
-        <v>-0.00913123625810835</v>
+        <v>15.501422287874719</v>
       </c>
       <c r="P9">
-        <v>-0.01487047144458564</v>
+        <v>0.98469577557517995</v>
       </c>
       <c r="Q9">
-        <v>0.08119608152857481</v>
+        <v>-1.504962687914522E-2</v>
       </c>
       <c r="R9">
-        <v>0.007120253164556962</v>
+        <v>-2.5831970356153731E-2</v>
       </c>
       <c r="S9">
-        <v>0.5474683544303798</v>
+        <v>0.14378853873148351</v>
       </c>
       <c r="T9">
-        <v>1.693312713254984</v>
+        <v>2.889858233369684E-2</v>
       </c>
       <c r="U9">
-        <v>0.320823387099869</v>
-      </c>
-      <c r="V9">
-        <v>0.0357956150697969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>0.55016357688113415</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1.5088856640031341</v>
+      </c>
+      <c r="W9">
+        <v>0.81928060864588781</v>
+      </c>
+      <c r="X9">
+        <v>7.4466391652980024E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>0.1060542244720621</v>
+        <v>0.14216801543582311</v>
       </c>
       <c r="C10">
-        <v>0.1093734327934132</v>
+        <v>5.2763210229178625E-4</v>
       </c>
       <c r="D10">
-        <v>0.702272482404476</v>
+        <v>0.14216801543582311</v>
       </c>
       <c r="E10">
-        <v>0.917050220003962</v>
+        <v>0.1766058102115535</v>
       </c>
       <c r="F10">
-        <v>-0.223308213917065</v>
+        <v>0.67178950531219273</v>
       </c>
       <c r="G10">
-        <v>0.223308213917065</v>
+        <v>0.81336073277756449</v>
       </c>
       <c r="H10">
-        <v>-0.01025194003351024</v>
+        <v>-0.32762387450973968</v>
       </c>
       <c r="I10">
-        <v>368</v>
+        <v>0.32762387450973968</v>
       </c>
       <c r="J10">
-        <v>0.4749230787876432</v>
+        <v>-1.007848322755458E-2</v>
       </c>
       <c r="K10">
-        <v>1.191974350393737</v>
+        <v>522</v>
       </c>
       <c r="L10">
-        <v>-0.459064544242955</v>
+        <v>0.43393667707692257</v>
       </c>
       <c r="M10">
-        <v>10.72131051464735</v>
+        <v>1.1722438324789679</v>
       </c>
       <c r="N10">
-        <v>1.096366005339346</v>
+        <v>-0.73102782760199447</v>
       </c>
       <c r="O10">
-        <v>-0.009751889244885292</v>
+        <v>14.769151879981671</v>
       </c>
       <c r="P10">
-        <v>-0.01564332908880601</v>
+        <v>0.97377429816752181</v>
       </c>
       <c r="Q10">
-        <v>0.08342459541925944</v>
+        <v>-1.541114103529488E-2</v>
       </c>
       <c r="R10">
-        <v>0.007515822784810127</v>
+        <v>-2.6166533393078159E-2</v>
       </c>
       <c r="S10">
-        <v>0.5462816455696202</v>
+        <v>0.1452863237075199</v>
       </c>
       <c r="T10">
-        <v>1.748868192267369</v>
+        <v>2.944383860414395E-2</v>
       </c>
       <c r="U10">
-        <v>0.3139732331065219</v>
-      </c>
-      <c r="V10">
-        <v>0.03924211443029822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>0.55288985823336967</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1.6311527984750129</v>
+      </c>
+      <c r="W10">
+        <v>0.82310354430042765</v>
+      </c>
+      <c r="X10">
+        <v>1.3933594670898251E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>0.1004944834180967</v>
+        <v>0.13469796854928109</v>
       </c>
       <c r="C11">
-        <v>0.09691719303573684</v>
+        <v>5.0158014814671859E-4</v>
       </c>
       <c r="D11">
-        <v>0.7273683997511106</v>
+        <v>0.13469796854928109</v>
       </c>
       <c r="E11">
-        <v>0.8876947164074755</v>
+        <v>0.1738303367726991</v>
       </c>
       <c r="F11">
-        <v>-0.231026381168727</v>
+        <v>0.6419284079821489</v>
       </c>
       <c r="G11">
-        <v>0.231026381168727</v>
+        <v>0.77344658032190694</v>
       </c>
       <c r="H11">
-        <v>-0.00766817155901943</v>
+        <v>-0.33171758992988992</v>
       </c>
       <c r="I11">
-        <v>366</v>
+        <v>0.33171758992988992</v>
       </c>
       <c r="J11">
-        <v>0.4349913759186747</v>
+        <v>-9.5437354596114611E-3</v>
       </c>
       <c r="K11">
-        <v>1.208886017693371</v>
+        <v>414</v>
       </c>
       <c r="L11">
-        <v>-1.166387538701982</v>
+        <v>0.40606218252625709</v>
       </c>
       <c r="M11">
-        <v>16.2779462856033</v>
+        <v>1.1683898270337401</v>
       </c>
       <c r="N11">
-        <v>1.115658377789515</v>
+        <v>-0.72363221950047774</v>
       </c>
       <c r="O11">
-        <v>-0.008249499870005495</v>
+        <v>15.76068046741935</v>
       </c>
       <c r="P11">
-        <v>-0.01393464902491824</v>
+        <v>0.97495044793607366</v>
       </c>
       <c r="Q11">
-        <v>0.07909724476434936</v>
+        <v>-1.5053252361021971E-2</v>
       </c>
       <c r="R11">
-        <v>0.005537974683544304</v>
+        <v>-2.5794783544484411E-2</v>
       </c>
       <c r="S11">
-        <v>0.5537974683544303</v>
+        <v>0.1436982824608819</v>
       </c>
       <c r="T11">
-        <v>1.613358248077534</v>
+        <v>2.889858233369684E-2</v>
       </c>
       <c r="U11">
-        <v>0.3265007637480067</v>
-      </c>
-      <c r="V11">
-        <v>0.03142770931751369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>0.54798255179934574</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1.508455857280026</v>
+      </c>
+      <c r="W11">
+        <v>0.81785303085274741</v>
+      </c>
+      <c r="X11">
+        <v>7.546222458044774E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>0.1007541839234996</v>
+        <v>0.21801476679062359</v>
       </c>
       <c r="C12">
-        <v>0.09916353215957116</v>
+        <v>7.829344802070537E-4</v>
       </c>
       <c r="D12">
-        <v>0.7154815023525436</v>
+        <v>0.21801476679062359</v>
       </c>
       <c r="E12">
-        <v>0.887514712260643</v>
+        <v>0.20565548330690389</v>
       </c>
       <c r="F12">
-        <v>-0.2296435087121614</v>
+        <v>0.91676779892549365</v>
       </c>
       <c r="G12">
-        <v>0.2296435087121614</v>
+        <v>1.204235788220827</v>
       </c>
       <c r="H12">
-        <v>-0.008060833387289447</v>
+        <v>-0.31529783472657957</v>
       </c>
       <c r="I12">
-        <v>368</v>
+        <v>0.31529783472657957</v>
       </c>
       <c r="J12">
-        <v>0.4387417022520168</v>
+        <v>-1.5521848045731571E-2</v>
       </c>
       <c r="K12">
-        <v>1.203572848524255</v>
+        <v>471</v>
       </c>
       <c r="L12">
-        <v>-1.042882552230939</v>
+        <v>0.69145659366700674</v>
       </c>
       <c r="M12">
-        <v>14.81192705992449</v>
+        <v>1.2094589381470959</v>
       </c>
       <c r="N12">
-        <v>1.13390859708334</v>
+        <v>-0.54889455283612198</v>
       </c>
       <c r="O12">
-        <v>-0.008469688714361755</v>
+        <v>9.1985097536459861</v>
       </c>
       <c r="P12">
-        <v>-0.0142291257996819</v>
+        <v>1.070452520616217</v>
       </c>
       <c r="Q12">
-        <v>0.07962410630392799</v>
+        <v>-1.8083096786832759E-2</v>
       </c>
       <c r="R12">
-        <v>0.005933544303797469</v>
+        <v>-2.9469790529197369E-2</v>
       </c>
       <c r="S12">
-        <v>0.5482594936708861</v>
+        <v>0.1559401142777167</v>
       </c>
       <c r="T12">
-        <v>1.619551564465941</v>
+        <v>4.1439476553980371E-2</v>
       </c>
       <c r="U12">
-        <v>0.3040932509111403</v>
-      </c>
-      <c r="V12">
-        <v>0.03456400470282795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>0.54089422028353329</v>
+      </c>
+      <c r="V12" s="2">
+        <v>3.201073220737769</v>
+      </c>
+      <c r="W12">
+        <v>0.64009207136424895</v>
+      </c>
+      <c r="X12">
+        <v>0.1071111754922308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>0.1066494038841908</v>
+        <v>0.255694852073858</v>
       </c>
       <c r="C13">
-        <v>0.1202509116348195</v>
+        <v>9.0393642496211513E-4</v>
       </c>
       <c r="D13">
-        <v>0.6536143172475798</v>
+        <v>0.255694852073858</v>
       </c>
       <c r="E13">
-        <v>0.8580562974444451</v>
+        <v>0.23024436287464969</v>
       </c>
       <c r="F13">
-        <v>-0.2392162449981348</v>
+        <v>0.97475563230054363</v>
       </c>
       <c r="G13">
-        <v>0.2392162449981348</v>
+        <v>1.30343598734453</v>
       </c>
       <c r="H13">
-        <v>-0.01136442730066163</v>
+        <v>-0.3457892837731642</v>
       </c>
       <c r="I13">
-        <v>371</v>
+        <v>0.3457892837731642</v>
       </c>
       <c r="J13">
-        <v>0.4458284339553207</v>
+        <v>-1.8103044640445789E-2</v>
       </c>
       <c r="K13">
-        <v>1.177418799573898</v>
+        <v>574</v>
       </c>
       <c r="L13">
-        <v>-0.3702104417155354</v>
+        <v>0.73945279415192167</v>
       </c>
       <c r="M13">
-        <v>10.81056141157167</v>
+        <v>1.2168596526557769</v>
       </c>
       <c r="N13">
-        <v>1.088211971929451</v>
+        <v>-0.55337056278247698</v>
       </c>
       <c r="O13">
-        <v>-0.0107875596154232</v>
+        <v>8.8671371888007595</v>
       </c>
       <c r="P13">
-        <v>-0.01725094979865446</v>
+        <v>1.051903886908204</v>
       </c>
       <c r="Q13">
-        <v>0.09123550602298258</v>
+        <v>-2.0848651533974399E-2</v>
       </c>
       <c r="R13">
-        <v>0.01147151898734177</v>
+        <v>-3.2518903475055233E-2</v>
       </c>
       <c r="S13">
-        <v>0.5458860759493671</v>
+        <v>0.17150026118509731</v>
       </c>
       <c r="T13">
-        <v>1.763743210833618</v>
+        <v>5.6161395856052343E-2</v>
       </c>
       <c r="U13">
-        <v>0.3438575998683624</v>
-      </c>
-      <c r="V13">
-        <v>0.03745412578983898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>0.54416575790621591</v>
+      </c>
+      <c r="V13" s="2">
+        <v>4.243926621411477</v>
+      </c>
+      <c r="W13">
+        <v>0.65257017023064356</v>
+      </c>
+      <c r="X13">
+        <v>0.1414174810715946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>0.09936441448723499</v>
+        <v>0.21878840985288719</v>
       </c>
       <c r="C14">
-        <v>0.09700727013598121</v>
+        <v>7.8545616088576686E-4</v>
       </c>
       <c r="D14">
-        <v>0.7161980640432283</v>
+        <v>0.21878840985288719</v>
       </c>
       <c r="E14">
-        <v>0.8774278047802322</v>
+        <v>0.20731047858582249</v>
       </c>
       <c r="F14">
-        <v>-0.2287772513610572</v>
+        <v>0.91415671816590405</v>
       </c>
       <c r="G14">
-        <v>0.2287772513610572</v>
+        <v>1.206034882357427</v>
       </c>
       <c r="H14">
-        <v>-0.008006603243199418</v>
+        <v>-0.31556580194323419</v>
       </c>
       <c r="I14">
-        <v>368</v>
+        <v>0.31556580194323419</v>
       </c>
       <c r="J14">
-        <v>0.43432821181341</v>
+        <v>-1.6140074428652361E-2</v>
       </c>
       <c r="K14">
-        <v>1.205981817043421</v>
+        <v>471</v>
       </c>
       <c r="L14">
-        <v>-1.212062217954191</v>
+        <v>0.69332103956005997</v>
       </c>
       <c r="M14">
-        <v>16.39088197782833</v>
+        <v>1.208264073823494</v>
       </c>
       <c r="N14">
-        <v>1.112261312070406</v>
+        <v>-0.53029001620325888</v>
       </c>
       <c r="O14">
-        <v>-0.008360327098876784</v>
+        <v>9.0221440102113899</v>
       </c>
       <c r="P14">
-        <v>-0.01391564513687502</v>
+        <v>1.071760979733805</v>
       </c>
       <c r="Q14">
-        <v>0.07886708104224102</v>
+        <v>-1.8336517237040072E-2</v>
       </c>
       <c r="R14">
-        <v>0.005537974683544304</v>
+        <v>-2.965692934380933E-2</v>
       </c>
       <c r="S14">
-        <v>0.5510284810126582</v>
+        <v>0.1565134895106231</v>
       </c>
       <c r="T14">
-        <v>1.58656166083994</v>
+        <v>4.3075245365321702E-2</v>
       </c>
       <c r="U14">
-        <v>0.2888243169454962</v>
-      </c>
-      <c r="V14">
-        <v>0.03491772448539937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>0.53871319520174477</v>
+      </c>
+      <c r="V14" s="2">
+        <v>3.2205318878655929</v>
+      </c>
+      <c r="W14">
+        <v>0.63441218878691741</v>
+      </c>
+      <c r="X14">
+        <v>0.1088096645328589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>0.09514180386017035</v>
+        <v>0.2158277677221041</v>
       </c>
       <c r="C15">
-        <v>0.09204608729470493</v>
+        <v>7.7579734316834958E-4</v>
       </c>
       <c r="D15">
-        <v>0.707973698329905</v>
+        <v>0.2158277677221041</v>
       </c>
       <c r="E15">
-        <v>0.8262519304446956</v>
+        <v>0.20324905700556931</v>
       </c>
       <c r="F15">
-        <v>-0.2312550287240061</v>
+        <v>0.91634799186086158</v>
       </c>
       <c r="G15">
-        <v>0.2312550287240061</v>
+        <v>1.199979639672262</v>
       </c>
       <c r="H15">
-        <v>-0.007364846696736171</v>
+        <v>-0.31265078210672342</v>
       </c>
       <c r="I15">
-        <v>368</v>
+        <v>0.31265078210672342</v>
       </c>
       <c r="J15">
-        <v>0.4114150701289978</v>
+        <v>-1.552179778723385E-2</v>
       </c>
       <c r="K15">
-        <v>1.212746051446257</v>
+        <v>471</v>
       </c>
       <c r="L15">
-        <v>-1.889554323266149</v>
+        <v>0.69031577745559991</v>
       </c>
       <c r="M15">
-        <v>25.54651721680295</v>
+        <v>1.210120169163891</v>
       </c>
       <c r="N15">
-        <v>1.079901454491574</v>
+        <v>-0.56166956601447904</v>
       </c>
       <c r="O15">
-        <v>-0.007801886364823311</v>
+        <v>9.442719105746443</v>
       </c>
       <c r="P15">
-        <v>-0.01321199056511735</v>
+        <v>1.07542762630667</v>
       </c>
       <c r="Q15">
-        <v>0.07855606171282875</v>
+        <v>-1.7957638343387889E-2</v>
       </c>
       <c r="R15">
-        <v>0.005537974683544304</v>
+        <v>-2.9157977508267E-2</v>
       </c>
       <c r="S15">
-        <v>0.5534018987341772</v>
+        <v>0.15459122136169459</v>
       </c>
       <c r="T15">
-        <v>1.488608609782145</v>
+        <v>4.1439476553980371E-2</v>
       </c>
       <c r="U15">
-        <v>0.2675108009148188</v>
-      </c>
-      <c r="V15">
-        <v>0.03315774028418856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>0.54034896401308619</v>
+      </c>
+      <c r="V15" s="2">
+        <v>3.146483831705392</v>
+      </c>
+      <c r="W15">
+        <v>0.6393766613945211</v>
+      </c>
+      <c r="X15">
+        <v>0.1049107244198025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>0.1104485207178796</v>
+        <v>0.22138615108193749</v>
       </c>
       <c r="C16">
-        <v>0.1156993520566876</v>
+        <v>7.9391181931121046E-4</v>
       </c>
       <c r="D16">
-        <v>0.7042597983774576</v>
+        <v>0.22138615108193749</v>
       </c>
       <c r="E16">
-        <v>0.9380436030877586</v>
+        <v>0.2118535214482653</v>
       </c>
       <c r="F16">
-        <v>-0.2176123977930022</v>
+        <v>0.9090738831124926</v>
       </c>
       <c r="G16">
-        <v>0.2176123977930022</v>
+        <v>1.2129349141745309</v>
       </c>
       <c r="H16">
-        <v>-0.01078219410055639</v>
+        <v>-0.31941743172691212</v>
       </c>
       <c r="I16">
-        <v>366</v>
+        <v>0.31941743172691212</v>
       </c>
       <c r="J16">
-        <v>0.5075470048491478</v>
+        <v>-1.7198108754223521E-2</v>
       </c>
       <c r="K16">
-        <v>1.189106035830184</v>
+        <v>471</v>
       </c>
       <c r="L16">
-        <v>-0.2069445547639427</v>
+        <v>0.69309351679720776</v>
       </c>
       <c r="M16">
-        <v>10.66872477099266</v>
+        <v>1.2053706134986539</v>
       </c>
       <c r="N16">
-        <v>1.084996863646315</v>
+        <v>-0.47386411055389083</v>
       </c>
       <c r="O16">
-        <v>-0.01055324722197262</v>
+        <v>7.8426725286879746</v>
       </c>
       <c r="P16">
-        <v>-0.0165111222353346</v>
+        <v>1.088040695296874</v>
       </c>
       <c r="Q16">
-        <v>0.08651880904722209</v>
+        <v>-1.8809248250760521E-2</v>
       </c>
       <c r="R16">
-        <v>0.009098101265822785</v>
+        <v>-3.0263288765678069E-2</v>
       </c>
       <c r="S16">
-        <v>0.5443037974683544</v>
+        <v>0.1581492384385372</v>
       </c>
       <c r="T16">
-        <v>1.860412673197211</v>
+        <v>4.5256270447110142E-2</v>
       </c>
       <c r="U16">
-        <v>0.3465755688548837</v>
-      </c>
-      <c r="V16">
-        <v>0.04001359750523011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>0.53980370774263908</v>
+      </c>
+      <c r="V16" s="2">
+        <v>3.2864402114501172</v>
+      </c>
+      <c r="W16">
+        <v>0.61773369544926293</v>
+      </c>
+      <c r="X16">
+        <v>0.1140075993362524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B17">
-        <v>0.1072611297414003</v>
+        <v>0.2186271906785193</v>
       </c>
       <c r="C17">
-        <v>0.1133904575724892</v>
+        <v>7.8493080036579066E-4</v>
       </c>
       <c r="D17">
-        <v>0.6909276840193748</v>
+        <v>0.2186271906785193</v>
       </c>
       <c r="E17">
-        <v>0.9211522414286248</v>
+        <v>0.21139031293402849</v>
       </c>
       <c r="F17">
-        <v>-0.2175910222224153</v>
+        <v>0.89988023653923621</v>
       </c>
       <c r="G17">
-        <v>0.2175910222224153</v>
+        <v>1.2031407330023729</v>
       </c>
       <c r="H17">
-        <v>-0.01141003363069209</v>
+        <v>-0.31543792499579071</v>
       </c>
       <c r="I17">
-        <v>370</v>
+        <v>0.31543792499579071</v>
       </c>
       <c r="J17">
-        <v>0.4929483240892222</v>
+        <v>-1.6771178209743609E-2</v>
       </c>
       <c r="K17">
-        <v>1.186237010180542</v>
+        <v>472</v>
       </c>
       <c r="L17">
-        <v>-0.2997485031534438</v>
+        <v>0.69309101206342494</v>
       </c>
       <c r="M17">
-        <v>9.273689741057511</v>
+        <v>1.2033365203239179</v>
       </c>
       <c r="N17">
-        <v>1.090887462353026</v>
+        <v>-0.45752589536707161</v>
       </c>
       <c r="O17">
-        <v>-0.01029793844598769</v>
+        <v>8.0500720450843009</v>
       </c>
       <c r="P17">
-        <v>-0.01618801419187912</v>
+        <v>1.0887814589041891</v>
       </c>
       <c r="Q17">
-        <v>0.08471248522068893</v>
+        <v>-1.8593986213579088E-2</v>
       </c>
       <c r="R17">
-        <v>0.007911392405063292</v>
+        <v>-3.0152475075410721E-2</v>
       </c>
       <c r="S17">
-        <v>0.5482594936708861</v>
+        <v>0.15747916344888099</v>
       </c>
       <c r="T17">
-        <v>1.779107248425553</v>
+        <v>4.5256270447110142E-2</v>
       </c>
       <c r="U17">
-        <v>0.2877350311647446</v>
-      </c>
-      <c r="V17">
-        <v>0.04391624796254964</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>0.53925845147219198</v>
+      </c>
+      <c r="V17" s="2">
+        <v>3.2164705040287731</v>
+      </c>
+      <c r="W17">
+        <v>0.61586697247082278</v>
+      </c>
+      <c r="X17">
+        <v>0.1118805296013692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>0.09715803580619986</v>
+        <v>0.19500042965129549</v>
       </c>
       <c r="C18">
-        <v>0.09232853787438308</v>
+        <v>7.0718066824948522E-4</v>
       </c>
       <c r="D18">
-        <v>0.7259808636454821</v>
+        <v>0.19500042965129549</v>
       </c>
       <c r="E18">
-        <v>0.8490289422673603</v>
+        <v>0.18833153816893969</v>
       </c>
       <c r="F18">
-        <v>-0.2338407508987629</v>
+        <v>0.88152002520697248</v>
       </c>
       <c r="G18">
-        <v>0.2338407508987629</v>
+        <v>1.131046136791811</v>
       </c>
       <c r="H18">
-        <v>-0.006793809176754333</v>
+        <v>-0.30033064147500432</v>
       </c>
       <c r="I18">
-        <v>366</v>
+        <v>0.30033064147500432</v>
       </c>
       <c r="J18">
-        <v>0.4154880423227116</v>
+        <v>-1.30753989545955E-2</v>
       </c>
       <c r="K18">
-        <v>1.215974909977485</v>
+        <v>471</v>
       </c>
       <c r="L18">
-        <v>-1.676588315576758</v>
+        <v>0.64928582942318536</v>
       </c>
       <c r="M18">
-        <v>21.96549128062341</v>
+        <v>1.20771229183585</v>
       </c>
       <c r="N18">
-        <v>1.078535306884172</v>
+        <v>-0.57546291045554554</v>
       </c>
       <c r="O18">
-        <v>-0.007970401702533022</v>
+        <v>10.734879375395851</v>
       </c>
       <c r="P18">
-        <v>-0.01335352903660848</v>
+        <v>1.076592759203387</v>
       </c>
       <c r="Q18">
-        <v>0.07863363823639874</v>
+        <v>-1.6334916426934881E-2</v>
       </c>
       <c r="R18">
-        <v>0.005142405063291139</v>
+        <v>-2.7359987043508779E-2</v>
       </c>
       <c r="S18">
-        <v>0.5581487341772152</v>
+        <v>0.1461990831851937</v>
       </c>
       <c r="T18">
-        <v>1.534955092680706</v>
+        <v>3.21701199563795E-2</v>
       </c>
       <c r="U18">
-        <v>0.3233861579912745</v>
-      </c>
-      <c r="V18">
-        <v>0.02833462928329997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>0.5430752453653217</v>
+      </c>
+      <c r="V18" s="2">
+        <v>2.6565166740753821</v>
+      </c>
+      <c r="W18">
+        <v>0.65422649433976721</v>
+      </c>
+      <c r="X18">
+        <v>8.2792810155049301E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>0.1038053924549032</v>
+        <v>0.1955828653984846</v>
       </c>
       <c r="C19">
-        <v>0.1037880557914601</v>
+        <v>7.0911566856945996E-4</v>
       </c>
       <c r="D19">
-        <v>0.7147556014323572</v>
+        <v>0.1955828653984846</v>
       </c>
       <c r="E19">
-        <v>0.9099962594034801</v>
+        <v>0.19111536288160491</v>
       </c>
       <c r="F19">
-        <v>-0.2272047751550293</v>
+        <v>0.87397559272959358</v>
       </c>
       <c r="G19">
-        <v>0.2272047751550293</v>
+        <v>1.130858534649964</v>
       </c>
       <c r="H19">
-        <v>-0.008860174269054683</v>
+        <v>-0.30044600784572129</v>
       </c>
       <c r="I19">
-        <v>368</v>
+        <v>0.30044600784572129</v>
       </c>
       <c r="J19">
-        <v>0.456880329139532</v>
+        <v>-1.3922570260711069E-2</v>
       </c>
       <c r="K19">
-        <v>1.199047673828547</v>
+        <v>472</v>
       </c>
       <c r="L19">
-        <v>-0.7127236476102304</v>
+        <v>0.65097508467783061</v>
       </c>
       <c r="M19">
-        <v>12.43370199698218</v>
+        <v>1.2045931310448019</v>
       </c>
       <c r="N19">
-        <v>1.1055815164425</v>
+        <v>-0.53160707591703427</v>
       </c>
       <c r="O19">
-        <v>-0.009131236258108348</v>
+        <v>9.9444527528345645</v>
       </c>
       <c r="P19">
-        <v>-0.01487047144458564</v>
+        <v>1.076677844440842</v>
       </c>
       <c r="Q19">
-        <v>0.08119608152857481</v>
+        <v>-1.676648595357157E-2</v>
       </c>
       <c r="R19">
-        <v>0.007120253164556962</v>
+        <v>-2.7647035005178681E-2</v>
       </c>
       <c r="S19">
-        <v>0.5474683544303798</v>
+        <v>0.14711479729007179</v>
       </c>
       <c r="T19">
-        <v>1.693312713254985</v>
+        <v>3.4351145038167941E-2</v>
       </c>
       <c r="U19">
-        <v>0.320823387099869</v>
-      </c>
-      <c r="V19">
-        <v>0.03579561506979693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>0.54525627044711011</v>
+      </c>
+      <c r="V19" s="2">
+        <v>2.669506723007562</v>
+      </c>
+      <c r="W19">
+        <v>0.63807852371017959</v>
+      </c>
+      <c r="X19">
+        <v>8.5859159936980581E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B20">
-        <v>0.1060542244720621</v>
+        <v>0.2048475815186834</v>
       </c>
       <c r="C20">
-        <v>0.1093734327934132</v>
+        <v>7.3976980661938363E-4</v>
       </c>
       <c r="D20">
-        <v>0.7022724824044763</v>
+        <v>0.2048475815186834</v>
       </c>
       <c r="E20">
-        <v>0.9170502200039622</v>
+        <v>0.19959254182922601</v>
       </c>
       <c r="F20">
-        <v>-0.2233082139170649</v>
+        <v>0.88387332355697057</v>
       </c>
       <c r="G20">
-        <v>0.2233082139170649</v>
+        <v>1.160560777315305</v>
       </c>
       <c r="H20">
-        <v>-0.01025194003351024</v>
+        <v>-0.30706062761531228</v>
       </c>
       <c r="I20">
-        <v>368</v>
+        <v>0.30706062761531228</v>
       </c>
       <c r="J20">
-        <v>0.4749230787876434</v>
+        <v>-1.542544604561636E-2</v>
       </c>
       <c r="K20">
-        <v>1.191974350393737</v>
+        <v>472</v>
       </c>
       <c r="L20">
-        <v>-0.4590645442429549</v>
+        <v>0.66712421944020095</v>
       </c>
       <c r="M20">
-        <v>10.72131051464734</v>
+        <v>1.2036216390118031</v>
       </c>
       <c r="N20">
-        <v>1.096366005339346</v>
+        <v>-0.49496348946126362</v>
       </c>
       <c r="O20">
-        <v>-0.009751889244885292</v>
+        <v>8.9905294714478572</v>
       </c>
       <c r="P20">
-        <v>-0.01564332908880601</v>
+        <v>1.0628879876877131</v>
       </c>
       <c r="Q20">
-        <v>0.08342459541925945</v>
+        <v>-1.7710240831780528E-2</v>
       </c>
       <c r="R20">
-        <v>0.007515822784810127</v>
+        <v>-2.8713693259414429E-2</v>
       </c>
       <c r="S20">
-        <v>0.5462816455696202</v>
+        <v>0.15140359261101921</v>
       </c>
       <c r="T20">
-        <v>1.74886819226737</v>
+        <v>4.0894220283533261E-2</v>
       </c>
       <c r="U20">
-        <v>0.3139732331065219</v>
-      </c>
-      <c r="V20">
-        <v>0.03924211443029824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>0.5425299890948746</v>
+      </c>
+      <c r="V20" s="2">
+        <v>2.881556511152211</v>
+      </c>
+      <c r="W20">
+        <v>0.62684065095382091</v>
+      </c>
+      <c r="X20">
+        <v>9.6673108684016934E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B21">
-        <v>0.1004944834180967</v>
+        <v>0.19503440392689739</v>
       </c>
       <c r="C21">
-        <v>0.09691719303573684</v>
+        <v>7.0729356526744169E-4</v>
       </c>
       <c r="D21">
-        <v>0.7273683997511106</v>
+        <v>0.19503440392689739</v>
       </c>
       <c r="E21">
-        <v>0.8876947164074755</v>
+        <v>0.19062326996370249</v>
       </c>
       <c r="F21">
-        <v>-0.231026381168727</v>
+        <v>0.87332930523681018</v>
       </c>
       <c r="G21">
-        <v>0.231026381168727</v>
+        <v>1.128935217197</v>
       </c>
       <c r="H21">
-        <v>-0.007668171559019429</v>
+        <v>-0.30075589955669962</v>
       </c>
       <c r="I21">
-        <v>366</v>
+        <v>0.30075589955669962</v>
       </c>
       <c r="J21">
-        <v>0.4349913759186747</v>
+        <v>-1.400005777079039E-2</v>
       </c>
       <c r="K21">
-        <v>1.208886017693371</v>
+        <v>472</v>
       </c>
       <c r="L21">
-        <v>-1.166387538701981</v>
+        <v>0.64848072544668023</v>
       </c>
       <c r="M21">
-        <v>16.2779462856033</v>
+        <v>1.204688326782023</v>
       </c>
       <c r="N21">
-        <v>1.115658377789515</v>
+        <v>-0.5338418624059903</v>
       </c>
       <c r="O21">
-        <v>-0.008249499870005495</v>
+        <v>10.0238544322042</v>
       </c>
       <c r="P21">
-        <v>-0.01393464902491824</v>
+        <v>1.0755713202100921</v>
       </c>
       <c r="Q21">
-        <v>0.07909724476434936</v>
+        <v>-1.674674107648591E-2</v>
       </c>
       <c r="R21">
-        <v>0.005537974683544304</v>
+        <v>-2.7606003317804301E-2</v>
       </c>
       <c r="S21">
-        <v>0.5537974683544303</v>
+        <v>0.14687729360903301</v>
       </c>
       <c r="T21">
-        <v>1.613358248077534</v>
+        <v>3.3805888767720831E-2</v>
       </c>
       <c r="U21">
-        <v>0.3265007637480069</v>
-      </c>
-      <c r="V21">
-        <v>0.03142770931751367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>0.54471101417666301</v>
+      </c>
+      <c r="V21" s="2">
+        <v>2.6572733105084412</v>
+      </c>
+      <c r="W21">
+        <v>0.63899934628883071</v>
+      </c>
+      <c r="X21">
+        <v>8.5188745970307775E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B22">
-        <v>0.1028998665253802</v>
+        <v>0.14372671727901909</v>
       </c>
       <c r="C22">
-        <v>0.1027224179777288</v>
+        <v>5.3304670513121266E-4</v>
       </c>
       <c r="D22">
-        <v>0.7131192421908907</v>
+        <v>0.14372671727901909</v>
       </c>
       <c r="E22">
-        <v>0.9031755514983303</v>
+        <v>0.17827550625704461</v>
       </c>
       <c r="F22">
-        <v>-0.2277985500879531</v>
+        <v>0.67486032048220679</v>
       </c>
       <c r="G22">
-        <v>0.2277985500879531</v>
+        <v>0.81358121806974759</v>
       </c>
       <c r="H22">
-        <v>-0.008813336593011308</v>
+        <v>-0.33261374322806198</v>
       </c>
       <c r="I22">
-        <v>368</v>
+        <v>0.33261374322806198</v>
       </c>
       <c r="J22">
-        <v>0.4517143172581674</v>
+        <v>-1.0186850853612961E-2</v>
       </c>
       <c r="K22">
-        <v>1.19954758518615</v>
+        <v>522</v>
       </c>
       <c r="L22">
-        <v>-0.7885167138948465</v>
+        <v>0.43211298452111918</v>
       </c>
       <c r="M22">
-        <v>12.78899434775489</v>
+        <v>1.1727378875316361</v>
       </c>
       <c r="N22">
-        <v>1.106590104510995</v>
+        <v>-0.77643326887494835</v>
       </c>
       <c r="O22">
-        <v>-0.00906206766958814</v>
+        <v>15.07945809494216</v>
       </c>
       <c r="P22">
-        <v>-0.01472390817934816</v>
+        <v>0.98966658284818088</v>
       </c>
       <c r="Q22">
-        <v>0.08078392495535169</v>
+        <v>-1.528888977329697E-2</v>
       </c>
       <c r="R22">
-        <v>0.006724683544303798</v>
+        <v>-2.644758913553142E-2</v>
       </c>
       <c r="S22">
-        <v>0.5474683544303798</v>
+        <v>0.1472903832016908</v>
       </c>
       <c r="T22">
-        <v>1.671229446248288</v>
+        <v>2.998909487459106E-2</v>
       </c>
       <c r="U22">
-        <v>0.3123280110605118</v>
-      </c>
-      <c r="V22">
-        <v>0.03588235088309435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>0.55398037077426387</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1.6573973248509011</v>
+      </c>
+      <c r="W22">
+        <v>0.83043845827504792</v>
+      </c>
+      <c r="X22">
+        <v>1.466964379192269E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B23">
-        <v>0.1028998665253802</v>
+        <v>0.2140557862529999</v>
       </c>
       <c r="C23">
-        <v>0.1027224179777288</v>
+        <v>7.7000520673364825E-4</v>
       </c>
       <c r="D23">
-        <v>0.7131192421908906</v>
+        <v>0.2140557862529999</v>
       </c>
       <c r="E23">
-        <v>0.9031755514983301</v>
+        <v>0.20308587406631479</v>
       </c>
       <c r="F23">
-        <v>-0.2277985500879532</v>
+        <v>0.90970754071898163</v>
       </c>
       <c r="G23">
-        <v>0.2277985500879532</v>
+        <v>1.1938450914584431</v>
       </c>
       <c r="H23">
-        <v>-0.008813336593011308</v>
+        <v>-0.31178378914137811</v>
       </c>
       <c r="I23">
-        <v>368</v>
+        <v>0.31178378914137811</v>
       </c>
       <c r="J23">
-        <v>0.4517143172581671</v>
+        <v>-1.5685851928948349E-2</v>
       </c>
       <c r="K23">
-        <v>1.19954758518615</v>
+        <v>471</v>
       </c>
       <c r="L23">
-        <v>-0.7885167138948466</v>
+        <v>0.6865520072178497</v>
       </c>
       <c r="M23">
-        <v>12.78899434775489</v>
+        <v>1.20852664489873</v>
       </c>
       <c r="N23">
-        <v>1.106590104510995</v>
+        <v>-0.53487123814509108</v>
       </c>
       <c r="O23">
-        <v>-0.00906206766958814</v>
+        <v>9.1864949130496996</v>
       </c>
       <c r="P23">
-        <v>-0.01472390817934816</v>
+        <v>1.076234247480421</v>
       </c>
       <c r="Q23">
-        <v>0.08078392495535171</v>
+        <v>-1.7900430937052809E-2</v>
       </c>
       <c r="R23">
-        <v>0.006724683544303798</v>
+        <v>-2.9156704176599539E-2</v>
       </c>
       <c r="S23">
-        <v>0.5474683544303798</v>
+        <v>0.15413570988367681</v>
       </c>
       <c r="T23">
-        <v>1.671229446248288</v>
+        <v>4.0894220283533261E-2</v>
       </c>
       <c r="U23">
-        <v>0.3123280110605118</v>
-      </c>
-      <c r="V23">
-        <v>0.03588235088309435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>0.54089422028353329</v>
+      </c>
+      <c r="V23" s="2">
+        <v>3.102703437569748</v>
+      </c>
+      <c r="W23">
+        <v>0.63581967749890145</v>
+      </c>
+      <c r="X23">
+        <v>0.10386509992004631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B24">
-        <v>0.1028998665253802</v>
+        <v>0.18029075250266219</v>
       </c>
       <c r="C24">
-        <v>0.1027224179777288</v>
+        <v>6.5799737167249184E-4</v>
       </c>
       <c r="D24">
-        <v>0.7131192421908907</v>
+        <v>0.18029075250266219</v>
       </c>
       <c r="E24">
-        <v>0.9031755514983303</v>
+        <v>0.18234828359695851</v>
       </c>
       <c r="F24">
-        <v>-0.2277985500879531</v>
+        <v>0.83647570001990756</v>
       </c>
       <c r="G24">
-        <v>0.2277985500879531</v>
+        <v>1.035711864326579</v>
       </c>
       <c r="H24">
-        <v>-0.008813336593011308</v>
+        <v>-0.30947794218730901</v>
       </c>
       <c r="I24">
-        <v>368</v>
+        <v>0.30947794218730901</v>
       </c>
       <c r="J24">
-        <v>0.4517143172581674</v>
+        <v>-1.277163177295907E-2</v>
       </c>
       <c r="K24">
-        <v>1.19954758518615</v>
+        <v>415</v>
       </c>
       <c r="L24">
-        <v>-0.7885167138948465</v>
+        <v>0.58256414408217427</v>
       </c>
       <c r="M24">
-        <v>12.78899434775489</v>
+        <v>1.2022889773276679</v>
       </c>
       <c r="N24">
-        <v>1.106590104510995</v>
+        <v>-0.73213791582705945</v>
       </c>
       <c r="O24">
-        <v>-0.00906206766958814</v>
+        <v>12.70083634979089</v>
       </c>
       <c r="P24">
-        <v>-0.01472390817934816</v>
+        <v>1.0763054184946239</v>
       </c>
       <c r="Q24">
-        <v>0.08078392495535169</v>
+        <v>-1.5597425604119889E-2</v>
       </c>
       <c r="R24">
-        <v>0.006724683544303798</v>
+        <v>-2.6894257688892649E-2</v>
       </c>
       <c r="S24">
-        <v>0.5474683544303798</v>
+        <v>0.14668502915907181</v>
       </c>
       <c r="T24">
-        <v>1.671229446248288</v>
+        <v>3.162486368593239E-2</v>
       </c>
       <c r="U24">
-        <v>0.3123280110605118</v>
-      </c>
-      <c r="V24">
-        <v>0.03588235088309435</v>
+        <v>0.55179934569247546</v>
+      </c>
+      <c r="V24" s="2">
+        <v>2.341334669800998</v>
+      </c>
+      <c r="W24">
+        <v>0.73312906788697452</v>
+      </c>
+      <c r="X24">
+        <v>5.9267371855984519E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2994,48 +5178,168 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2498374509419381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>2.953587237078887E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2677360287491581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>5.7874589653084993E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1410462807305395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4.9615565348253142E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3413802395783644</v>
+        <v>5.6157218716028599E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4.8232189137485629E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6.9251555043817567E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5.6749728432225477E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.4725631340224627E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.2601942621054854E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.8121997124177671E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4.3649415338772868E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.7594272961701419E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.1869572945037568E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3.347718833690954E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9.9114509507354259E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.8497749423202282E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3.6526801165362291E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.1101852523810702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5.6218948153448058E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3044,48 +5348,168 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2498374509419381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.1077951188055437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2677360287491581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.4633079930245881E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1410462807305395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.19934432888721201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3413802395783644</v>
+        <v>1.7307498538966549E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.4433333076873689E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.25501141575143749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.238078125564793E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.9433579970425521E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.909609002097213E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.372062919212474E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>9.9705755502969961E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.626333820060475E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.8961651294010229E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.6578956626599039E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8.1935977292930534E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4.3376089713218949E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5.574163634463479E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6.9220980450547545E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.479493909770749E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3094,48 +5518,170 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.2498374509419381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="2">
+        <v>6.8665495588166273E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.2677360287491581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="2">
+        <v>3.6253834791665433E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.1410462807305395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="2">
+        <v>0.1244799471177326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.3413802395783644</v>
+      <c r="B5" s="2">
+        <v>3.6732358627497567E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.1332761107179648E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.16213148539762751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.4565254843936702E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.7079605655325069E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.0849016321013502E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.0921313158151201E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.680999544453494E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.192880558115309E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.5415612119523891E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.5028072481754291E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9.0525243400142397E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.5936919568210622E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4.6134218754998541E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8.9703116415808887E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.5506943625577783E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3144,48 +5690,168 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2291545738101213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3.3886864479405657E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2348847014025844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7.2308354014568046E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.126250128853724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>5.2394823121141652E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4097105959335703</v>
+        <v>5.4882050606044917E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5.1364543359489971E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7.4351061374892669E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5.1110355378434988E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8.1074634523913544E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5.9138084533739033E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.2503030449000242E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4.7944788503971332E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.7506338623970769E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.0443408305958229E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2.8788444978830881E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8.8675818784627242E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3.2402885887743219E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3.5598924199182438E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8.6632090901267667E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5.899349797381756E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3194,48 +5860,168 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.211452065805646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3.2242780115217883E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1911766054194577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7.3874274607982016E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1102703673692836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4.7970264426694158E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4871009614056127</v>
+        <v>5.3920768226412528E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4.8421726332224378E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6.9518111211537073E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.5758806404989263E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8.6651366071370722E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5.8171338689025229E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.3460096214144017E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4.8444549453892011E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.7797984148645601E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.0327983276377E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2.9020704631463681E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9.459161636026403E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3.3095790112773589E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3.7545223249295233E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>9.1074439213405411E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5.8112177254286183E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3244,48 +6030,168 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2844370168643907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3.2938717331625698E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3770337878226501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6.4105531191633175E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1489385168858209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4.3227139004488532E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1895906784271383</v>
+        <v>4.9476076871360679E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5.382166473738443E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9.0072360382087754E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8.7815645526109279E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.1553344107193689E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.3565771650337291E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3.5008729721245739E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4.1924021986395957E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.5521133379405151E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.084211762304799E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2.8585431149691139E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7.8239799922622755E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.297066926108552E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3.2361789342226853E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8.563012085783954E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6.2339935954218842E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3294,48 +6200,168 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2103657191108973</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3.0774916778443039E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3584885180610548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6.6663197519546219E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1715299553235965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>6.3360418997499987E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2596158075044514</v>
+        <v>4.9236003053773937E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5.0441487941562828E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.1746712708691549E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6.5005774095634031E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.7074083428979728E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5.6299804725342517E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.9334708087135428E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2.8227288107915308E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.374789148677103E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.352013103890381E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4.640158776424809E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9.232591030442526E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.630505838583392E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2.8973514312509181E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>9.1214728244399718E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6.9346783018384386E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3344,48 +6370,168 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2841874267622446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1.854837391860956E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1937983316578019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3.1966561640250891E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.08259591801493107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4.0644237346736042E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4394183235650225</v>
+        <v>6.0592528703290058E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.2862396018109627E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5.045442604287273E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.5077444198684487E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.6526725964164433E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.6130629078911915E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.3268869772359091E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4.7072425313677037E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.9585460211773929E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4.4258234984536952E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3.8784763371239712E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.13044507684214929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.5818025479657641E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4.2635026314694159E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.14999893294619651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4.5329861852085929E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3394,48 +6540,168 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2598237159333561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1.9201761032355939E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2775687573978579</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>4.5572888647003172E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1395590379884784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4.1376411068783432E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3230484886803077</v>
+        <v>5.9783558700185611E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4.6563665511271557E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5.8099286153170678E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5.2570360349566039E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6.4472945947505231E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.7653842499495298E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.873309531976329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3.9266063295822558E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.724125102826061E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.0415709243607331E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3.1258604854507661E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.1172611853591586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.6964320724195131E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4.1707235920377297E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.16638966362024649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4.5468150724724078E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3444,48 +6710,168 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2446064042934056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>2.3993563476238891E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3151362641040295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>5.4072689138551289E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1593408865935437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>5.2602779733877121E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2809164450090212</v>
+        <v>5.4907249548181762E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4.9014814581133569E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7.03979637303013E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5.961350602998234E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7.3210498510238031E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.4234728964958146E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.3234274535714659E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3.1916113135165257E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.672084505495945E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.8045983605192289E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3.8107460970953203E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.1098030302413444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.806182722391673E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3.6772455073894171E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.1192235978575947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5.6066618587802722E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optimization/hrp_portfolio_weights_all_rm.xlsx
+++ b/optimization/hrp_portfolio_weights_all_rm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\work\repovault\quant\optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8538B2-E36B-44B3-946D-2CDB31B4741C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD70DF6-61D5-4A3F-A22E-696559928304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRP_MSV" sheetId="1" r:id="rId1"/>
@@ -51,20 +51,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="64">
   <si>
     <t>weights</t>
   </si>
   <si>
+    <t>ARGT</t>
+  </si>
+  <si>
+    <t>ARKK</t>
+  </si>
+  <si>
     <t>BTC-USD</t>
   </si>
   <si>
-    <t>EEM</t>
+    <t>CIBR</t>
+  </si>
+  <si>
+    <t>ETH-USD</t>
   </si>
   <si>
     <t>GDX</t>
   </si>
   <si>
+    <t>IEMG</t>
+  </si>
+  <si>
     <t>IJH</t>
   </si>
   <si>
@@ -74,45 +86,18 @@
     <t>SLV</t>
   </si>
   <si>
-    <t>URA</t>
+    <t>SMH</t>
+  </si>
+  <si>
+    <t>SPXL</t>
+  </si>
+  <si>
+    <t>TQQQ</t>
   </si>
   <si>
     <t>VEA</t>
   </si>
   <si>
-    <t>XLB</t>
-  </si>
-  <si>
-    <t>XLC</t>
-  </si>
-  <si>
-    <t>XLE</t>
-  </si>
-  <si>
-    <t>XLF</t>
-  </si>
-  <si>
-    <t>XLI</t>
-  </si>
-  <si>
-    <t>XLK</t>
-  </si>
-  <si>
-    <t>XLP</t>
-  </si>
-  <si>
-    <t>XLRE</t>
-  </si>
-  <si>
-    <t>XLU</t>
-  </si>
-  <si>
-    <t>XLV</t>
-  </si>
-  <si>
-    <t>XLY</t>
-  </si>
-  <si>
     <t>Risk Measure</t>
   </si>
   <si>
@@ -183,6 +168,9 @@
   </si>
   <si>
     <t>Jensen's Alpha</t>
+  </si>
+  <si>
+    <t>SPY</t>
   </si>
   <si>
     <t>HRP_MSV</t>
@@ -666,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -682,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.2978044924406612E-2</v>
+        <v>0.11423941654189571</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.0638141941681554E-2</v>
+        <v>5.3341431598785141E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.0844872785450218E-2</v>
+        <v>3.9075297742507793E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.5144052872934078E-2</v>
+        <v>9.0960117351214134E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -714,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.1549567001554573E-2</v>
+        <v>3.0360420079162349E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -722,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.1698674072620802E-2</v>
+        <v>7.5435847469432354E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -730,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.0945825042043577E-2</v>
+        <v>9.56354551058088E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -738,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.9836277543779227E-2</v>
+        <v>7.5546724482300764E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -746,7 +734,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.9560508511646779E-2</v>
+        <v>7.0630746772489233E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -754,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.4013549104386351E-2</v>
+        <v>9.6215859981757607E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -762,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.7761597631752577E-2</v>
+        <v>5.2203863247439648E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -770,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.8338771857746609E-2</v>
+        <v>7.3805207594298039E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -778,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.1225872283826339E-2</v>
+        <v>2.4752586187971722E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -786,47 +774,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.941503682862584E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>8.8127484449320698E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3.2362270339111869E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3.5477420476173839E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>8.9068034627999948E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>6.1013997704938518E-2</v>
+        <v>0.10779702584493669</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +784,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -852,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.8771160996697369E-2</v>
+        <v>0.1040796162081556</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -860,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.5652090416431179E-2</v>
+        <v>2.076994719483672E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -868,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.2065487335419108E-2</v>
+        <v>2.4346924141042201E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -876,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.2261119032454799E-2</v>
+        <v>0.10621706238574991</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -884,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.8020921008135568E-2</v>
+        <v>1.774640695231575E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -892,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.7666811460592528E-2</v>
+        <v>7.3440524009699137E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -900,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.8091996064906717E-2</v>
+        <v>6.8675298862618084E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -908,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.1560242955600983E-2</v>
+        <v>0.11796244458217341</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -916,7 +864,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.9208940046423209E-2</v>
+        <v>7.2371722495850735E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -924,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.9492289024182079E-2</v>
+        <v>9.2044795323023426E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -932,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.4856505509324032E-2</v>
+        <v>7.583318213661247E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -940,7 +888,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.84983955030189E-2</v>
+        <v>8.1614712267285658E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.8099440250148282E-2</v>
+        <v>2.7777209511433879E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -956,47 +904,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.2903642345148323E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.12638241972216521</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2.5545802141488171E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>4.2152001918547337E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.15616466210998239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>4.260607215933386E-2</v>
+        <v>0.117120153929203</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +914,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1022,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1169033021665377</v>
+        <v>4.769105605169268E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1030,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.8003653089719941E-2</v>
+        <v>3.7786616154094912E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1038,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.19893516029962799</v>
+        <v>7.5823096758651315E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1046,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.62373846170615E-2</v>
+        <v>6.4435372967380888E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1054,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.5178974026010639E-2</v>
+        <v>5.8912438350825123E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1062,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.25416339201625687</v>
+        <v>0.14007362446791291</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1070,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.066422430941549E-2</v>
+        <v>7.7296398380749379E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1078,7 +986,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.0347996215125012E-2</v>
+        <v>6.982749536627969E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1086,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.7264741254001969E-2</v>
+        <v>6.5283679428462041E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1094,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.6648391451783949E-2</v>
+        <v>0.17865914801849611</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1102,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.1688707726967991E-2</v>
+        <v>4.729571620408865E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1110,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.6013672059709109E-2</v>
+        <v>2.7364115203508919E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1118,7 +1026,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.7645114652167431E-2</v>
+        <v>2.2425376568677071E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1126,47 +1034,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.4397587449304181E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7.1966801988992662E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.9620985236530753E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5.4397436868044137E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>6.437439385124695E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.554808072149561E-2</v>
+        <v>8.7125866079180353E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1829764153108473</v>
+        <v>5.1842711766460763E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1200,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.4757695028993529E-2</v>
+        <v>4.7434855157399328E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1208,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.22553455107414561</v>
+        <v>0.1077966991321806</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1216,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.457631961920109E-2</v>
+        <v>5.6035465871531707E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1224,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.4313224605385391E-2</v>
+        <v>9.263005396192496E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1232,7 +1100,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.24096747824918699</v>
+        <v>0.13797795922170869</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1240,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.3091250679849471E-2</v>
+        <v>5.7101033405882608E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1248,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.508199458208867E-2</v>
+        <v>5.6472045937142071E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1256,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.468220418855821E-2</v>
+        <v>5.5537267829111427E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1264,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.46936273890232E-2</v>
+        <v>0.1470239278174478</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1272,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.3502783823701219E-2</v>
+        <v>5.1969059221188038E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1280,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.458616010742724E-2</v>
+        <v>4.2230166186459181E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1288,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.483669106367801E-2</v>
+        <v>3.7708564560188042E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1296,47 +1164,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.4389845634820779E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>4.5361619028299022E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.3252783833311471E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>4.4069099644724032E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>4.4829074472343168E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.4497181664415571E-2</v>
+        <v>5.8240189931374788E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1161087954347084</v>
+        <v>4.7905733619983737E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1370,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.78980709766716E-2</v>
+        <v>3.6966764447068971E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1378,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.20968475508865131</v>
+        <v>7.5825656756312712E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1386,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.572318094614869E-2</v>
+        <v>6.2516003187750538E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1394,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.471544886787826E-2</v>
+        <v>5.8813461028569741E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1402,7 +1230,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.25475393808646268</v>
+        <v>0.1500712328424357</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1410,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.052456652559965E-2</v>
+        <v>7.7091502750954832E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1418,7 +1246,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.006793797054713E-2</v>
+        <v>6.7620989373504664E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1426,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.676018997225303E-2</v>
+        <v>6.3443701213644288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1434,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.5517402303679239E-2</v>
+        <v>0.18172554457570961</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1442,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.136891030565278E-2</v>
+        <v>4.5749138085387768E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1450,7 +1278,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.5244083096757949E-2</v>
+        <v>2.5308614583567202E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1458,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.6871814613673371E-2</v>
+        <v>2.1179112461943109E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1466,47 +1294,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.374400713603597E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7.1464580162545338E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.8853016957268562E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5.3671603621608881E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>6.2282816496360707E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.4744881437496461E-2</v>
+        <v>8.5782545073167141E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1532,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1152095569238874</v>
+        <v>4.9403952883895923E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1540,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7505199216594911E-2</v>
+        <v>3.3623440001201203E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1548,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1945102446342182</v>
+        <v>7.4534080163194322E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1556,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.5991167098679811E-2</v>
+        <v>6.1975899808195963E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1564,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.436032798594015E-2</v>
+        <v>5.8629663693670842E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1572,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.248401371167326</v>
+        <v>0.13932032398127689</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1580,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9.5936676994823611E-3</v>
+        <v>7.920540539725468E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1588,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.0532850353099031E-2</v>
+        <v>7.2915065987228384E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1596,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.6979204461508801E-2</v>
+        <v>6.7189122662738049E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1604,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.5593704639839541E-2</v>
+        <v>0.17389510681796749</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1612,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.1462731393174261E-2</v>
+        <v>4.5674344162283567E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1620,7 +1408,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.5928684175861449E-2</v>
+        <v>2.8103639474041871E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1628,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.7378413654637409E-2</v>
+        <v>2.0879096051412228E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1636,47 +1424,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.3524775707960259E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7.9456157488438081E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>5.2069170335143973E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5.906940483901707E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>6.8347177179956073E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.408619104523528E-2</v>
+        <v>9.4650858915638486E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1161859521472758</v>
+        <v>3.4828333236612573E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1710,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.4681694889499551E-2</v>
+        <v>5.4644359831829838E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1718,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.18921607996795811</v>
+        <v>7.219040718519025E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1726,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.2694990998606499E-2</v>
+        <v>8.4819399511859961E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1734,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.381001875204502E-2</v>
+        <v>6.3363876795072216E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1742,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.31771555788838962</v>
+        <v>0.1175665552600266</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1750,7 +1498,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.630787362172054E-2</v>
+        <v>6.7134722080873954E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1758,7 +1506,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.6387421599624759E-2</v>
+        <v>5.895646385953246E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1766,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.6643426394153438E-2</v>
+        <v>6.4134795146122081E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1774,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.6243374439597849E-2</v>
+        <v>0.1974078196988853</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1782,7 +1530,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9.096618155222563E-3</v>
+        <v>5.9040725977502803E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1790,7 +1538,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.3364397029018E-2</v>
+        <v>2.5120294371003361E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1798,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.615078370550381E-2</v>
+        <v>2.4687895206249671E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1806,47 +1554,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.326308796060067E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>6.051736105883166E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3.5534965243032741E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5.0062758137680588E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>5.7661374879903332E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.4462263131335539E-2</v>
+        <v>7.6104351839238901E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1564,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1872,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.10753152083803171</v>
+        <v>3.720579075457859E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1880,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.4745858721421449E-2</v>
+        <v>2.201548249357662E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1888,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2235237136210908</v>
+        <v>6.78722063052309E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1896,7 +1604,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.37696830131017E-2</v>
+        <v>7.9413735239008396E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1904,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.4106817300054451E-2</v>
+        <v>4.3553782862105393E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1912,7 +1620,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.28563353734989277</v>
+        <v>0.16714544587462321</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1920,7 +1628,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.2054684006503939E-2</v>
+        <v>6.9523698280236371E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1928,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.7048740348729101E-2</v>
+        <v>5.9224001916498431E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1936,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.6155488058279811E-2</v>
+        <v>6.0674036861411443E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1944,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.1936219371376851E-2</v>
+        <v>0.21358962438996781</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1952,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6.9375159003293163E-3</v>
+        <v>5.6380463742171011E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1960,7 +1668,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.361627745812834E-2</v>
+        <v>2.5592080411555539E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1968,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.3485686940065911E-2</v>
+        <v>2.4482353224169799E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1976,47 +1684,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.888069003751747E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7.1115739429965838E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.0419657104548631E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>4.4519935916813101E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>5.8841108409618779E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.5677126174530039E-2</v>
+        <v>7.332729764486659E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2042,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.9817433593335527E-2</v>
+        <v>4.6712480913158903E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2050,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.050140869150629E-2</v>
+        <v>1.5967651609100079E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2058,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.17691316551159711</v>
+        <v>4.684731232546549E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2066,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.4465782005797139E-2</v>
+        <v>8.8223530233606684E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2074,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.3269032244953819E-2</v>
+        <v>3.2815420548819932E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2082,7 +1750,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.21711567913381491</v>
+        <v>0.1304759339329794</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2090,7 +1758,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.1603688691894719E-2</v>
+        <v>4.989888974481603E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2098,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.5139970767475039E-2</v>
+        <v>0.117606400971694</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2106,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.513958205667571E-2</v>
+        <v>6.5009345488285339E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2114,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.3549312601261489E-2</v>
+        <v>0.1564753626827059</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2122,7 +1790,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.047879693806158E-2</v>
+        <v>7.7238757264092642E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2130,7 +1798,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.0427095590002609E-2</v>
+        <v>4.3631192679361497E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2138,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.0557820977013161E-2</v>
+        <v>3.0586293480258309E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2146,47 +1814,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.2584117244367791E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.1150662549903273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3.9165559763512978E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>6.4676699326320641E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>8.3745653153548177E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.578294671853412E-2</v>
+        <v>9.85114281256559E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +1824,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2212,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.789257188269795E-2</v>
+        <v>4.4223057313142321E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2220,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.356857547926635E-2</v>
+        <v>1.894212337401803E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2228,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1860100696246321</v>
+        <v>5.4710978401616338E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2236,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.0363680159053921E-2</v>
+        <v>7.4853331419084512E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2244,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.5860674943423199E-2</v>
+        <v>3.9019558057242457E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2252,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.23568165520826889</v>
+        <v>0.15265240849361689</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2260,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.4324870369002939E-2</v>
+        <v>6.5247918586906525E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2268,7 +1896,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.9195755622063489E-2</v>
+        <v>9.0144123768912551E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2276,7 +1904,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.3018762296839329E-2</v>
+        <v>6.9652514407879687E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2284,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.0542200761701041E-2</v>
+        <v>0.19299533329612539</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2292,7 +1920,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8.0284135712845525E-3</v>
+        <v>5.8216262573213717E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2300,7 +1928,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.8305304570161222E-2</v>
+        <v>3.3167890557725573E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2308,7 +1936,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.043844538725836E-2</v>
+        <v>2.169513422843837E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2316,47 +1944,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.759103246323878E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.1043234095279251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.3086977637555569E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>6.6645058846710181E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>9.0956781910568774E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.416575973834829E-2</v>
+        <v>8.4479365522077729E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +1954,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2382,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.8473442761677082E-2</v>
+        <v>4.1011099892917457E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2390,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.3748587231546981E-2</v>
+        <v>2.0307624301818931E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2398,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.20412674539674089</v>
+        <v>5.8940485728425723E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2406,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.6837237620703951E-2</v>
+        <v>7.8791687476140515E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2414,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.503032999883017E-2</v>
+        <v>4.0164833059291777E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2422,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.25958420977356872</v>
+        <v>0.15822011998617791</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2430,7 +2018,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.326244507882391E-2</v>
+        <v>6.6152889453761285E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2438,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.861458975073298E-2</v>
+        <v>7.4478335102588861E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2446,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.0029238069284042E-2</v>
+        <v>6.6302211658519364E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2454,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.119250473163259E-2</v>
+        <v>0.2011506807145132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2462,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.7494642626273098E-3</v>
+        <v>5.8727611371627901E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2470,7 +2058,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.6488177925850219E-2</v>
+        <v>3.1179901687223871E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2478,7 +2066,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.730585865966322E-2</v>
+        <v>2.2991244404922069E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2486,47 +2074,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.8357273715272421E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>8.9452773642167319E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.2987346409166079E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5.6330981299383569E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>7.5545853053154033E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.4882940619174509E-2</v>
+        <v>8.1581275162071101E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2536,7 +2084,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2552,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.2022540654888129E-2</v>
+        <v>0.1248536962338347</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2560,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.3892167413202486E-2</v>
+        <v>6.2329433290033577E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2568,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.1669219662441078E-2</v>
+        <v>5.5121472404924897E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2576,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.1368779545647581E-2</v>
+        <v>7.3630641862954482E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2584,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6.0261104883989773E-2</v>
+        <v>4.7366060412184587E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2592,7 +2140,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6.8510143301408616E-2</v>
+        <v>7.0285320069034332E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2600,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.1507571231904111E-2</v>
+        <v>6.9115923164767848E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2608,7 +2156,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.5296194349500694E-2</v>
+        <v>6.7414484390501281E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2616,7 +2164,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.205577751066909E-2</v>
+        <v>6.6298576809561902E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2624,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.2171329013845812E-2</v>
+        <v>7.4893293702448724E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2632,7 +2180,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5.908080044981269E-2</v>
+        <v>6.3416099457300423E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2640,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.0984658322462121E-2</v>
+        <v>0.10876572712646</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2648,7 +2196,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.151684883877745E-2</v>
+        <v>4.601449624791288E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2656,47 +2204,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.1506206474386962E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>6.5292753087465072E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3.1450844676217032E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3.2044420846722467E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>6.6456253431770348E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>6.2912386304888546E-2</v>
+        <v>7.0494774828080323E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +2214,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2722,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.6852196996437819E-2</v>
+        <v>4.5856262609592323E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2730,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0920055977238189E-2</v>
+        <v>1.5832028732036901E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2738,7 +2246,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.18498880365345821</v>
+        <v>4.740406297098948E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2746,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2415559311311142E-2</v>
+        <v>8.0964653773495918E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2754,7 +2262,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.368848204421577E-2</v>
+        <v>3.4552692890608833E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2762,7 +2270,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.23609733864120791</v>
+        <v>0.1409341735360867</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2770,7 +2278,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.238054157418631E-2</v>
+        <v>5.5574924231623378E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2778,7 +2286,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.191854249476996E-2</v>
+        <v>0.1079938948825898</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2786,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.4288063458166979E-2</v>
+        <v>6.6255868292424164E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2794,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.12895542313516E-2</v>
+        <v>0.17663622818697949</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2802,7 +2310,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9.3918134259483831E-3</v>
+        <v>6.9734349903274581E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2810,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.8659529993131429E-2</v>
+        <v>3.7939086520521449E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2818,7 +2326,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.494588328644157E-2</v>
+        <v>2.5543246278619432E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2826,47 +2334,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.9057148916872081E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.1106350756118131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3.8770434612118737E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>6.3973384946045778E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>8.5625571098775402E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.410201972650954E-2</v>
+        <v>9.4778527191157647E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2876,7 +2344,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2892,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.953587237078887E-2</v>
+        <v>0.10724783024737169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2900,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.7874589653084993E-2</v>
+        <v>4.1673527921992477E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2908,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.9615565348253142E-2</v>
+        <v>3.405787886728507E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2916,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.6157218716028599E-2</v>
+        <v>0.1000858599294215</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2924,7 +2392,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.8232189137485629E-2</v>
+        <v>2.6028408928034201E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2932,7 +2400,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6.9251555043817567E-2</v>
+        <v>7.5373179995723114E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2940,7 +2408,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.6749728432225477E-2</v>
+        <v>8.3958867259670444E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2948,7 +2416,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.4725631340224627E-2</v>
+        <v>8.6686289442727174E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2956,7 +2424,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.2601942621054854E-2</v>
+        <v>7.2296026628114712E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2964,7 +2432,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.8121997124177671E-2</v>
+        <v>9.5706313704680371E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +2440,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.3649415338772868E-2</v>
+        <v>6.4506731385846908E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2980,7 +2448,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.7594272961701419E-2</v>
+        <v>7.8499858995404001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2988,7 +2456,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.1869572945037568E-2</v>
+        <v>2.8672227041090539E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,47 +2464,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.347718833690954E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>9.9114509507354259E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2.8497749423202282E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3.6526801165362291E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.1101852523810702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5.6218948153448058E-2</v>
+        <v>0.10520699965263761</v>
       </c>
     </row>
   </sheetData>
@@ -3046,179 +2474,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.1077951188055437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.4633079930245881E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.19934432888721201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.7307498538966549E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1.4433333076873689E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.25501141575143749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.238078125564793E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1.9433579970425521E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.909609002097213E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.372062919212474E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>9.9705755502969961E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1.626333820060475E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1.8961651294010229E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1.6578956626599039E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>8.1935977292930534E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4.3376089713218949E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5.574163634463479E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>6.9220980450547545E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.479493909770749E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3234,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.8665495588166273E-2</v>
+        <v>4.466804790420352E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3242,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.6253834791665433E-2</v>
+        <v>3.035209461021449E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3250,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1244799471177326</v>
+        <v>6.8194498572725706E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3258,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.6732358627497567E-2</v>
+        <v>7.3202907948805518E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3266,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.1332761107179648E-2</v>
+        <v>5.2245578124813133E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3274,7 +2530,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.16213148539762751</v>
+        <v>0.1434437777596845</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3282,7 +2538,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.4565254843936702E-2</v>
+        <v>6.64227382313059E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3290,7 +2546,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.7079605655325069E-2</v>
+        <v>7.752388171659709E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3298,7 +2554,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.0849016321013502E-2</v>
+        <v>6.4348254298859792E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3306,7 +2562,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.0921313158151201E-2</v>
+        <v>0.1819558776198798</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3314,7 +2570,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.680999544453494E-2</v>
+        <v>5.7002642850483051E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3322,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.192880558115309E-2</v>
+        <v>3.1963698167496848E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3330,7 +2586,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.5415612119523891E-2</v>
+        <v>2.5217831646487811E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3338,47 +2594,139 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.5028072481754291E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>9.0525243400142397E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3.5936919568210622E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>4.6134218754998541E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>8.9703116415808887E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>3.5506943625577783E-2</v>
+        <v>8.3458170548442873E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B2:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.5957939075787642E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.6012811266103492E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.1126188720005399E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.6644383939113515E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.913699352642367E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.1094084788777038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.5190802745488186E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8.2105085579662146E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6.8322140463487266E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.13883109566228011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.0754687118164993E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5.5231778581450432E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.694502934378918E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>9.4332585100540239E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3388,1788 +2736,1862 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2">
-        <v>0.14406133104371241</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1468861440982849</v>
       </c>
       <c r="C2">
-        <v>5.342081247634578E-4</v>
+        <v>5.4399937885651894E-4</v>
       </c>
       <c r="D2">
-        <v>0.14406133104371241</v>
-      </c>
-      <c r="E2">
-        <v>0.17977135347787229</v>
+        <v>0.1468861440982849</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.19472308113863199</v>
       </c>
       <c r="F2">
-        <v>0.67239735211889717</v>
+        <v>0.64755337561362303</v>
       </c>
       <c r="G2">
-        <v>0.80986575809974581</v>
+        <v>0.78759524898625788</v>
       </c>
       <c r="H2">
-        <v>-0.33515036067156911</v>
+        <v>-0.33717250197728249</v>
       </c>
       <c r="I2">
-        <v>0.33515036067156911</v>
+        <v>0.33717250197728249</v>
       </c>
       <c r="J2">
-        <v>-1.0388303108777469E-2</v>
+        <v>-8.6333021143753762E-3</v>
       </c>
       <c r="K2">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="L2">
-        <v>0.42984089515835389</v>
+        <v>0.43564093523908298</v>
       </c>
       <c r="M2">
-        <v>1.1716101793340681</v>
+        <v>1.167227393228276</v>
       </c>
       <c r="N2">
-        <v>-0.8055800037485159</v>
+        <v>-0.29649095682477261</v>
       </c>
       <c r="O2">
-        <v>15.12836758185615</v>
+        <v>13.22614280657541</v>
       </c>
       <c r="P2">
-        <v>0.99037904037439317</v>
+        <v>0.91229627719249684</v>
       </c>
       <c r="Q2">
-        <v>-1.558145804457354E-2</v>
+        <v>-1.7984747422301269E-2</v>
       </c>
       <c r="R2">
-        <v>-2.6666834615437299E-2</v>
+        <v>-2.974955926948266E-2</v>
       </c>
       <c r="S2">
-        <v>0.14866309828968169</v>
+        <v>0.16009947833421559</v>
       </c>
       <c r="T2">
-        <v>3.107960741548528E-2</v>
+        <v>4.2317380352644839E-2</v>
       </c>
       <c r="U2">
-        <v>0.55398037077426387</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1.663060704377838</v>
+        <v>0.55264483627204031</v>
+      </c>
+      <c r="V2">
+        <v>1.943340490794446</v>
       </c>
       <c r="W2">
-        <v>0.83498370586097348</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>1.465815226231784E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>0.1581726989840897</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.20496360333987779</v>
       </c>
       <c r="C3">
-        <v>5.8288212566059983E-4</v>
+        <v>7.4015219735312776E-4</v>
       </c>
       <c r="D3">
-        <v>0.1581726989840897</v>
-      </c>
-      <c r="E3">
-        <v>0.18703828095981681</v>
+        <v>0.20496360333987779</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.2471378784700089</v>
       </c>
       <c r="F3">
-        <v>0.71906675555613309</v>
+        <v>0.75784790984936734</v>
       </c>
       <c r="G3">
-        <v>0.86663321258253956</v>
+        <v>0.94376131645035988</v>
       </c>
       <c r="H3">
-        <v>-0.34083348394997293</v>
+        <v>-0.40390697777295348</v>
       </c>
       <c r="I3">
-        <v>0.34083348394997293</v>
+        <v>0.40390697777295348</v>
       </c>
       <c r="J3">
-        <v>-1.143954072814359E-2</v>
+        <v>-1.5874826880327791E-2</v>
       </c>
       <c r="K3">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="L3">
-        <v>0.46407617335891233</v>
+        <v>0.5074524943094525</v>
       </c>
       <c r="M3">
-        <v>1.1789648834474571</v>
+        <v>1.1724769170035001</v>
       </c>
       <c r="N3">
-        <v>-0.83557219100519375</v>
+        <v>-0.71998717916300647</v>
       </c>
       <c r="O3">
-        <v>14.5530548932005</v>
+        <v>10.469589179766629</v>
       </c>
       <c r="P3">
-        <v>0.99624972166558978</v>
+        <v>0.95175485820346595</v>
       </c>
       <c r="Q3">
-        <v>-1.608356679657658E-2</v>
+        <v>-2.3212954583245741E-2</v>
       </c>
       <c r="R3">
-        <v>-2.7738324374988289E-2</v>
+        <v>-3.7274728186403858E-2</v>
       </c>
       <c r="S3">
-        <v>0.15457317159455819</v>
+        <v>0.19766461600456489</v>
       </c>
       <c r="T3">
-        <v>3.5441657579062161E-2</v>
+        <v>6.2468513853904277E-2</v>
       </c>
       <c r="U3">
-        <v>0.56052344601962922</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1.911575627157696</v>
+        <v>0.54408060453400509</v>
+      </c>
+      <c r="V3">
+        <v>3.3434052631408679</v>
       </c>
       <c r="W3">
-        <v>0.85418178531881495</v>
+        <v>1.141893978907301</v>
       </c>
       <c r="X3">
-        <v>2.583116126495905E-2</v>
+        <v>4.3307415154760533E-2</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>0.14472430153888149</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.24220798030071819</v>
       </c>
       <c r="C4">
-        <v>5.3650824739048808E-4</v>
+        <v>8.6104677959331077E-4</v>
       </c>
       <c r="D4">
-        <v>0.14472430153888149</v>
-      </c>
-      <c r="E4">
-        <v>0.17968598764271471</v>
+        <v>0.24220798030071819</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.28088447780539971</v>
       </c>
       <c r="F4">
-        <v>0.67585925199481012</v>
+        <v>0.80738273044231867</v>
       </c>
       <c r="G4">
-        <v>0.81452632960439897</v>
+        <v>1.0084168139052621</v>
       </c>
       <c r="H4">
-        <v>-0.3347112152515278</v>
+        <v>-0.43230057435398078</v>
       </c>
       <c r="I4">
-        <v>0.3347112152515278</v>
+        <v>0.43230057435398078</v>
       </c>
       <c r="J4">
-        <v>-1.0504985805630789E-2</v>
+        <v>-1.780350628693966E-2</v>
       </c>
       <c r="K4">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="L4">
-        <v>0.43238557581682607</v>
+        <v>0.56027679505785477</v>
       </c>
       <c r="M4">
-        <v>1.172197537937314</v>
+        <v>1.179427634360009</v>
       </c>
       <c r="N4">
-        <v>-0.81038621575924874</v>
+        <v>-0.70498128789352388</v>
       </c>
       <c r="O4">
-        <v>15.104574190614249</v>
+        <v>10.187396228127209</v>
       </c>
       <c r="P4">
-        <v>0.99290727448867278</v>
+        <v>0.93181646821202602</v>
       </c>
       <c r="Q4">
-        <v>-1.5467678855910719E-2</v>
+        <v>-2.6693263553881231E-2</v>
       </c>
       <c r="R4">
-        <v>-2.664028458841728E-2</v>
+        <v>-4.2373344928185869E-2</v>
       </c>
       <c r="S4">
-        <v>0.14850294997196639</v>
+        <v>0.22399424040335969</v>
       </c>
       <c r="T4">
-        <v>3.053435114503817E-2</v>
+        <v>8.3123425692695208E-2</v>
       </c>
       <c r="U4">
-        <v>0.55343511450381677</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1.6743123176818659</v>
+        <v>0.54357682619647352</v>
+      </c>
+      <c r="V4">
+        <v>4.5203564836264398</v>
       </c>
       <c r="W4">
-        <v>0.83179531615739166</v>
+        <v>1.306109862685912</v>
       </c>
       <c r="X4">
-        <v>1.5628407618148391E-2</v>
+        <v>6.2089197066503697E-2</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5">
-        <v>0.14175628907488799</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.20454073532345959</v>
       </c>
       <c r="C5">
-        <v>5.2620062255814837E-4</v>
+        <v>7.3875831022407468E-4</v>
       </c>
       <c r="D5">
-        <v>0.14175628907488799</v>
-      </c>
-      <c r="E5">
-        <v>0.17844902636723631</v>
+        <v>0.20454073532345959</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.24520682063093269</v>
       </c>
       <c r="F5">
-        <v>0.664740647009883</v>
+        <v>0.76041759603055237</v>
       </c>
       <c r="G5">
-        <v>0.79878408509874099</v>
+        <v>0.94725954234031018</v>
       </c>
       <c r="H5">
-        <v>-0.33470235845940488</v>
+        <v>-0.40168608103171383</v>
       </c>
       <c r="I5">
-        <v>0.33470235845940488</v>
+        <v>0.40168608103171383</v>
       </c>
       <c r="J5">
-        <v>-1.0242528868820809E-2</v>
+        <v>-1.551620632503929E-2</v>
       </c>
       <c r="K5">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="L5">
-        <v>0.42352940005375328</v>
+        <v>0.50920543424881781</v>
       </c>
       <c r="M5">
-        <v>1.1707685624408499</v>
+        <v>1.1730566344019679</v>
       </c>
       <c r="N5">
-        <v>-0.81554709885896226</v>
+        <v>-0.71889428265290189</v>
       </c>
       <c r="O5">
-        <v>15.473137580864559</v>
+        <v>10.40173368604826</v>
       </c>
       <c r="P5">
-        <v>0.9954540456890334</v>
+        <v>0.95394568134734681</v>
       </c>
       <c r="Q5">
-        <v>-1.5313756924885621E-2</v>
+        <v>-2.298515543920247E-2</v>
       </c>
       <c r="R5">
-        <v>-2.6477160162716989E-2</v>
+        <v>-3.6968929915647569E-2</v>
       </c>
       <c r="S5">
-        <v>0.14791313729554159</v>
+        <v>0.19605839778091669</v>
       </c>
       <c r="T5">
-        <v>2.998909487459106E-2</v>
+        <v>6.2972292191435769E-2</v>
       </c>
       <c r="U5">
-        <v>0.55398037077426387</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1.6242578318405629</v>
+        <v>0.54609571788413103</v>
+      </c>
+      <c r="V5">
+        <v>3.3314131086540271</v>
       </c>
       <c r="W5">
-        <v>0.83088721571469815</v>
+        <v>1.1269745471789629</v>
       </c>
       <c r="X5">
-        <v>1.292381258997133E-2</v>
+        <v>4.4355316271150941E-2</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>0.1512935090986276</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.20524373017730491</v>
       </c>
       <c r="C6">
-        <v>5.5922813832576246E-4</v>
+        <v>7.4107530276457112E-4</v>
       </c>
       <c r="D6">
-        <v>0.1512935090986276</v>
-      </c>
-      <c r="E6">
-        <v>0.1830582880472556</v>
+        <v>0.20524373017730491</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2458867123410538</v>
       </c>
       <c r="F6">
-        <v>0.69804428209734337</v>
+        <v>0.7614148589509131</v>
       </c>
       <c r="G6">
-        <v>0.84853054660551142</v>
+        <v>0.94641973533781432</v>
       </c>
       <c r="H6">
-        <v>-0.33379196030588731</v>
+        <v>-0.40394666897315168</v>
       </c>
       <c r="I6">
-        <v>0.33379196030588731</v>
+        <v>0.40394666897315168</v>
       </c>
       <c r="J6">
-        <v>-1.095954577753048E-2</v>
+        <v>-1.545557911774346E-2</v>
       </c>
       <c r="K6">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="L6">
-        <v>0.45325689977668138</v>
+        <v>0.50809610758529722</v>
       </c>
       <c r="M6">
-        <v>1.1740393920315271</v>
+        <v>1.1734827443822511</v>
       </c>
       <c r="N6">
-        <v>-0.79943929982623541</v>
+        <v>-0.74472302961013292</v>
       </c>
       <c r="O6">
-        <v>13.991989698869221</v>
+        <v>10.705512465471759</v>
       </c>
       <c r="P6">
-        <v>0.96577039547710164</v>
+        <v>0.96298457621392297</v>
       </c>
       <c r="Q6">
-        <v>-1.6198247553454309E-2</v>
+        <v>-2.27738140204721E-2</v>
       </c>
       <c r="R6">
-        <v>-2.7092230097170909E-2</v>
+        <v>-3.7056280472357102E-2</v>
       </c>
       <c r="S6">
-        <v>0.14999425429038329</v>
+        <v>0.19703453533620741</v>
       </c>
       <c r="T6">
-        <v>3.3805888767720831E-2</v>
+        <v>6.2468513853904277E-2</v>
       </c>
       <c r="U6">
-        <v>0.55561613958560518</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1.788036915174525</v>
+        <v>0.54408060453400509</v>
+      </c>
+      <c r="V6">
+        <v>3.3513653589481258</v>
       </c>
       <c r="W6">
-        <v>0.83950495600446517</v>
+        <v>1.1314584430443331</v>
       </c>
       <c r="X6">
-        <v>2.0988005904207019E-2</v>
+        <v>4.4552141071619283E-2</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>0.15036053834302091</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.19747455436198399</v>
       </c>
       <c r="C7">
-        <v>5.5600929702115387E-4</v>
+        <v>7.1539387186136949E-4</v>
       </c>
       <c r="D7">
-        <v>0.15036053834302091</v>
-      </c>
-      <c r="E7">
-        <v>0.17992438796904831</v>
+        <v>0.19747455436198399</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.24555832575822781</v>
       </c>
       <c r="F7">
-        <v>0.70245770873867541</v>
+        <v>0.73564228738497395</v>
       </c>
       <c r="G7">
-        <v>0.85369227776316614</v>
+        <v>0.91962373487364735</v>
       </c>
       <c r="H7">
-        <v>-0.32505638074680632</v>
+        <v>-0.3988621173602982</v>
       </c>
       <c r="I7">
-        <v>0.32505638074680632</v>
+        <v>0.3988621173602982</v>
       </c>
       <c r="J7">
-        <v>-1.0504713627244221E-2</v>
+        <v>-1.603952922893602E-2</v>
       </c>
       <c r="K7">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="L7">
-        <v>0.46256756442550828</v>
+        <v>0.49509478530798218</v>
       </c>
       <c r="M7">
-        <v>1.176527495875948</v>
+        <v>1.1676213494270471</v>
       </c>
       <c r="N7">
-        <v>-0.73565693680575661</v>
+        <v>-0.67015692318230535</v>
       </c>
       <c r="O7">
-        <v>13.955431171275739</v>
+        <v>10.01682448791029</v>
       </c>
       <c r="P7">
-        <v>0.99256464226729713</v>
+        <v>0.93661718098397118</v>
       </c>
       <c r="Q7">
-        <v>-1.5658827232438902E-2</v>
+        <v>-2.3646317018406561E-2</v>
       </c>
       <c r="R7">
-        <v>-2.663978027979497E-2</v>
+        <v>-3.700551392959131E-2</v>
       </c>
       <c r="S7">
-        <v>0.1474614832130581</v>
+        <v>0.19565047747516229</v>
       </c>
       <c r="T7">
-        <v>3.162486368593239E-2</v>
+        <v>6.4483627204030225E-2</v>
       </c>
       <c r="U7">
-        <v>0.55779716466739371</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1.77163574780253</v>
+        <v>0.54710327455919394</v>
+      </c>
+      <c r="V7">
+        <v>3.135255548070166</v>
       </c>
       <c r="W7">
-        <v>0.82891062114167247</v>
+        <v>1.143773015536834</v>
       </c>
       <c r="X7">
-        <v>2.0942210460774439E-2</v>
+        <v>3.6420644487321657E-2</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>0.13466287355860679</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.20494532124481801</v>
       </c>
       <c r="C8">
-        <v>5.0145735085704857E-4</v>
+        <v>7.4009194471047479E-4</v>
       </c>
       <c r="D8">
-        <v>0.13466287355860679</v>
-      </c>
-      <c r="E8">
-        <v>0.17412049066324081</v>
+        <v>0.20494532124481801</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.24298884939253229</v>
       </c>
       <c r="F8">
-        <v>0.6409689275441347</v>
+        <v>0.7664063715489613</v>
       </c>
       <c r="G8">
-        <v>0.77038556744266351</v>
+        <v>0.95456409805593334</v>
       </c>
       <c r="H8">
-        <v>-0.33279003302757809</v>
+        <v>-0.39732593348953099</v>
       </c>
       <c r="I8">
-        <v>0.33279003302757809</v>
+        <v>0.39732593348953099</v>
       </c>
       <c r="J8">
-        <v>-9.6649985422005685E-3</v>
+        <v>-1.4882994100776059E-2</v>
       </c>
       <c r="K8">
-        <v>414</v>
+        <v>530</v>
       </c>
       <c r="L8">
-        <v>0.40464815707821211</v>
+        <v>0.51581158935405358</v>
       </c>
       <c r="M8">
-        <v>1.16873685955319</v>
+        <v>1.1751404708036499</v>
       </c>
       <c r="N8">
-        <v>-0.71487310617537803</v>
+        <v>-0.65783563912645004</v>
       </c>
       <c r="O8">
-        <v>15.94684348360351</v>
+        <v>10.26628616253063</v>
       </c>
       <c r="P8">
-        <v>0.96688029599836456</v>
+        <v>0.95959203664281079</v>
       </c>
       <c r="Q8">
-        <v>-1.5202446541345579E-2</v>
+        <v>-2.2901118210028219E-2</v>
       </c>
       <c r="R8">
-        <v>-2.5874320489102511E-2</v>
+        <v>-3.6656518978886533E-2</v>
       </c>
       <c r="S8">
-        <v>0.1442940604964629</v>
+        <v>0.19431668323313531</v>
       </c>
       <c r="T8">
-        <v>2.835332606324973E-2</v>
+        <v>6.0957178841309821E-2</v>
       </c>
       <c r="U8">
-        <v>0.54961832061068705</v>
-      </c>
-      <c r="V8" s="2">
-        <v>1.507891274087322</v>
+        <v>0.55062972292191437</v>
+      </c>
+      <c r="V8">
+        <v>3.3428862005856099</v>
       </c>
       <c r="W8">
-        <v>0.8238837987533989</v>
+        <v>1.129381041874322</v>
       </c>
       <c r="X8">
-        <v>6.7982315246080532E-3</v>
+        <v>4.382049403462307E-2</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>0.13472468114776359</v>
+        <v>46</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.19843355011774971</v>
       </c>
       <c r="C9">
-        <v>5.0167361293040891E-4</v>
+        <v>7.1857284806453592E-4</v>
       </c>
       <c r="D9">
-        <v>0.13472468114776359</v>
-      </c>
-      <c r="E9">
-        <v>0.174163252803823</v>
+        <v>0.19843355011774971</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.25019036180948179</v>
       </c>
       <c r="F9">
-        <v>0.6411722951690515</v>
+        <v>0.72984418305795473</v>
       </c>
       <c r="G9">
-        <v>0.7735292479517738</v>
+        <v>0.90459796904182876</v>
       </c>
       <c r="H9">
-        <v>-0.32996224765103632</v>
+        <v>-0.40843972077110918</v>
       </c>
       <c r="I9">
-        <v>0.32996224765103632</v>
+        <v>0.40843972077110918</v>
       </c>
       <c r="J9">
-        <v>-9.655450313824988E-3</v>
+        <v>-1.4557750408273999E-2</v>
       </c>
       <c r="K9">
-        <v>414</v>
+        <v>523</v>
       </c>
       <c r="L9">
-        <v>0.40830331987023738</v>
+        <v>0.48583313528644873</v>
       </c>
       <c r="M9">
-        <v>1.1676293788585921</v>
+        <v>1.1682774130921041</v>
       </c>
       <c r="N9">
-        <v>-0.72593391961367304</v>
+        <v>-0.64164507847462626</v>
       </c>
       <c r="O9">
-        <v>15.501422287874719</v>
+        <v>10.836677680559619</v>
       </c>
       <c r="P9">
-        <v>0.98469577557517995</v>
+        <v>0.95951607277567041</v>
       </c>
       <c r="Q9">
-        <v>-1.504962687914522E-2</v>
+        <v>-2.3197613735025071E-2</v>
       </c>
       <c r="R9">
-        <v>-2.5831970356153731E-2</v>
+        <v>-3.7805109160148877E-2</v>
       </c>
       <c r="S9">
-        <v>0.14378853873148351</v>
+        <v>0.20105498786620529</v>
       </c>
       <c r="T9">
-        <v>2.889858233369684E-2</v>
+        <v>6.5491183879093195E-2</v>
       </c>
       <c r="U9">
-        <v>0.55016357688113415</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1.5088856640031341</v>
+        <v>0.54609571788413103</v>
+      </c>
+      <c r="V9">
+        <v>3.1614138088876498</v>
       </c>
       <c r="W9">
-        <v>0.81928060864588781</v>
+        <v>1.1989914767393011</v>
       </c>
       <c r="X9">
-        <v>7.4466391652980024E-3</v>
+        <v>3.1414842339396037E-2</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
-        <v>0.14216801543582311</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.1937044392877707</v>
       </c>
       <c r="C10">
-        <v>5.2763210229178625E-4</v>
+        <v>7.0287168450122728E-4</v>
       </c>
       <c r="D10">
-        <v>0.14216801543582311</v>
-      </c>
-      <c r="E10">
-        <v>0.1766058102115535</v>
+        <v>0.1937044392877707</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.24176682067923699</v>
       </c>
       <c r="F10">
-        <v>0.67178950531219273</v>
+        <v>0.73029244808758464</v>
       </c>
       <c r="G10">
-        <v>0.81336073277756449</v>
+        <v>0.90614219231726589</v>
       </c>
       <c r="H10">
-        <v>-0.32762387450973968</v>
+        <v>-0.40187471846276879</v>
       </c>
       <c r="I10">
-        <v>0.32762387450973968</v>
+        <v>0.40187471846276879</v>
       </c>
       <c r="J10">
-        <v>-1.007848322755458E-2</v>
+        <v>-1.436827478244343E-2</v>
       </c>
       <c r="K10">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L10">
-        <v>0.43393667707692257</v>
+        <v>0.48200205285049852</v>
       </c>
       <c r="M10">
-        <v>1.1722438324789679</v>
+        <v>1.1687065134572761</v>
       </c>
       <c r="N10">
-        <v>-0.73102782760199447</v>
+        <v>-0.68582003232833766</v>
       </c>
       <c r="O10">
-        <v>14.769151879981671</v>
+        <v>10.82929436488685</v>
       </c>
       <c r="P10">
-        <v>0.97377429816752181</v>
+        <v>0.95436238463243295</v>
       </c>
       <c r="Q10">
-        <v>-1.541114103529488E-2</v>
+        <v>-2.271022356215335E-2</v>
       </c>
       <c r="R10">
-        <v>-2.6166533393078159E-2</v>
+        <v>-3.65084467804083E-2</v>
       </c>
       <c r="S10">
-        <v>0.1452863237075199</v>
+        <v>0.1940737913940061</v>
       </c>
       <c r="T10">
-        <v>2.944383860414395E-2</v>
+        <v>5.9445843828715372E-2</v>
       </c>
       <c r="U10">
-        <v>0.55288985823336967</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1.6311527984750129</v>
+        <v>0.54105793450881612</v>
+      </c>
+      <c r="V10">
+        <v>3.03380540634081</v>
       </c>
       <c r="W10">
-        <v>0.82310354430042765</v>
+        <v>1.1373176615351981</v>
       </c>
       <c r="X10">
-        <v>1.3933594670898251E-2</v>
+        <v>3.315201813141827E-2</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11">
-        <v>0.13469796854928109</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.19913776732050639</v>
       </c>
       <c r="C11">
-        <v>5.0158014814671859E-4</v>
+        <v>7.2090564549998071E-4</v>
       </c>
       <c r="D11">
-        <v>0.13469796854928109</v>
-      </c>
-      <c r="E11">
-        <v>0.1738303367726991</v>
+        <v>0.19913776732050639</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.24302055781700549</v>
       </c>
       <c r="F11">
-        <v>0.6419284079821489</v>
+        <v>0.74646733628378692</v>
       </c>
       <c r="G11">
-        <v>0.77344658032190694</v>
+        <v>0.92726905715691821</v>
       </c>
       <c r="H11">
-        <v>-0.33171758992988992</v>
+        <v>-0.40065293858381579</v>
       </c>
       <c r="I11">
-        <v>0.33171758992988992</v>
+        <v>0.40065293858381579</v>
       </c>
       <c r="J11">
-        <v>-9.5437354596114611E-3</v>
+        <v>-1.45318694488344E-2</v>
       </c>
       <c r="K11">
-        <v>414</v>
+        <v>526</v>
       </c>
       <c r="L11">
-        <v>0.40606218252625709</v>
+        <v>0.49703308809963248</v>
       </c>
       <c r="M11">
-        <v>1.1683898270337401</v>
+        <v>1.1716764726563049</v>
       </c>
       <c r="N11">
-        <v>-0.72363221950047774</v>
+        <v>-0.67110880241501225</v>
       </c>
       <c r="O11">
-        <v>15.76068046741935</v>
+        <v>10.61825919653381</v>
       </c>
       <c r="P11">
-        <v>0.97495044793607366</v>
+        <v>0.95336418141031398</v>
       </c>
       <c r="Q11">
-        <v>-1.5053252361021971E-2</v>
+        <v>-2.2867361766024739E-2</v>
       </c>
       <c r="R11">
-        <v>-2.5794783544484411E-2</v>
+        <v>-3.6681522584129288E-2</v>
       </c>
       <c r="S11">
-        <v>0.1436982824608819</v>
+        <v>0.19485779706534631</v>
       </c>
       <c r="T11">
-        <v>2.889858233369684E-2</v>
+        <v>6.0453400503778343E-2</v>
       </c>
       <c r="U11">
-        <v>0.54798255179934574</v>
-      </c>
-      <c r="V11" s="2">
-        <v>1.508455857280026</v>
+        <v>0.545088161209068</v>
+      </c>
+      <c r="V11">
+        <v>3.1807144246478458</v>
       </c>
       <c r="W11">
-        <v>0.81785303085274741</v>
+        <v>1.139718845205226</v>
       </c>
       <c r="X11">
-        <v>7.546222458044774E-3</v>
+        <v>3.7695669381482E-2</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12">
-        <v>0.21801476679062359</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.19515131478947459</v>
       </c>
       <c r="C12">
-        <v>7.829344802070537E-4</v>
+        <v>7.0768203735749324E-4</v>
       </c>
       <c r="D12">
-        <v>0.21801476679062359</v>
-      </c>
-      <c r="E12">
-        <v>0.20565548330690389</v>
+        <v>0.19515131478947459</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.2446012910578971</v>
       </c>
       <c r="F12">
-        <v>0.91676779892549365</v>
+        <v>0.72960873291177142</v>
       </c>
       <c r="G12">
-        <v>1.204235788220827</v>
+        <v>0.90539032573141398</v>
       </c>
       <c r="H12">
-        <v>-0.31529783472657957</v>
+        <v>-0.40421560059155642</v>
       </c>
       <c r="I12">
-        <v>0.31529783472657957</v>
+        <v>0.40421560059155642</v>
       </c>
       <c r="J12">
-        <v>-1.5521848045731571E-2</v>
+        <v>-1.432459983746991E-2</v>
       </c>
       <c r="K12">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="L12">
-        <v>0.69145659366700674</v>
+        <v>0.48279016075549031</v>
       </c>
       <c r="M12">
-        <v>1.2094589381470959</v>
+        <v>1.16863248310182</v>
       </c>
       <c r="N12">
-        <v>-0.54889455283612198</v>
+        <v>-0.66243581930497253</v>
       </c>
       <c r="O12">
-        <v>9.1985097536459861</v>
+        <v>10.87386002816881</v>
       </c>
       <c r="P12">
-        <v>1.070452520616217</v>
+        <v>0.9556871842701149</v>
       </c>
       <c r="Q12">
-        <v>-1.8083096786832759E-2</v>
+        <v>-2.2713950246536309E-2</v>
       </c>
       <c r="R12">
-        <v>-2.9469790529197369E-2</v>
+        <v>-3.695315037972248E-2</v>
       </c>
       <c r="S12">
-        <v>0.1559401142777167</v>
+        <v>0.1963281855299637</v>
       </c>
       <c r="T12">
-        <v>4.1439476553980371E-2</v>
+        <v>6.2972292191435769E-2</v>
       </c>
       <c r="U12">
-        <v>0.54089422028353329</v>
-      </c>
-      <c r="V12" s="2">
-        <v>3.201073220737769</v>
+        <v>0.5400503778337532</v>
+      </c>
+      <c r="V12">
+        <v>3.072479471720126</v>
       </c>
       <c r="W12">
-        <v>0.64009207136424895</v>
+        <v>1.1616975363342761</v>
       </c>
       <c r="X12">
-        <v>0.1071111754922308</v>
+        <v>3.1980626927936101E-2</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13">
-        <v>0.255694852073858</v>
+        <v>50</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.23852249438238049</v>
       </c>
       <c r="C13">
-        <v>9.0393642496211513E-4</v>
+        <v>8.4924585119283691E-4</v>
       </c>
       <c r="D13">
-        <v>0.255694852073858</v>
-      </c>
-      <c r="E13">
-        <v>0.23024436287464969</v>
+        <v>0.23852249438238049</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.24072330617095061</v>
       </c>
       <c r="F13">
-        <v>0.97475563230054363</v>
+        <v>0.88562246981506365</v>
       </c>
       <c r="G13">
-        <v>1.30343598734453</v>
+        <v>1.1373757001262901</v>
       </c>
       <c r="H13">
-        <v>-0.3457892837731642</v>
+        <v>-0.39380320130540908</v>
       </c>
       <c r="I13">
-        <v>0.3457892837731642</v>
+        <v>0.39380320130540908</v>
       </c>
       <c r="J13">
-        <v>-1.8103044640445789E-2</v>
+        <v>-1.7366065556480809E-2</v>
       </c>
       <c r="K13">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L13">
-        <v>0.73945279415192167</v>
+        <v>0.60568957690467673</v>
       </c>
       <c r="M13">
-        <v>1.2168596526557769</v>
+        <v>1.1965394870120749</v>
       </c>
       <c r="N13">
-        <v>-0.55337056278247698</v>
+        <v>-0.70812297604258612</v>
       </c>
       <c r="O13">
-        <v>8.8671371888007595</v>
+        <v>9.4113940180964608</v>
       </c>
       <c r="P13">
-        <v>1.051903886908204</v>
+        <v>1.001304416748475</v>
       </c>
       <c r="Q13">
-        <v>-2.0848651533974399E-2</v>
+        <v>-2.252924068818141E-2</v>
       </c>
       <c r="R13">
-        <v>-3.2518903475055233E-2</v>
+        <v>-3.5317304333632657E-2</v>
       </c>
       <c r="S13">
-        <v>0.17150026118509731</v>
+        <v>0.18669494322737909</v>
       </c>
       <c r="T13">
-        <v>5.6161395856052343E-2</v>
+        <v>6.0453400503778343E-2</v>
       </c>
       <c r="U13">
-        <v>0.54416575790621591</v>
-      </c>
-      <c r="V13" s="2">
-        <v>4.243926621411477</v>
+        <v>0.54206549118387914</v>
+      </c>
+      <c r="V13">
+        <v>4.3926537475825329</v>
       </c>
       <c r="W13">
-        <v>0.65257017023064356</v>
+        <v>0.95316047233084755</v>
       </c>
       <c r="X13">
-        <v>0.1414174810715946</v>
+        <v>9.3002544579463484E-2</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14">
-        <v>0.21878840985288719</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.28650386291627661</v>
       </c>
       <c r="C14">
-        <v>7.8545616088576686E-4</v>
+        <v>1.000215578297103E-3</v>
       </c>
       <c r="D14">
-        <v>0.21878840985288719</v>
-      </c>
-      <c r="E14">
-        <v>0.20731047858582249</v>
+        <v>0.28650386291627661</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.2767863485574249</v>
       </c>
       <c r="F14">
-        <v>0.91415671816590405</v>
+        <v>0.94185431622180904</v>
       </c>
       <c r="G14">
-        <v>1.206034882357427</v>
+        <v>1.216905500219168</v>
       </c>
       <c r="H14">
-        <v>-0.31556580194323419</v>
+        <v>-0.44207182968674053</v>
       </c>
       <c r="I14">
-        <v>0.31556580194323419</v>
+        <v>0.44207182968674053</v>
       </c>
       <c r="J14">
-        <v>-1.6140074428652361E-2</v>
+        <v>-1.96796230604828E-2</v>
       </c>
       <c r="K14">
-        <v>471</v>
+        <v>573</v>
       </c>
       <c r="L14">
-        <v>0.69332103956005997</v>
+        <v>0.64809346281869629</v>
       </c>
       <c r="M14">
-        <v>1.208264073823494</v>
+        <v>1.2039760925916381</v>
       </c>
       <c r="N14">
-        <v>-0.53029001620325888</v>
+        <v>-0.72972391274309922</v>
       </c>
       <c r="O14">
-        <v>9.0221440102113899</v>
+        <v>9.0625946633816223</v>
       </c>
       <c r="P14">
-        <v>1.071760979733805</v>
+        <v>1.0199111013894799</v>
       </c>
       <c r="Q14">
-        <v>-1.8336517237040072E-2</v>
+        <v>-2.58604207485559E-2</v>
       </c>
       <c r="R14">
-        <v>-2.965692934380933E-2</v>
+        <v>-4.0377437281098313E-2</v>
       </c>
       <c r="S14">
-        <v>0.1565134895106231</v>
+        <v>0.2133738918446757</v>
       </c>
       <c r="T14">
-        <v>4.3075245365321702E-2</v>
+        <v>8.3123425692695208E-2</v>
       </c>
       <c r="U14">
-        <v>0.53871319520174477</v>
-      </c>
-      <c r="V14" s="2">
-        <v>3.2205318878655929</v>
+        <v>0.5425692695214106</v>
+      </c>
+      <c r="V14">
+        <v>6.2749406616440622</v>
       </c>
       <c r="W14">
-        <v>0.63441218878691741</v>
+        <v>1.0661660226599421</v>
       </c>
       <c r="X14">
-        <v>0.1088096645328589</v>
+        <v>0.12625571732483401</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15">
-        <v>0.2158277677221041</v>
+        <v>52</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.23837429900929669</v>
       </c>
       <c r="C15">
-        <v>7.7579734316834958E-4</v>
+        <v>8.4877059831867108E-4</v>
       </c>
       <c r="D15">
-        <v>0.2158277677221041</v>
-      </c>
-      <c r="E15">
-        <v>0.20324905700556931</v>
+        <v>0.23837429900929669</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.23989014533585509</v>
       </c>
       <c r="F15">
-        <v>0.91634799186086158</v>
+        <v>0.88733642239568677</v>
       </c>
       <c r="G15">
-        <v>1.199979639672262</v>
+        <v>1.1422687365892861</v>
       </c>
       <c r="H15">
-        <v>-0.31265078210672342</v>
+        <v>-0.39199406777361229</v>
       </c>
       <c r="I15">
-        <v>0.31265078210672342</v>
+        <v>0.39199406777361229</v>
       </c>
       <c r="J15">
-        <v>-1.552179778723385E-2</v>
+        <v>-1.7403044977855449E-2</v>
       </c>
       <c r="K15">
-        <v>471</v>
+        <v>575</v>
       </c>
       <c r="L15">
-        <v>0.69031577745559991</v>
+        <v>0.60810690417632707</v>
       </c>
       <c r="M15">
-        <v>1.210120169163891</v>
+        <v>1.1968030037316959</v>
       </c>
       <c r="N15">
-        <v>-0.56166956601447904</v>
+        <v>-0.69444082896681092</v>
       </c>
       <c r="O15">
-        <v>9.442719105746443</v>
+        <v>9.3056985984003386</v>
       </c>
       <c r="P15">
-        <v>1.07542762630667</v>
+        <v>1.016658782816183</v>
       </c>
       <c r="Q15">
-        <v>-1.7957638343387889E-2</v>
+        <v>-2.2295690688649741E-2</v>
       </c>
       <c r="R15">
-        <v>-2.9157977508267E-2</v>
+        <v>-3.5137999310578413E-2</v>
       </c>
       <c r="S15">
-        <v>0.15459122136169459</v>
+        <v>0.18561033702711871</v>
       </c>
       <c r="T15">
-        <v>4.1439476553980371E-2</v>
+        <v>6.0957178841309821E-2</v>
       </c>
       <c r="U15">
-        <v>0.54034896401308619</v>
-      </c>
-      <c r="V15" s="2">
-        <v>3.146483831705392</v>
+        <v>0.54458438287153654</v>
+      </c>
+      <c r="V15">
+        <v>4.3875731526103179</v>
       </c>
       <c r="W15">
-        <v>0.6393766613945211</v>
+        <v>0.9369407588394103</v>
       </c>
       <c r="X15">
-        <v>0.1049107244198025</v>
+        <v>9.4721040835194198E-2</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16">
-        <v>0.22138615108193749</v>
+        <v>53</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.23560490497199821</v>
       </c>
       <c r="C16">
-        <v>7.9391181931121046E-4</v>
+        <v>8.3987889680758876E-4</v>
       </c>
       <c r="D16">
-        <v>0.22138615108193749</v>
-      </c>
-      <c r="E16">
-        <v>0.2118535214482653</v>
+        <v>0.23560490497199821</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.23907124713803629</v>
       </c>
       <c r="F16">
-        <v>0.9090738831124926</v>
+        <v>0.88020797237965998</v>
       </c>
       <c r="G16">
-        <v>1.2129349141745309</v>
+        <v>1.1276967913093161</v>
       </c>
       <c r="H16">
-        <v>-0.31941743172691212</v>
+        <v>-0.38982194624711752</v>
       </c>
       <c r="I16">
-        <v>0.31941743172691212</v>
+        <v>0.38982194624711752</v>
       </c>
       <c r="J16">
-        <v>-1.7198108754223521E-2</v>
+        <v>-1.6905109461321781E-2</v>
       </c>
       <c r="K16">
-        <v>471</v>
+        <v>574</v>
       </c>
       <c r="L16">
-        <v>0.69309351679720776</v>
+        <v>0.60439107454109964</v>
       </c>
       <c r="M16">
-        <v>1.2053706134986539</v>
+        <v>1.195788726867989</v>
       </c>
       <c r="N16">
-        <v>-0.47386411055389083</v>
+        <v>-0.71910471330062886</v>
       </c>
       <c r="O16">
-        <v>7.8426725286879746</v>
+        <v>9.5762950975560841</v>
       </c>
       <c r="P16">
-        <v>1.088040695296874</v>
+        <v>0.99549148339481464</v>
       </c>
       <c r="Q16">
-        <v>-1.8809248250760521E-2</v>
+        <v>-2.2380592640223171E-2</v>
       </c>
       <c r="R16">
-        <v>-3.0263288765678069E-2</v>
+        <v>-3.5087454424765067E-2</v>
       </c>
       <c r="S16">
-        <v>0.1581492384385372</v>
+        <v>0.1858617552031365</v>
       </c>
       <c r="T16">
-        <v>4.5256270447110142E-2</v>
+        <v>6.0453400503778343E-2</v>
       </c>
       <c r="U16">
-        <v>0.53980370774263908</v>
-      </c>
-      <c r="V16" s="2">
-        <v>3.2864402114501172</v>
+        <v>0.54458438287153654</v>
+      </c>
+      <c r="V16">
+        <v>4.2933954175160389</v>
       </c>
       <c r="W16">
-        <v>0.61773369544926293</v>
+        <v>0.94955046851993463</v>
       </c>
       <c r="X16">
-        <v>0.1140075993362524</v>
+        <v>9.0700191658967005E-2</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17">
-        <v>0.2186271906785193</v>
+        <v>54</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.24430763351183751</v>
       </c>
       <c r="C17">
-        <v>7.8493080036579066E-4</v>
+        <v>8.6775428729679582E-4</v>
       </c>
       <c r="D17">
-        <v>0.2186271906785193</v>
-      </c>
-      <c r="E17">
-        <v>0.21139031293402849</v>
+        <v>0.24430763351183751</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.24438085104394319</v>
       </c>
       <c r="F17">
-        <v>0.89988023653923621</v>
+        <v>0.89509734035719757</v>
       </c>
       <c r="G17">
-        <v>1.2031407330023729</v>
+        <v>1.1534234069249969</v>
       </c>
       <c r="H17">
-        <v>-0.31543792499579071</v>
+        <v>-0.40578549316417012</v>
       </c>
       <c r="I17">
-        <v>0.31543792499579071</v>
+        <v>0.40578549316417012</v>
       </c>
       <c r="J17">
-        <v>-1.6771178209743609E-2</v>
+        <v>-1.8054803091042699E-2</v>
       </c>
       <c r="K17">
-        <v>472</v>
+        <v>575</v>
       </c>
       <c r="L17">
-        <v>0.69309101206342494</v>
+        <v>0.60206103379106524</v>
       </c>
       <c r="M17">
-        <v>1.2033365203239179</v>
+        <v>1.1975281881675339</v>
       </c>
       <c r="N17">
-        <v>-0.45752589536707161</v>
+        <v>-0.69110461229780951</v>
       </c>
       <c r="O17">
-        <v>8.0500720450843009</v>
+        <v>8.9934796726092223</v>
       </c>
       <c r="P17">
-        <v>1.0887814589041891</v>
+        <v>1.014573931165454</v>
       </c>
       <c r="Q17">
-        <v>-1.8593986213579088E-2</v>
+        <v>-2.2728934116071801E-2</v>
       </c>
       <c r="R17">
-        <v>-3.0152475075410721E-2</v>
+        <v>-3.5915670047768307E-2</v>
       </c>
       <c r="S17">
-        <v>0.15747916344888099</v>
+        <v>0.1888941086265897</v>
       </c>
       <c r="T17">
-        <v>4.5256270447110142E-2</v>
+        <v>6.3476070528967254E-2</v>
       </c>
       <c r="U17">
-        <v>0.53925845147219198</v>
-      </c>
-      <c r="V17" s="2">
-        <v>3.2164705040287731</v>
+        <v>0.54408060453400509</v>
+      </c>
+      <c r="V17">
+        <v>4.5942838889726714</v>
       </c>
       <c r="W17">
-        <v>0.61586697247082278</v>
+        <v>0.97645277816688048</v>
       </c>
       <c r="X17">
-        <v>0.1118805296013692</v>
+        <v>9.5620215002627545E-2</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18">
-        <v>0.19500042965129549</v>
+        <v>55</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.2329258701382817</v>
       </c>
       <c r="C18">
-        <v>7.0718066824948522E-4</v>
+        <v>8.3125840246278671E-4</v>
       </c>
       <c r="D18">
-        <v>0.19500042965129549</v>
-      </c>
-      <c r="E18">
-        <v>0.18833153816893969</v>
+        <v>0.2329258701382817</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.23388400363493461</v>
       </c>
       <c r="F18">
-        <v>0.88152002520697248</v>
+        <v>0.88501756088671024</v>
       </c>
       <c r="G18">
-        <v>1.131046136791811</v>
+        <v>1.144016023570035</v>
       </c>
       <c r="H18">
-        <v>-0.30033064147500432</v>
+        <v>-0.3792181587265373</v>
       </c>
       <c r="I18">
-        <v>0.30033064147500432</v>
+        <v>0.3792181587265373</v>
       </c>
       <c r="J18">
-        <v>-1.30753989545955E-2</v>
+        <v>-1.6414586376751809E-2</v>
       </c>
       <c r="K18">
-        <v>471</v>
+        <v>574</v>
       </c>
       <c r="L18">
-        <v>0.64928582942318536</v>
+        <v>0.61422657322232754</v>
       </c>
       <c r="M18">
-        <v>1.20771229183585</v>
+        <v>1.1972627222440519</v>
       </c>
       <c r="N18">
-        <v>-0.57546291045554554</v>
+        <v>-0.62428378696410092</v>
       </c>
       <c r="O18">
-        <v>10.734879375395851</v>
+        <v>9.0084308443450993</v>
       </c>
       <c r="P18">
-        <v>1.076592759203387</v>
+        <v>1.049830939900771</v>
       </c>
       <c r="Q18">
-        <v>-1.6334916426934881E-2</v>
+        <v>-2.113068416440891E-2</v>
       </c>
       <c r="R18">
-        <v>-2.7359987043508779E-2</v>
+        <v>-3.4326329073990081E-2</v>
       </c>
       <c r="S18">
-        <v>0.1461990831851937</v>
+        <v>0.18021462574333319</v>
       </c>
       <c r="T18">
-        <v>3.21701199563795E-2</v>
+        <v>5.7430730478589417E-2</v>
       </c>
       <c r="U18">
-        <v>0.5430752453653217</v>
-      </c>
-      <c r="V18" s="2">
-        <v>2.6565166740753821</v>
+        <v>0.54357682619647352</v>
+      </c>
+      <c r="V18">
+        <v>4.2036614385384414</v>
       </c>
       <c r="W18">
-        <v>0.65422649433976721</v>
+        <v>0.90909989537949287</v>
       </c>
       <c r="X18">
-        <v>8.2792810155049301E-2</v>
+        <v>9.2359782312936567E-2</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19">
-        <v>0.1955828653984846</v>
+        <v>56</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.2191511141035147</v>
       </c>
       <c r="C19">
-        <v>7.0911566856945996E-4</v>
+        <v>7.8663784233268252E-4</v>
       </c>
       <c r="D19">
-        <v>0.1955828653984846</v>
-      </c>
-      <c r="E19">
-        <v>0.19111536288160491</v>
+        <v>0.2191511141035147</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.23387382653193331</v>
       </c>
       <c r="F19">
-        <v>0.87397559272959358</v>
+        <v>0.83701685126863035</v>
       </c>
       <c r="G19">
-        <v>1.130858534649964</v>
+        <v>1.0530547894575499</v>
       </c>
       <c r="H19">
-        <v>-0.30044600784572129</v>
+        <v>-0.38499473123576938</v>
       </c>
       <c r="I19">
-        <v>0.30044600784572129</v>
+        <v>0.38499473123576938</v>
       </c>
       <c r="J19">
-        <v>-1.3922570260711069E-2</v>
+        <v>-1.5593508478508159E-2</v>
       </c>
       <c r="K19">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="L19">
-        <v>0.65097508467783061</v>
+        <v>0.56923146298671645</v>
       </c>
       <c r="M19">
-        <v>1.2045931310448019</v>
+        <v>1.190086758878923</v>
       </c>
       <c r="N19">
-        <v>-0.53160707591703427</v>
+        <v>-0.65023283418899602</v>
       </c>
       <c r="O19">
-        <v>9.9444527528345645</v>
+        <v>10.21990989568044</v>
       </c>
       <c r="P19">
-        <v>1.076677844440842</v>
+        <v>0.98502609573570499</v>
       </c>
       <c r="Q19">
-        <v>-1.676648595357157E-2</v>
+        <v>-2.184328850660967E-2</v>
       </c>
       <c r="R19">
-        <v>-2.7647035005178681E-2</v>
+        <v>-3.495724616930268E-2</v>
       </c>
       <c r="S19">
-        <v>0.14711479729007179</v>
+        <v>0.18515463539319721</v>
       </c>
       <c r="T19">
-        <v>3.4351145038167941E-2</v>
+        <v>5.5919395465994962E-2</v>
       </c>
       <c r="U19">
-        <v>0.54525627044711011</v>
-      </c>
-      <c r="V19" s="2">
-        <v>2.669506723007562</v>
+        <v>0.55516372795969771</v>
+      </c>
+      <c r="V19">
+        <v>3.762926455083663</v>
       </c>
       <c r="W19">
-        <v>0.63807852371017959</v>
+        <v>1.024256596811997</v>
       </c>
       <c r="X19">
-        <v>8.5859159936980581E-2</v>
+        <v>6.6604144039846602E-2</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20">
-        <v>0.2048475815186834</v>
+        <v>57</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.22067194555332389</v>
       </c>
       <c r="C20">
-        <v>7.3976980661938363E-4</v>
+        <v>7.9158886411190288E-4</v>
       </c>
       <c r="D20">
-        <v>0.2048475815186834</v>
-      </c>
-      <c r="E20">
-        <v>0.19959254182922601</v>
+        <v>0.22067194555332389</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.22969227954111571</v>
       </c>
       <c r="F20">
-        <v>0.88387332355697057</v>
+        <v>0.85341292898254417</v>
       </c>
       <c r="G20">
-        <v>1.160560777315305</v>
+        <v>1.088624353545655</v>
       </c>
       <c r="H20">
-        <v>-0.30706062761531228</v>
+        <v>-0.37689476133267269</v>
       </c>
       <c r="I20">
-        <v>0.30706062761531228</v>
+        <v>0.37689476133267269</v>
       </c>
       <c r="J20">
-        <v>-1.542544604561636E-2</v>
+        <v>-1.5932708612342909E-2</v>
       </c>
       <c r="K20">
-        <v>472</v>
+        <v>572</v>
       </c>
       <c r="L20">
-        <v>0.66712421944020095</v>
+        <v>0.58550016660630622</v>
       </c>
       <c r="M20">
-        <v>1.2036216390118031</v>
+        <v>1.192450895811787</v>
       </c>
       <c r="N20">
-        <v>-0.49496348946126362</v>
+        <v>-0.64908404917037965</v>
       </c>
       <c r="O20">
-        <v>8.9905294714478572</v>
+        <v>9.6374190007390315</v>
       </c>
       <c r="P20">
-        <v>1.0628879876877131</v>
+        <v>1.0454615634017581</v>
       </c>
       <c r="Q20">
-        <v>-1.7710240831780528E-2</v>
+        <v>-2.084497874712074E-2</v>
       </c>
       <c r="R20">
-        <v>-2.8713693259414429E-2</v>
+        <v>-3.3995343195439183E-2</v>
       </c>
       <c r="S20">
-        <v>0.15140359261101921</v>
+        <v>0.17934831639474669</v>
       </c>
       <c r="T20">
-        <v>4.0894220283533261E-2</v>
+        <v>5.7430730478589417E-2</v>
       </c>
       <c r="U20">
-        <v>0.5425299890948746</v>
-      </c>
-      <c r="V20" s="2">
-        <v>2.881556511152211</v>
+        <v>0.54811083123425697</v>
+      </c>
+      <c r="V20">
+        <v>3.8099289367024629</v>
       </c>
       <c r="W20">
-        <v>0.62684065095382091</v>
+        <v>0.93876663343545963</v>
       </c>
       <c r="X20">
-        <v>9.6673108684016934E-2</v>
+        <v>7.7649907472786994E-2</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21">
-        <v>0.19503440392689739</v>
+        <v>58</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.22540554709840691</v>
       </c>
       <c r="C21">
-        <v>7.0729356526744169E-4</v>
+        <v>8.0695973466959892E-4</v>
       </c>
       <c r="D21">
-        <v>0.19503440392689739</v>
-      </c>
-      <c r="E21">
-        <v>0.19062326996370249</v>
+        <v>0.22540554709840691</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.2312343174885336</v>
       </c>
       <c r="F21">
-        <v>0.87332930523681018</v>
+        <v>0.86600796479308473</v>
       </c>
       <c r="G21">
-        <v>1.128935217197</v>
+        <v>1.1101090866812009</v>
       </c>
       <c r="H21">
-        <v>-0.30075589955669962</v>
+        <v>-0.37543751373719708</v>
       </c>
       <c r="I21">
-        <v>0.30075589955669962</v>
+        <v>0.37543751373719708</v>
       </c>
       <c r="J21">
-        <v>-1.400005777079039E-2</v>
+        <v>-1.5874002427568961E-2</v>
       </c>
       <c r="K21">
-        <v>472</v>
+        <v>574</v>
       </c>
       <c r="L21">
-        <v>0.64848072544668023</v>
+        <v>0.60038099244442766</v>
       </c>
       <c r="M21">
-        <v>1.204688326782023</v>
+        <v>1.194435739078513</v>
       </c>
       <c r="N21">
-        <v>-0.5338418624059903</v>
+        <v>-0.63719785205253099</v>
       </c>
       <c r="O21">
-        <v>10.0238544322042</v>
+        <v>9.3897404316418935</v>
       </c>
       <c r="P21">
-        <v>1.0755713202100921</v>
+        <v>1.0454167061406341</v>
       </c>
       <c r="Q21">
-        <v>-1.674674107648591E-2</v>
+        <v>-2.0979868200640281E-2</v>
       </c>
       <c r="R21">
-        <v>-2.7606003317804301E-2</v>
+        <v>-3.4118962517263297E-2</v>
       </c>
       <c r="S21">
-        <v>0.14687729360903301</v>
+        <v>0.1796711100104165</v>
       </c>
       <c r="T21">
-        <v>3.3805888767720831E-2</v>
+        <v>5.6926952141057932E-2</v>
       </c>
       <c r="U21">
-        <v>0.54471101417666301</v>
-      </c>
-      <c r="V21" s="2">
-        <v>2.6572733105084412</v>
+        <v>0.54609571788413103</v>
+      </c>
+      <c r="V21">
+        <v>3.9588265033000338</v>
       </c>
       <c r="W21">
-        <v>0.63899934628883071</v>
+        <v>0.92977607422700526</v>
       </c>
       <c r="X21">
-        <v>8.5188745970307775E-2</v>
+        <v>8.3011958976715733E-2</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22">
-        <v>0.14372671727901909</v>
+        <v>59</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.21728063529427999</v>
       </c>
       <c r="C22">
-        <v>5.3304670513121266E-4</v>
+        <v>7.8054011139050417E-4</v>
       </c>
       <c r="D22">
-        <v>0.14372671727901909</v>
-      </c>
-      <c r="E22">
-        <v>0.17827550625704461</v>
+        <v>0.21728063529427999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.22995887532235601</v>
       </c>
       <c r="F22">
-        <v>0.67486032048220679</v>
+        <v>0.84058711406719078</v>
       </c>
       <c r="G22">
-        <v>0.81358121806974759</v>
+        <v>1.0644746354964501</v>
       </c>
       <c r="H22">
-        <v>-0.33261374322806198</v>
+        <v>-0.3801189753459866</v>
       </c>
       <c r="I22">
-        <v>0.33261374322806198</v>
+        <v>0.3801189753459866</v>
       </c>
       <c r="J22">
-        <v>-1.0186850853612961E-2</v>
+        <v>-1.55403674912384E-2</v>
       </c>
       <c r="K22">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="L22">
-        <v>0.43211298452111918</v>
+        <v>0.57161217773069561</v>
       </c>
       <c r="M22">
-        <v>1.1727378875316361</v>
+        <v>1.190661700954299</v>
       </c>
       <c r="N22">
-        <v>-0.77643326887494835</v>
+        <v>-0.64633259435917001</v>
       </c>
       <c r="O22">
-        <v>15.07945809494216</v>
+        <v>9.9814052011316434</v>
       </c>
       <c r="P22">
-        <v>0.98966658284818088</v>
+        <v>0.99183350821516147</v>
       </c>
       <c r="Q22">
-        <v>-1.528888977329697E-2</v>
+        <v>-2.1415429819195211E-2</v>
       </c>
       <c r="R22">
-        <v>-2.644758913553142E-2</v>
+        <v>-3.4251056855572608E-2</v>
       </c>
       <c r="S22">
-        <v>0.1472903832016908</v>
+        <v>0.1808703256702858</v>
       </c>
       <c r="T22">
-        <v>2.998909487459106E-2</v>
+        <v>5.4911838790931991E-2</v>
       </c>
       <c r="U22">
-        <v>0.55398037077426387</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1.6573973248509011</v>
+        <v>0.54911838790931988</v>
+      </c>
+      <c r="V22">
+        <v>3.705668105641815</v>
       </c>
       <c r="W22">
-        <v>0.83043845827504792</v>
+        <v>0.9778825564254745</v>
       </c>
       <c r="X22">
-        <v>1.466964379192269E-2</v>
+        <v>6.9995746688934546E-2</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23">
-        <v>0.2140557862529999</v>
+        <v>60</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.20471243178257881</v>
       </c>
       <c r="C23">
-        <v>7.7000520673364825E-4</v>
+        <v>7.3932432686407701E-4</v>
       </c>
       <c r="D23">
-        <v>0.2140557862529999</v>
-      </c>
-      <c r="E23">
-        <v>0.20308587406631479</v>
+        <v>0.20471243178257881</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.2482963360826117</v>
       </c>
       <c r="F23">
-        <v>0.90970754071898163</v>
+        <v>0.75460536760108843</v>
       </c>
       <c r="G23">
-        <v>1.1938450914584431</v>
+        <v>0.93880056537172141</v>
       </c>
       <c r="H23">
-        <v>-0.31178378914137811</v>
+        <v>-0.40533208948232619</v>
       </c>
       <c r="I23">
-        <v>0.31178378914137811</v>
+        <v>0.40533208948232619</v>
       </c>
       <c r="J23">
-        <v>-1.5685851928948349E-2</v>
+        <v>-1.502277033368821E-2</v>
       </c>
       <c r="K23">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="L23">
-        <v>0.6865520072178497</v>
+        <v>0.50504866773323887</v>
       </c>
       <c r="M23">
-        <v>1.20852664489873</v>
+        <v>1.172363328397503</v>
       </c>
       <c r="N23">
-        <v>-0.53487123814509108</v>
+        <v>-0.69049587895271769</v>
       </c>
       <c r="O23">
-        <v>9.1864949130496996</v>
+        <v>10.55098355670887</v>
       </c>
       <c r="P23">
-        <v>1.076234247480421</v>
+        <v>0.95790685265116704</v>
       </c>
       <c r="Q23">
-        <v>-1.7900430937052809E-2</v>
+        <v>-2.323063602262428E-2</v>
       </c>
       <c r="R23">
-        <v>-2.9156704176599539E-2</v>
+        <v>-3.7486460713594752E-2</v>
       </c>
       <c r="S23">
-        <v>0.15413570988367681</v>
+        <v>0.19878636513779269</v>
       </c>
       <c r="T23">
-        <v>4.0894220283533261E-2</v>
+        <v>6.2972292191435769E-2</v>
       </c>
       <c r="U23">
-        <v>0.54089422028353329</v>
-      </c>
-      <c r="V23" s="2">
-        <v>3.102703437569748</v>
+        <v>0.54206549118387914</v>
+      </c>
+      <c r="V23">
+        <v>3.3362787746165159</v>
       </c>
       <c r="W23">
-        <v>0.63581967749890145</v>
+        <v>1.1617316409041669</v>
       </c>
       <c r="X23">
-        <v>0.10386509992004631</v>
+        <v>4.0878836486621162E-2</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24">
-        <v>0.18029075250266219</v>
+        <v>61</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.23618408848418149</v>
       </c>
       <c r="C24">
-        <v>6.5799737167249184E-4</v>
+        <v>8.4174012346638349E-4</v>
       </c>
       <c r="D24">
-        <v>0.18029075250266219</v>
-      </c>
-      <c r="E24">
-        <v>0.18234828359695851</v>
+        <v>0.23618408848418149</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.23879504142896671</v>
       </c>
       <c r="F24">
-        <v>0.83647570001990756</v>
+        <v>0.88286761635504085</v>
       </c>
       <c r="G24">
-        <v>1.035711864326579</v>
+        <v>1.1300891348223441</v>
       </c>
       <c r="H24">
-        <v>-0.30947794218730901</v>
+        <v>-0.38776201141143318</v>
       </c>
       <c r="I24">
-        <v>0.30947794218730901</v>
+        <v>0.38776201141143318</v>
       </c>
       <c r="J24">
-        <v>-1.277163177295907E-2</v>
+        <v>-1.6884136974014991E-2</v>
       </c>
       <c r="K24">
-        <v>415</v>
+        <v>574</v>
       </c>
       <c r="L24">
-        <v>0.58256414408217427</v>
+        <v>0.60909548004582481</v>
       </c>
       <c r="M24">
-        <v>1.2022889773276679</v>
+        <v>1.1968092195428199</v>
       </c>
       <c r="N24">
-        <v>-0.73213791582705945</v>
+        <v>-0.68495716895090875</v>
       </c>
       <c r="O24">
-        <v>12.70083634979089</v>
+        <v>9.5042498106555069</v>
       </c>
       <c r="P24">
-        <v>1.0763054184946239</v>
+        <v>0.99886799006266636</v>
       </c>
       <c r="Q24">
-        <v>-1.5597425604119889E-2</v>
+        <v>-2.241895055822736E-2</v>
       </c>
       <c r="R24">
-        <v>-2.6894257688892649E-2</v>
+        <v>-3.5198403672039982E-2</v>
       </c>
       <c r="S24">
-        <v>0.14668502915907181</v>
+        <v>0.18581378336059981</v>
       </c>
       <c r="T24">
-        <v>3.162486368593239E-2</v>
+        <v>5.9949622166246851E-2</v>
       </c>
       <c r="U24">
-        <v>0.55179934569247546</v>
-      </c>
-      <c r="V24" s="2">
-        <v>2.341334669800998</v>
+        <v>0.54307304785894206</v>
+      </c>
+      <c r="V24">
+        <v>4.3129717322093546</v>
       </c>
       <c r="W24">
-        <v>0.73312906788697452</v>
+        <v>0.9662052256796444</v>
       </c>
       <c r="X24">
-        <v>5.9267371855984519E-2</v>
+        <v>8.8992124889230625E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.2211293651762678</v>
+      </c>
+      <c r="C25">
+        <v>7.9307677834616896E-4</v>
+      </c>
+      <c r="D25">
+        <v>0.2211293651762678</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.24094939490137809</v>
+      </c>
+      <c r="F25">
+        <v>0.82629416261949751</v>
+      </c>
+      <c r="G25">
+        <v>1.03581475748199</v>
+      </c>
+      <c r="H25">
+        <v>-0.39330170771050399</v>
+      </c>
+      <c r="I25">
+        <v>0.39330170771050399</v>
+      </c>
+      <c r="J25">
+        <v>-1.6046923990378839E-2</v>
+      </c>
+      <c r="K25">
+        <v>562</v>
+      </c>
+      <c r="L25">
+        <v>0.56223850759131111</v>
+      </c>
+      <c r="M25">
+        <v>1.18671056593345</v>
+      </c>
+      <c r="N25">
+        <v>-0.70993960635839359</v>
+      </c>
+      <c r="O25">
+        <v>10.22714903843889</v>
+      </c>
+      <c r="P25">
+        <v>0.97125173004212173</v>
+      </c>
+      <c r="Q25">
+        <v>-2.2378524646899409E-2</v>
+      </c>
+      <c r="R25">
+        <v>-3.6100743688770427E-2</v>
+      </c>
+      <c r="S25">
+        <v>0.19144682328128149</v>
+      </c>
+      <c r="T25">
+        <v>5.8438287153652388E-2</v>
+      </c>
+      <c r="U25">
+        <v>0.55062972292191437</v>
+      </c>
+      <c r="V25">
+        <v>3.824144828082225</v>
+      </c>
+      <c r="W25">
+        <v>1.063968433291905</v>
+      </c>
+      <c r="X25">
+        <v>6.4935480687925984E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5179,7 +4601,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5187,7 +4609,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5195,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.953587237078887E-2</v>
+        <v>0.10724783024737169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5203,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.7874589653084993E-2</v>
+        <v>4.1673527921992477E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5211,7 +4633,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.9615565348253142E-2</v>
+        <v>3.405787886728507E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5219,7 +4641,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.6157218716028599E-2</v>
+        <v>0.1000858599294215</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5227,7 +4649,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.8232189137485629E-2</v>
+        <v>2.6028408928034201E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5235,7 +4657,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6.9251555043817567E-2</v>
+        <v>7.5373179995723114E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5243,7 +4665,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.6749728432225477E-2</v>
+        <v>8.3958867259670444E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5251,7 +4673,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.4725631340224627E-2</v>
+        <v>8.6686289442727174E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5259,7 +4681,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.2601942621054854E-2</v>
+        <v>7.2296026628114712E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5267,7 +4689,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.8121997124177671E-2</v>
+        <v>9.5706313704680371E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5275,7 +4697,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.3649415338772868E-2</v>
+        <v>6.4506731385846908E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5283,7 +4705,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.7594272961701419E-2</v>
+        <v>7.8499858995404001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5291,7 +4713,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.1869572945037568E-2</v>
+        <v>2.8672227041090539E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5299,47 +4721,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.347718833690954E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>9.9114509507354259E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2.8497749423202282E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3.6526801165362291E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.1101852523810702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5.6218948153448058E-2</v>
+        <v>0.10520699965263761</v>
       </c>
     </row>
   </sheetData>
@@ -5349,7 +4731,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5357,7 +4739,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5365,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1077951188055437</v>
+        <v>4.466804790420352E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5373,7 +4755,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.4633079930245881E-2</v>
+        <v>3.035209461021449E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5381,7 +4763,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.19934432888721201</v>
+        <v>6.8194498572725706E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5389,7 +4771,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.7307498538966549E-2</v>
+        <v>7.3202907948805518E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5397,7 +4779,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.4433333076873689E-2</v>
+        <v>5.2245578124813133E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5405,7 +4787,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.25501141575143749</v>
+        <v>0.1434437777596845</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5413,7 +4795,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.238078125564793E-2</v>
+        <v>6.64227382313059E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5421,7 +4803,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.9433579970425521E-2</v>
+        <v>7.752388171659709E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5429,7 +4811,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.909609002097213E-2</v>
+        <v>6.4348254298859792E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5437,7 +4819,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.372062919212474E-2</v>
+        <v>0.1819558776198798</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5445,7 +4827,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9.9705755502969961E-3</v>
+        <v>5.7002642850483051E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5453,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.626333820060475E-2</v>
+        <v>3.1963698167496848E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5461,7 +4843,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.8961651294010229E-2</v>
+        <v>2.5217831646487811E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5469,47 +4851,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.6578956626599039E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>8.1935977292930534E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.3376089713218949E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5.574163634463479E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>6.9220980450547545E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.479493909770749E-2</v>
+        <v>8.3458170548442873E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5519,169 +4861,127 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>6.8665495588166273E-2</v>
+      <c r="B2">
+        <v>7.5957939075787642E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>3.6253834791665433E-2</v>
+      <c r="B3">
+        <v>3.6012811266103492E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.1244799471177326</v>
+      <c r="B4">
+        <v>5.1126188720005399E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>3.6732358627497567E-2</v>
+      <c r="B5">
+        <v>8.6644383939113515E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>3.1332761107179648E-2</v>
+      <c r="B6">
+        <v>3.913699352642367E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.16213148539762751</v>
+      <c r="B7">
+        <v>0.1094084788777038</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>3.4565254843936702E-2</v>
+      <c r="B8">
+        <v>7.5190802745488186E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>4.7079605655325069E-2</v>
+      <c r="B9">
+        <v>8.2105085579662146E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>4.0849016321013502E-2</v>
+      <c r="B10">
+        <v>6.8322140463487266E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>2.0921313158151201E-2</v>
+      <c r="B11">
+        <v>0.13883109566228011</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>2.680999544453494E-2</v>
+      <c r="B12">
+        <v>6.0754687118164993E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>2.192880558115309E-2</v>
+      <c r="B13">
+        <v>5.5231778581450432E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>2.5415612119523891E-2</v>
+      <c r="B14">
+        <v>2.694502934378918E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>2.5028072481754291E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>9.0525243400142397E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3.5936919568210622E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4.6134218754998541E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>8.9703116415808887E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3.5506943625577783E-2</v>
+      <c r="B15">
+        <v>9.4332585100540239E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5691,7 +4991,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5707,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.3886864479405657E-2</v>
+        <v>0.1155251462697932</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5715,7 +5015,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.2308354014568046E-2</v>
+        <v>5.3402606098950083E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5723,7 +5023,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.2394823121141652E-2</v>
+        <v>3.9270207942895652E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5731,7 +5031,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.4882050606044917E-2</v>
+        <v>9.0311325404105094E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5739,7 +5039,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.1364543359489971E-2</v>
+        <v>3.0459569270279239E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5747,7 +5047,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.4351061374892669E-2</v>
+        <v>8.0863024997372565E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5755,7 +5055,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.1110355378434988E-2</v>
+        <v>9.6179616296459228E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5763,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8.1074634523913544E-2</v>
+        <v>7.439698301440005E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5771,7 +5071,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.9138084533739033E-2</v>
+        <v>6.9801107692925426E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5779,7 +5079,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.2503030449000242E-2</v>
+        <v>9.7919347868057741E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5787,7 +5087,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.7944788503971332E-2</v>
+        <v>5.1193772310710171E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5795,7 +5095,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.7506338623970769E-2</v>
+        <v>6.9955050909705371E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5803,7 +5103,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.0443408305958229E-2</v>
+        <v>2.3699652201009329E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5811,47 +5111,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.8788444978830881E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>8.8675818784627242E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3.2402885887743219E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3.5598924199182438E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>8.6632090901267667E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5.899349797381756E-2</v>
+        <v>0.10702258972333691</v>
       </c>
     </row>
   </sheetData>
@@ -5861,7 +5121,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5877,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.2242780115217883E-2</v>
+        <v>0.1151912945531901</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5885,7 +5145,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.3874274607982016E-2</v>
+        <v>4.7496644835808843E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5893,7 +5153,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.7970264426694158E-2</v>
+        <v>4.1755722665956722E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5901,7 +5161,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.3920768226412528E-2</v>
+        <v>8.7547475852095866E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5909,7 +5169,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.8421726332224378E-2</v>
+        <v>3.2845699200030373E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5917,7 +5177,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6.9518111211537073E-2</v>
+        <v>7.6436011294630846E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5925,7 +5185,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.5758806404989263E-2</v>
+        <v>9.793294678381495E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5933,7 +5193,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8.6651366071370722E-2</v>
+        <v>7.4676885167261078E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5941,7 +5201,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.8171338689025229E-2</v>
+        <v>6.8812588038433056E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5949,7 +5209,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.3460096214144017E-2</v>
+        <v>9.5404948603230899E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5957,7 +5217,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.8444549453892011E-2</v>
+        <v>4.677565351505146E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5965,7 +5225,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.7797984148645601E-2</v>
+        <v>7.6711226978654526E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5973,7 +5233,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.0327983276377E-2</v>
+        <v>2.1382537188455359E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5981,47 +5241,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.9020704631463681E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>9.459161636026403E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3.3095790112773589E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3.7545223249295233E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>9.1074439213405411E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5.8112177254286183E-2</v>
+        <v>0.117030365323386</v>
       </c>
     </row>
   </sheetData>
@@ -6031,7 +5251,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6047,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.2938717331625698E-2</v>
+        <v>0.100246536418483</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6055,7 +5275,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.4105531191633175E-2</v>
+        <v>7.3255079173682749E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6063,7 +5283,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.3227139004488532E-2</v>
+        <v>2.7539924251904501E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6071,7 +5291,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.9476076871360679E-2</v>
+        <v>0.1137071025413724</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6079,7 +5299,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.382166473738443E-2</v>
+        <v>2.4172690462414929E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6087,7 +5307,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.0072360382087754E-2</v>
+        <v>6.3396835320230799E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6095,7 +5315,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8.7815645526109279E-2</v>
+        <v>9.819348725616861E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6103,7 +5323,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.1553344107193689E-2</v>
+        <v>6.1218692133142412E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6111,7 +5331,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.3565771650337291E-2</v>
+        <v>6.6595722030194038E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6119,7 +5339,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.5008729721245739E-2</v>
+        <v>0.1064506058606212</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6127,7 +5347,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.1924021986395957E-2</v>
+        <v>6.1306187486846152E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6135,7 +5355,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.5521133379405151E-2</v>
+        <v>6.6969171143177353E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6143,7 +5363,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.084211762304799E-2</v>
+        <v>2.5635198536458941E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6151,47 +5371,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.8585431149691139E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7.8239799922622755E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2.297066926108552E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3.2361789342226853E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>8.563012085783954E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>6.2339935954218842E-2</v>
+        <v>0.1113127673853028</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +5381,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6217,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.0774916778443039E-2</v>
+        <v>8.9505671587449334E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6225,7 +5405,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.6663197519546219E-2</v>
+        <v>3.3544519551250561E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6233,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.3360418997499987E-2</v>
+        <v>3.2916151526688572E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6241,7 +5421,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.9236003053773937E-2</v>
+        <v>0.1210010089554017</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6249,7 +5429,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.0441487941562828E-2</v>
+        <v>2.1122385646377081E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6257,7 +5437,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8.1746712708691549E-2</v>
+        <v>8.7465417228702519E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6265,7 +5445,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.5005774095634031E-2</v>
+        <v>8.5152417869733987E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6273,7 +5453,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.7074083428979728E-2</v>
+        <v>7.6913742631631851E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6281,7 +5461,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.6299804725342517E-2</v>
+        <v>7.8796891540028127E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6289,7 +5469,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.9334708087135428E-2</v>
+        <v>0.11176915718663161</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6297,7 +5477,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.8227288107915308E-2</v>
+        <v>7.2940013645271182E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6305,7 +5485,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.374789148677103E-2</v>
+        <v>6.7388483375622546E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6313,7 +5493,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.352013103890381E-2</v>
+        <v>3.1673084251409037E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6321,47 +5501,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4.640158776424809E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>9.232591030442526E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2.630505838583392E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2.8973514312509181E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>9.1214728244399718E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>6.9346783018384386E-2</v>
+        <v>8.9811055003801987E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6371,7 +5511,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6387,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.854837391860956E-2</v>
+        <v>0.1007356150628792</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6395,7 +5535,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.1966561640250891E-2</v>
+        <v>2.0703378118937021E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6403,7 +5543,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.0644237346736042E-2</v>
+        <v>2.3967275889444289E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6411,7 +5551,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.0592528703290058E-2</v>
+        <v>0.1143890880217403</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6419,7 +5559,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.2862396018109627E-2</v>
+        <v>1.6788502876272361E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6427,7 +5567,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.045442604287273E-2</v>
+        <v>6.845100433883694E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6435,7 +5575,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.5077444198684487E-2</v>
+        <v>5.9652732872425167E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6443,7 +5583,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.6526725964164433E-2</v>
+        <v>0.12403793775374421</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6451,7 +5591,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.6130629078911915E-2</v>
+        <v>6.8564509095286233E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6459,7 +5599,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.3268869772359091E-2</v>
+        <v>8.2090968096973138E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6467,7 +5607,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.7072425313677037E-2</v>
+        <v>8.2609514745278223E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6475,7 +5615,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.9585460211773929E-2</v>
+        <v>8.7528708857151416E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6483,7 +5623,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.4258234984536952E-2</v>
+        <v>3.2713095753489643E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6491,47 +5631,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.8784763371239712E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.13044507684214929</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2.5818025479657641E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>4.2635026314694159E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.14999893294619651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>4.5329861852085929E-2</v>
+        <v>0.1177676685175419</v>
       </c>
     </row>
   </sheetData>
@@ -6541,7 +5641,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6557,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.9201761032355939E-2</v>
+        <v>0.1090904419844145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6565,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.5572888647003172E-2</v>
+        <v>2.448783971653146E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6573,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.1376411068783432E-2</v>
+        <v>2.715552162943596E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6581,7 +5681,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.9783558700185611E-2</v>
+        <v>9.6768263295823567E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6589,7 +5689,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.6563665511271557E-2</v>
+        <v>1.9367163296117838E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6597,7 +5697,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.8099286153170678E-2</v>
+        <v>7.697556633080567E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6605,7 +5705,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.2570360349566039E-2</v>
+        <v>8.5112989033990033E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6613,7 +5713,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.4472945947505231E-2</v>
+        <v>0.1040757064210065</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6621,7 +5721,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.7653842499495298E-2</v>
+        <v>8.0417162405203538E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6629,7 +5729,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.873309531976329E-2</v>
+        <v>9.7318641915126028E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6637,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.9266063295822558E-2</v>
+        <v>6.6934271278372523E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6645,7 +5745,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.724125102826061E-2</v>
+        <v>7.7152855449868524E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6653,7 +5753,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.0415709243607331E-2</v>
+        <v>2.4944026560288959E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6661,47 +5761,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.1258604854507661E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.1172611853591586</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2.6964320724195131E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>4.1707235920377297E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.16638966362024649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>4.5468150724724078E-2</v>
+        <v>0.1101995506830149</v>
       </c>
     </row>
   </sheetData>
@@ -6711,7 +5771,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6727,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.3993563476238891E-2</v>
+        <v>9.9010867613622044E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6735,7 +5795,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.4072689138551289E-2</v>
+        <v>2.7404399641108801E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6743,7 +5803,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.2602779733877121E-2</v>
+        <v>2.9430290478050101E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6751,7 +5811,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.4907249548181762E-2</v>
+        <v>0.1063265136237576</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6759,7 +5819,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.9014814581133569E-2</v>
+        <v>2.0055191085187541E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6767,7 +5827,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.03979637303013E-2</v>
+        <v>8.0982248898486084E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6775,7 +5835,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.961350602998234E-2</v>
+        <v>8.3937805350917785E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6783,7 +5843,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.3210498510238031E-2</v>
+        <v>9.0619293851110366E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6791,7 +5851,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.4234728964958146E-2</v>
+        <v>8.0671239401175043E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6799,7 +5859,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.3234274535714659E-2</v>
+        <v>0.1029555185089336</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -6807,7 +5867,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.1916113135165257E-2</v>
+        <v>7.1854756035586928E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6815,7 +5875,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.672084505495945E-2</v>
+        <v>7.5107446251816784E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -6823,7 +5883,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.8045983605192289E-2</v>
+        <v>2.8130383972475789E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6831,47 +5891,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.8107460970953203E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.1098030302413444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2.806182722391673E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3.6772455073894171E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.1192235978575947</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5.6066618587802722E-2</v>
+        <v>0.1035140452877715</v>
       </c>
     </row>
   </sheetData>

--- a/optimization/hrp_portfolio_weights_all_rm.xlsx
+++ b/optimization/hrp_portfolio_weights_all_rm.xlsx
@@ -40,21 +40,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="58">
   <si>
     <t>weights</t>
   </si>
   <si>
-    <t>ACWI</t>
+    <t>BTC-USD</t>
   </si>
   <si>
     <t>GLD</t>
   </si>
   <si>
+    <t>IEMG</t>
+  </si>
+  <si>
+    <t>IJH</t>
+  </si>
+  <si>
+    <t>IWM</t>
+  </si>
+  <si>
     <t>SLV</t>
   </si>
   <si>
-    <t>ON</t>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>USO</t>
+  </si>
+  <si>
+    <t>VEA</t>
   </si>
   <si>
     <t>Risk Measure</t>
@@ -127,9 +142,6 @@
   </si>
   <si>
     <t>Jensen's Alpha</t>
-  </si>
-  <si>
-    <t>SPY</t>
   </si>
   <si>
     <t>HRP_MSV</t>
@@ -559,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2442091479679234</v>
+        <v>0.05308864585446322</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -583,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2419024415524219</v>
+        <v>0.1419643918410588</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -591,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1317598268586768</v>
+        <v>0.170035406288008</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -599,7 +611,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3821285836209779</v>
+        <v>0.1064473475981746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.09851819529033497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.07766139208770287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1272235119757671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.09559684303860629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1294642660258842</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +661,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2783399906257185</v>
+        <v>0.03889398855060136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -633,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2325698613124449</v>
+        <v>0.1845574763955474</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -641,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1072998152261012</v>
+        <v>0.1155491327601757</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -649,7 +701,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3817903328357354</v>
+        <v>0.141967196590669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08788150834165041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.09048946883218417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1816532526297276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.0316388067441835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1273691691552608</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +751,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -675,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2442091479679234</v>
+        <v>0.05331883689129489</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -683,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2419024415524219</v>
+        <v>0.2409521684366489</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -691,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1317598268586768</v>
+        <v>0.0952546295451803</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -699,7 +791,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3821285836209779</v>
+        <v>0.09191718491120404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08507036932290007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1318124959693502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1068269225545673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.08613895549623173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1087084368726227</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +841,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -725,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2517983446979905</v>
+        <v>0.09850803626819708</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -733,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2548010831480001</v>
+        <v>0.1460466747643975</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -741,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2329183899848018</v>
+        <v>0.1000630726237687</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -749,7 +881,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2604821821692076</v>
+        <v>0.100166699722315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.09860184593192177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.13377404809865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1026609667010547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.1180361865762453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1021424693134498</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +931,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -775,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2291543919250264</v>
+        <v>0.05259045502325244</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -783,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2348847593225241</v>
+        <v>0.2469372525964706</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -791,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1262501599855934</v>
+        <v>0.09615544055804894</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -799,7 +971,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4097106887668562</v>
+        <v>0.09059785961622252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08428989379505035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1322936833676526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1011659912925674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.08766406299441851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1083053607563167</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -825,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2114563827087149</v>
+        <v>0.05374812809500141</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -833,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1911748451924027</v>
+        <v>0.224443556236941</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -841,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1102693520730679</v>
+        <v>0.09665353426880757</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -849,7 +1061,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4870994200258144</v>
+        <v>0.09537011958758386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08766841081201461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1301547481820352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1093292914831411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.08761094309209963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1150212682423756</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2844371357839249</v>
+        <v>0.05121398852223424</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -883,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3770337251633407</v>
+        <v>0.3545248701226507</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -891,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1489384921337033</v>
+        <v>0.07394942194608603</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -899,7 +1151,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1895906469190311</v>
+        <v>0.06494116701029962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.07064500712998643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1400468872037621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.08565252684286803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.07519653045894838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.08382960076316461</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +1201,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -925,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2103656374710621</v>
+        <v>0.05379587877801881</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -933,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3584885551249766</v>
+        <v>0.3403103254187761</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -941,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.17152997305798</v>
+        <v>0.08327624757485114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -949,7 +1241,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2596158343459813</v>
+        <v>0.07093913004223412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.07267605873938424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.162901028751373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.09391345369566406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.03435555525261774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.08783232174708069</v>
       </c>
     </row>
   </sheetData>
@@ -959,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -975,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2841874317463569</v>
+        <v>0.04596873487049395</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -983,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1937983276135103</v>
+        <v>0.229581300362321</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -991,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.08259591629127346</v>
+        <v>0.05814390022546029</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -999,7 +1331,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4394183243488595</v>
+        <v>0.1484637698107263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08423539420399279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1039497980154457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.198425162258408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.01857843200706255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1126535082460893</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +1381,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1025,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2598236808223287</v>
+        <v>0.04354664907344121</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1033,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2775687809788256</v>
+        <v>0.2821362754811668</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1041,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1395590498447738</v>
+        <v>0.0746770603487114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1049,7 +1421,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.323048488354072</v>
+        <v>0.1105568996541646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08253497626862272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1492073321676867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1257394179593946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.02981534679026088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.101786042256551</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1471,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2446063402985509</v>
+        <v>0.04737186844315303</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1083,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3151363021622614</v>
+        <v>0.3021350388902959</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1091,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1593409058367509</v>
+        <v>0.07762819216114422</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1099,7 +1511,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2809164517024368</v>
+        <v>0.09025086157928416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.0795913425291274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1563952013637076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.117108828655941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.03167641834937093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.09784224802797575</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1125,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2517983446979905</v>
+        <v>0.09937108147187305</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1133,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2548010831480001</v>
+        <v>0.07400452283757576</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1141,7 +1593,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2329183899848019</v>
+        <v>0.1414672075649789</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1149,7 +1601,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2604821821692075</v>
+        <v>0.1237422473647398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.1218090846933399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.06778575831022511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1271637453376466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.1181348577043324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1265214947152886</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1651,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1175,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2783399906257185</v>
+        <v>0.04537095701913774</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1183,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2325698613124449</v>
+        <v>0.2545912417686836</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1191,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1072998152261013</v>
+        <v>0.06438187219854739</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1199,7 +1691,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3817903328357354</v>
+        <v>0.1338092913659581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08283154586248043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1248273799951578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1588056400397994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.02403288236760324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1113491893826322</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1741,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2498378484047596</v>
+        <v>0.05134433196607675</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1233,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2677358681570708</v>
+        <v>0.1740510497714794</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1241,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1410461881292723</v>
+        <v>0.1466006696237192</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1249,7 +1781,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3413800953088972</v>
+        <v>0.1126711510820828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.09481038361699345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.08930675110440377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.141293717212103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.06813960428854791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1217823413345937</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1831,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1275,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2498378484047597</v>
+        <v>0.05454335329842248</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1283,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2677358681570708</v>
+        <v>0.2621658704078352</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1291,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1410461881292723</v>
+        <v>0.0820183371450606</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1299,7 +1871,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3413800953088972</v>
+        <v>0.09970129832999923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08281448445954807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1365362603114821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1199628201483406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.05931053133848589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1029470445608258</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1921,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1325,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2498378484047597</v>
+        <v>0.05294384263224962</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1333,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2677358681570708</v>
+        <v>0.2181084600896573</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1341,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1410461881292723</v>
+        <v>0.1143095033843899</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1349,7 +1961,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3413800953088972</v>
+        <v>0.106186224706041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08881243403827077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1129215057079429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1306282686802218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.0637250678135169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1123646929477098</v>
       </c>
     </row>
   </sheetData>
@@ -1367,144 +2019,144 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.1418217099121317</v>
+        <v>0.1355584188647132</v>
       </c>
       <c r="C2">
-        <v>0.0005264281104142565</v>
+        <v>0.000504589678997247</v>
       </c>
       <c r="D2">
-        <v>0.1418217099121317</v>
+        <v>0.1355584188647132</v>
       </c>
       <c r="E2">
-        <v>0.1840362894423485</v>
+        <v>0.1778282084752553</v>
       </c>
       <c r="F2">
-        <v>0.6501598713623893</v>
+        <v>0.635477772751147</v>
       </c>
       <c r="G2">
-        <v>0.777624520978081</v>
+        <v>0.7752197149308254</v>
       </c>
       <c r="H2">
-        <v>-0.319780907625228</v>
+        <v>-0.3371723718770139</v>
       </c>
       <c r="I2">
-        <v>0.319780907625228</v>
+        <v>0.3371723718770139</v>
       </c>
       <c r="J2">
-        <v>-0.00773516470407983</v>
+        <v>-0.007659210892815781</v>
       </c>
       <c r="K2">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="L2">
-        <v>0.4434964894099987</v>
+        <v>0.4020448594588857</v>
       </c>
       <c r="M2">
-        <v>1.172358258302624</v>
+        <v>1.168284323744912</v>
       </c>
       <c r="N2">
-        <v>-0.4352312524650817</v>
+        <v>-0.3045331469507237</v>
       </c>
       <c r="O2">
-        <v>13.39708366816863</v>
+        <v>14.0843578120127</v>
       </c>
       <c r="P2">
-        <v>0.9438898513838643</v>
+        <v>0.9356431073996668</v>
       </c>
       <c r="Q2">
-        <v>-0.01710004671749264</v>
+        <v>-0.01669971684749361</v>
       </c>
       <c r="R2">
-        <v>-0.02833265365613725</v>
+        <v>-0.02703676494875594</v>
       </c>
       <c r="S2">
-        <v>0.1538699038442763</v>
+        <v>0.1457727037608501</v>
       </c>
       <c r="T2">
-        <v>0.03678797468354431</v>
+        <v>0.03416037396619921</v>
       </c>
       <c r="U2">
-        <v>0.5506329113924051</v>
+        <v>0.5480043149946062</v>
       </c>
       <c r="V2">
-        <v>2.782783438513488</v>
+        <v>3.067017704409371</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1515,1704 +2167,1704 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>0.1007541801159466</v>
+        <v>0.1174085242705145</v>
       </c>
       <c r="C3">
-        <v>0.0003810073393202273</v>
+        <v>0.0004406215955030657</v>
       </c>
       <c r="D3">
-        <v>0.1007541801159466</v>
+        <v>0.1174085242705145</v>
       </c>
       <c r="E3">
-        <v>0.09916355553870654</v>
+        <v>0.1563569539774511</v>
       </c>
       <c r="F3">
-        <v>0.7154813223679599</v>
+        <v>0.5970499685125403</v>
       </c>
       <c r="G3">
-        <v>0.8875144293397923</v>
+        <v>0.7340394383940819</v>
       </c>
       <c r="H3">
-        <v>-0.2296434943269111</v>
+        <v>-0.339682572628982</v>
       </c>
       <c r="I3">
-        <v>0.2296434943269111</v>
+        <v>0.339682572628982</v>
       </c>
       <c r="J3">
-        <v>-0.008060833493055624</v>
+        <v>-0.009993306776897548</v>
       </c>
       <c r="K3">
-        <v>368</v>
+        <v>576</v>
       </c>
       <c r="L3">
-        <v>0.4387417131552487</v>
+        <v>0.3456418837205224</v>
       </c>
       <c r="M3">
-        <v>1.203572800170929</v>
+        <v>1.153999252467151</v>
       </c>
       <c r="N3">
-        <v>-1.042882798809239</v>
+        <v>-1.143555542277195</v>
       </c>
       <c r="O3">
-        <v>14.81194249169116</v>
+        <v>15.54452370876142</v>
       </c>
       <c r="P3">
-        <v>1.133897155092003</v>
+        <v>1.000407415847263</v>
       </c>
       <c r="Q3">
-        <v>-0.008469762728114501</v>
+        <v>-0.01398507505539188</v>
       </c>
       <c r="R3">
-        <v>-0.01422912788543283</v>
+        <v>-0.02294482457129743</v>
       </c>
       <c r="S3">
-        <v>0.07962413042883504</v>
+        <v>0.1266712979780354</v>
       </c>
       <c r="T3">
-        <v>0.005933544303797469</v>
+        <v>0.02157497303128371</v>
       </c>
       <c r="U3">
-        <v>0.5482594936708861</v>
+        <v>0.5426105717367853</v>
       </c>
       <c r="V3">
-        <v>1.619551473566947</v>
+        <v>2.404502343935326</v>
       </c>
       <c r="W3">
-        <v>0.3040932334472858</v>
+        <v>0.7365142803513703</v>
       </c>
       <c r="X3">
-        <v>0.03456400106288278</v>
+        <v>0.01012247459176341</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>0.1066493988218891</v>
+        <v>0.1436247115144789</v>
       </c>
       <c r="C4">
-        <v>0.000402211383825346</v>
+        <v>0.0005326925833528673</v>
       </c>
       <c r="D4">
-        <v>0.1066493988218891</v>
+        <v>0.1436247115144789</v>
       </c>
       <c r="E4">
-        <v>0.1202509302090574</v>
+        <v>0.1745402202248374</v>
       </c>
       <c r="F4">
-        <v>0.6536141968112088</v>
+        <v>0.6852655784660306</v>
       </c>
       <c r="G4">
-        <v>0.8580560593187105</v>
+        <v>0.8445825065370901</v>
       </c>
       <c r="H4">
-        <v>-0.2392162274136546</v>
+        <v>-0.3689508525579968</v>
       </c>
       <c r="I4">
-        <v>0.2392162274136546</v>
+        <v>0.3689508525579968</v>
       </c>
       <c r="J4">
-        <v>-0.01136442777797081</v>
+        <v>-0.01248748667013255</v>
       </c>
       <c r="K4">
-        <v>371</v>
+        <v>534</v>
       </c>
       <c r="L4">
-        <v>0.4458284455655682</v>
+        <v>0.3892787088543235</v>
       </c>
       <c r="M4">
-        <v>1.177418787689804</v>
+        <v>1.167310996733552</v>
       </c>
       <c r="N4">
-        <v>-0.3702102242405205</v>
+        <v>-1.194547072458628</v>
       </c>
       <c r="O4">
-        <v>10.81057283307786</v>
+        <v>14.99073571070344</v>
       </c>
       <c r="P4">
-        <v>1.088211956039143</v>
+        <v>1.008129463456417</v>
       </c>
       <c r="Q4">
-        <v>-0.01078755969067562</v>
+        <v>-0.0156594577923853</v>
       </c>
       <c r="R4">
-        <v>-0.01725095011885912</v>
+        <v>-0.02561082924501558</v>
       </c>
       <c r="S4">
-        <v>0.09123552862364696</v>
+        <v>0.1410529225808851</v>
       </c>
       <c r="T4">
-        <v>0.01147151898734177</v>
+        <v>0.02840704782452355</v>
       </c>
       <c r="U4">
-        <v>0.5458860759493671</v>
+        <v>0.5408126573175117</v>
       </c>
       <c r="V4">
-        <v>1.763743084006485</v>
+        <v>3.397444796469489</v>
       </c>
       <c r="W4">
-        <v>0.3438576736645186</v>
+        <v>0.8008757414982105</v>
       </c>
       <c r="X4">
-        <v>0.03745410940604679</v>
+        <v>0.02910274196134041</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>0.0993644064961865</v>
+        <v>0.1173035956106998</v>
       </c>
       <c r="C5">
-        <v>0.000375992097991551</v>
+        <v>0.0004402487806269839</v>
       </c>
       <c r="D5">
-        <v>0.0993644064961865</v>
+        <v>0.1173035956106998</v>
       </c>
       <c r="E5">
-        <v>0.09700728717587305</v>
+        <v>0.1564670485422771</v>
       </c>
       <c r="F5">
-        <v>0.7161978806479885</v>
+        <v>0.5961411665538157</v>
       </c>
       <c r="G5">
-        <v>0.8774275300584898</v>
+        <v>0.7339499847014355</v>
       </c>
       <c r="H5">
-        <v>-0.2287772298323998</v>
+        <v>-0.339412037422076</v>
       </c>
       <c r="I5">
-        <v>0.2287772298323998</v>
+        <v>0.339412037422076</v>
       </c>
       <c r="J5">
-        <v>-0.008006603209596076</v>
+        <v>-0.009909868818423971</v>
       </c>
       <c r="K5">
-        <v>368</v>
+        <v>576</v>
       </c>
       <c r="L5">
-        <v>0.4343282177556744</v>
+        <v>0.3456082362359673</v>
       </c>
       <c r="M5">
-        <v>1.20598178062843</v>
+        <v>1.153553002403061</v>
       </c>
       <c r="N5">
-        <v>-1.212063131373237</v>
+        <v>-1.144676057734959</v>
       </c>
       <c r="O5">
-        <v>16.39090429758859</v>
+        <v>15.47284984369743</v>
       </c>
       <c r="P5">
-        <v>1.1122577383603</v>
+        <v>0.9926751736622681</v>
       </c>
       <c r="Q5">
-        <v>-0.008360353933010349</v>
+        <v>-0.01410939953040973</v>
       </c>
       <c r="R5">
-        <v>-0.01391564542812658</v>
+        <v>-0.02292552947264404</v>
       </c>
       <c r="S5">
-        <v>0.07886709939358967</v>
+        <v>0.1265829672329801</v>
       </c>
       <c r="T5">
-        <v>0.005537974683544304</v>
+        <v>0.02193455591513844</v>
       </c>
       <c r="U5">
-        <v>0.5510284810126582</v>
+        <v>0.5422509888529305</v>
       </c>
       <c r="V5">
-        <v>1.586561472231359</v>
+        <v>2.400975943683672</v>
       </c>
       <c r="W5">
-        <v>0.2888242121362612</v>
+        <v>0.7343179985766992</v>
       </c>
       <c r="X5">
-        <v>0.03491772706185003</v>
+        <v>0.0102942017292118</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>0.09514185082161797</v>
+        <v>0.1186977859795606</v>
       </c>
       <c r="C6">
-        <v>0.0003607154350595554</v>
+        <v>0.0004451995392433794</v>
       </c>
       <c r="D6">
-        <v>0.09514185082161797</v>
+        <v>0.1186977859795606</v>
       </c>
       <c r="E6">
-        <v>0.0920460932211697</v>
+        <v>0.158315882811793</v>
       </c>
       <c r="F6">
-        <v>0.7079741246986621</v>
+        <v>0.5989250258272507</v>
       </c>
       <c r="G6">
-        <v>0.8262519091835855</v>
+        <v>0.7368360719304065</v>
       </c>
       <c r="H6">
-        <v>-0.2312554780371907</v>
+        <v>-0.3430142901736528</v>
       </c>
       <c r="I6">
-        <v>0.2312554780371907</v>
+        <v>0.3430142901736528</v>
       </c>
       <c r="J6">
-        <v>-0.007364821063688903</v>
+        <v>-0.01007675771647474</v>
       </c>
       <c r="K6">
-        <v>368</v>
+        <v>563</v>
       </c>
       <c r="L6">
-        <v>0.4114144738500732</v>
+        <v>0.3460432681083613</v>
       </c>
       <c r="M6">
-        <v>1.212746202079747</v>
+        <v>1.15384775257031</v>
       </c>
       <c r="N6">
-        <v>-1.889554167038595</v>
+        <v>-1.153178693992509</v>
       </c>
       <c r="O6">
-        <v>25.54647129573631</v>
+        <v>15.59624660785001</v>
       </c>
       <c r="P6">
-        <v>1.079903670383462</v>
+        <v>0.9799379961257152</v>
       </c>
       <c r="Q6">
-        <v>-0.007801875764496114</v>
+        <v>-0.01434213985055969</v>
       </c>
       <c r="R6">
-        <v>-0.01321199810246987</v>
+        <v>-0.02321803900631895</v>
       </c>
       <c r="S6">
-        <v>0.07855611610159129</v>
+        <v>0.128172779565865</v>
       </c>
       <c r="T6">
-        <v>0.005537974683544304</v>
+        <v>0.02229413879899317</v>
       </c>
       <c r="U6">
-        <v>0.5534018987341772</v>
+        <v>0.5397339086659475</v>
       </c>
       <c r="V6">
-        <v>1.488609680325672</v>
+        <v>2.448103603090929</v>
       </c>
       <c r="W6">
-        <v>0.2675143441135742</v>
+        <v>0.7480010492749773</v>
       </c>
       <c r="X6">
-        <v>0.03315735571663572</v>
+        <v>0.01029083198475331</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>0.110448516176906</v>
+        <v>0.1143927139866567</v>
       </c>
       <c r="C7">
-        <v>0.0004158165957719451</v>
+        <v>0.0004298923987027248</v>
       </c>
       <c r="D7">
-        <v>0.110448516176906</v>
+        <v>0.1143927139866567</v>
       </c>
       <c r="E7">
-        <v>0.1156993715732655</v>
+        <v>0.1458660741511132</v>
       </c>
       <c r="F7">
-        <v>0.7042596636944716</v>
+        <v>0.6104140014063825</v>
       </c>
       <c r="G7">
-        <v>0.9380432581288425</v>
+        <v>0.7607450318505965</v>
       </c>
       <c r="H7">
-        <v>-0.2176124092194115</v>
+        <v>-0.3149017298385839</v>
       </c>
       <c r="I7">
-        <v>0.2176124092194115</v>
+        <v>0.3149017298385839</v>
       </c>
       <c r="J7">
-        <v>-0.01078219385357228</v>
+        <v>-0.00996773817999898</v>
       </c>
       <c r="K7">
-        <v>366</v>
+        <v>590</v>
       </c>
       <c r="L7">
-        <v>0.5075469573315755</v>
+        <v>0.3632648002451226</v>
       </c>
       <c r="M7">
-        <v>1.189106021937436</v>
+        <v>1.158044414657566</v>
       </c>
       <c r="N7">
-        <v>-0.2069442080724593</v>
+        <v>-1.051473410271288</v>
       </c>
       <c r="O7">
-        <v>10.66874285228188</v>
+        <v>14.0973504930087</v>
       </c>
       <c r="P7">
-        <v>1.084997780276828</v>
+        <v>1.011808685852293</v>
       </c>
       <c r="Q7">
-        <v>-0.01055322361538812</v>
+        <v>-0.01290572156434493</v>
       </c>
       <c r="R7">
-        <v>-0.01651112193706327</v>
+        <v>-0.0213195326250213</v>
       </c>
       <c r="S7">
-        <v>0.08651883891231296</v>
+        <v>0.1165760646267949</v>
       </c>
       <c r="T7">
-        <v>0.009098101265822785</v>
+        <v>0.01905789284430061</v>
       </c>
       <c r="U7">
-        <v>0.5443037974683544</v>
+        <v>0.5422509888529305</v>
       </c>
       <c r="V7">
-        <v>1.860412555854598</v>
+        <v>2.304462605480523</v>
       </c>
       <c r="W7">
-        <v>0.3465757349122603</v>
+        <v>0.6418016424686245</v>
       </c>
       <c r="X7">
-        <v>0.04001357054511262</v>
+        <v>0.01651133854380495</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B8">
-        <v>0.1072611247365278</v>
+        <v>0.1264338180524336</v>
       </c>
       <c r="C8">
-        <v>0.0004044052058869152</v>
+        <v>0.0004725589585190537</v>
       </c>
       <c r="D8">
-        <v>0.1072611247365278</v>
+        <v>0.1264338180524336</v>
       </c>
       <c r="E8">
-        <v>0.1133904745252487</v>
+        <v>0.1439762477429258</v>
       </c>
       <c r="F8">
-        <v>0.6909275577853036</v>
+        <v>0.6911192544658422</v>
       </c>
       <c r="G8">
-        <v>0.921152008368336</v>
+        <v>0.8754123822885526</v>
       </c>
       <c r="H8">
-        <v>-0.2175910009353151</v>
+        <v>-0.2948240265156846</v>
       </c>
       <c r="I8">
-        <v>0.2175910009353151</v>
+        <v>0.2948240265156846</v>
       </c>
       <c r="J8">
-        <v>-0.01141003431868163</v>
+        <v>-0.01020768727190352</v>
       </c>
       <c r="K8">
-        <v>370</v>
+        <v>528</v>
       </c>
       <c r="L8">
-        <v>0.4929483493134632</v>
+        <v>0.4288450284960317</v>
       </c>
       <c r="M8">
-        <v>1.186236989850532</v>
+        <v>1.174959342000904</v>
       </c>
       <c r="N8">
-        <v>-0.2997482955730709</v>
+        <v>-0.9135506959687477</v>
       </c>
       <c r="O8">
-        <v>9.273699730021741</v>
+        <v>13.74632006980841</v>
       </c>
       <c r="P8">
-        <v>1.090889100944612</v>
+        <v>1.032381078082408</v>
       </c>
       <c r="Q8">
-        <v>-0.01029795261579715</v>
+        <v>-0.01283417008589155</v>
       </c>
       <c r="R8">
-        <v>-0.01618801417427462</v>
+        <v>-0.0207774735547014</v>
       </c>
       <c r="S8">
-        <v>0.08471250384177012</v>
+        <v>0.1132141974252589</v>
       </c>
       <c r="T8">
-        <v>0.007911392405063292</v>
+        <v>0.01690039554117224</v>
       </c>
       <c r="U8">
-        <v>0.5482594936708861</v>
+        <v>0.544408486156059</v>
       </c>
       <c r="V8">
-        <v>1.779107122409815</v>
+        <v>2.720566888802851</v>
       </c>
       <c r="W8">
-        <v>0.2877350288899639</v>
+        <v>0.6299727266579221</v>
       </c>
       <c r="X8">
-        <v>0.04391624127308068</v>
+        <v>0.02831413852060014</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>0.09715803032607861</v>
+        <v>0.1291942715972465</v>
       </c>
       <c r="C9">
-        <v>0.0003680170180535569</v>
+        <v>0.000482276354728306</v>
       </c>
       <c r="D9">
-        <v>0.09715803032607861</v>
+        <v>0.1291942715972465</v>
       </c>
       <c r="E9">
-        <v>0.09232856328043351</v>
+        <v>0.1502997573702741</v>
       </c>
       <c r="F9">
-        <v>0.7259806356751585</v>
+        <v>0.6845839823135769</v>
       </c>
       <c r="G9">
-        <v>0.8490286795776835</v>
+        <v>0.8449384015489784</v>
       </c>
       <c r="H9">
-        <v>-0.2338407480322926</v>
+        <v>-0.3089291589900562</v>
       </c>
       <c r="I9">
-        <v>0.2338407480322926</v>
+        <v>0.3089291589900562</v>
       </c>
       <c r="J9">
-        <v>-0.006793810814054498</v>
+        <v>-0.009469308210746286</v>
       </c>
       <c r="K9">
-        <v>366</v>
+        <v>526</v>
       </c>
       <c r="L9">
-        <v>0.4154880239805828</v>
+        <v>0.4182003149835558</v>
       </c>
       <c r="M9">
-        <v>1.215974817512203</v>
+        <v>1.177135535256546</v>
       </c>
       <c r="N9">
-        <v>-1.676589636270174</v>
+        <v>-0.9030282103148924</v>
       </c>
       <c r="O9">
-        <v>21.96552011751891</v>
+        <v>16.2965237307494</v>
       </c>
       <c r="P9">
-        <v>1.078533064583547</v>
+        <v>1.010079159934632</v>
       </c>
       <c r="Q9">
-        <v>-0.007970418195293051</v>
+        <v>-0.01340589339966778</v>
       </c>
       <c r="R9">
-        <v>-0.01335353431929281</v>
+        <v>-0.02194938831945687</v>
       </c>
       <c r="S9">
-        <v>0.07863365951098321</v>
+        <v>0.121291313197016</v>
       </c>
       <c r="T9">
-        <v>0.005142405063291139</v>
+        <v>0.02049622437971953</v>
       </c>
       <c r="U9">
-        <v>0.5581487341772152</v>
+        <v>0.544408486156059</v>
       </c>
       <c r="V9">
-        <v>1.534954965661977</v>
+        <v>2.822433376543658</v>
       </c>
       <c r="W9">
-        <v>0.3233862008851336</v>
+        <v>0.7519808804643029</v>
       </c>
       <c r="X9">
-        <v>0.02833461664566694</v>
+        <v>0.01791454992280099</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>0.103805387788847</v>
+        <v>0.1217256998348899</v>
       </c>
       <c r="C10">
-        <v>0.0003919960688754109</v>
+        <v>0.0004559305035856109</v>
       </c>
       <c r="D10">
-        <v>0.103805387788847</v>
+        <v>0.1217256998348899</v>
       </c>
       <c r="E10">
-        <v>0.1037880779482799</v>
+        <v>0.146561804718918</v>
       </c>
       <c r="F10">
-        <v>0.7147554303800847</v>
+        <v>0.6529363520858895</v>
       </c>
       <c r="G10">
-        <v>0.9099959325158056</v>
+        <v>0.8152549057620744</v>
       </c>
       <c r="H10">
-        <v>-0.2272047671722052</v>
+        <v>-0.3060761147000056</v>
       </c>
       <c r="I10">
-        <v>0.2272047671722052</v>
+        <v>0.3060761147000056</v>
       </c>
       <c r="J10">
-        <v>-0.008860174086366968</v>
+        <v>-0.01002553238796921</v>
       </c>
       <c r="K10">
-        <v>368</v>
+        <v>528</v>
       </c>
       <c r="L10">
-        <v>0.4568803246552032</v>
+        <v>0.3976974810798187</v>
       </c>
       <c r="M10">
-        <v>1.199047646407321</v>
+        <v>1.168919501910452</v>
       </c>
       <c r="N10">
-        <v>-0.7127236816756641</v>
+        <v>-0.9340080957948196</v>
       </c>
       <c r="O10">
-        <v>12.43371641543251</v>
+        <v>15.1903726686873</v>
       </c>
       <c r="P10">
-        <v>1.10557343639509</v>
+        <v>1.041756827096114</v>
       </c>
       <c r="Q10">
-        <v>-0.009131279223936866</v>
+        <v>-0.01296144754831541</v>
       </c>
       <c r="R10">
-        <v>-0.01487047192574889</v>
+        <v>-0.02132454810497739</v>
       </c>
       <c r="S10">
-        <v>0.08119610859808371</v>
+        <v>0.1169143893792769</v>
       </c>
       <c r="T10">
-        <v>0.007120253164556962</v>
+        <v>0.0176195613088817</v>
       </c>
       <c r="U10">
-        <v>0.5474683544303798</v>
+        <v>0.5411722402013665</v>
       </c>
       <c r="V10">
-        <v>1.693312599040612</v>
+        <v>2.552507781494313</v>
       </c>
       <c r="W10">
-        <v>0.3208234167596944</v>
+        <v>0.6907528879533797</v>
       </c>
       <c r="X10">
-        <v>0.03579560474188893</v>
+        <v>0.01763639640782334</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>0.1060542198285257</v>
+        <v>0.1237706799016756</v>
       </c>
       <c r="C11">
-        <v>0.0004000757440869585</v>
+        <v>0.0004631616278920614</v>
       </c>
       <c r="D11">
-        <v>0.1060542198285257</v>
+        <v>0.1237706799016756</v>
       </c>
       <c r="E11">
-        <v>0.1093734538225892</v>
+        <v>0.1451710936369613</v>
       </c>
       <c r="F11">
-        <v>0.7022723300309426</v>
+        <v>0.67032884598665</v>
       </c>
       <c r="G11">
-        <v>0.9170499911884487</v>
+        <v>0.8423154704816652</v>
       </c>
       <c r="H11">
-        <v>-0.2233082026989551</v>
+        <v>-0.3013268186847943</v>
       </c>
       <c r="I11">
-        <v>0.2233082026989551</v>
+        <v>0.3013268186847943</v>
       </c>
       <c r="J11">
-        <v>-0.01025194192969927</v>
+        <v>-0.009941114760499437</v>
       </c>
       <c r="K11">
-        <v>368</v>
+        <v>526</v>
       </c>
       <c r="L11">
-        <v>0.4749230818515828</v>
+        <v>0.4107522869749839</v>
       </c>
       <c r="M11">
-        <v>1.191974318961535</v>
+        <v>1.17181256660242</v>
       </c>
       <c r="N11">
-        <v>-0.4590643267167736</v>
+        <v>-0.9288732821311735</v>
       </c>
       <c r="O11">
-        <v>10.72132230605629</v>
+        <v>14.61200088870656</v>
       </c>
       <c r="P11">
-        <v>1.096369886249922</v>
+        <v>1.04864154403129</v>
       </c>
       <c r="Q11">
-        <v>-0.009751897753873631</v>
+        <v>-0.01273425951715166</v>
       </c>
       <c r="R11">
-        <v>-0.0156433309015975</v>
+        <v>-0.02106952122546744</v>
       </c>
       <c r="S11">
-        <v>0.08342461417393821</v>
+        <v>0.1150702386616942</v>
       </c>
       <c r="T11">
-        <v>0.007515822784810127</v>
+        <v>0.01797914419273643</v>
       </c>
       <c r="U11">
-        <v>0.5462816455696202</v>
+        <v>0.5397339086659475</v>
       </c>
       <c r="V11">
-        <v>1.748868076495548</v>
+        <v>2.624637527873864</v>
       </c>
       <c r="W11">
-        <v>0.3139732453872435</v>
+        <v>0.664210271909164</v>
       </c>
       <c r="X11">
-        <v>0.03924210630474381</v>
+        <v>0.02225270946826534</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B12">
-        <v>0.1004944781033872</v>
+        <v>0.1250798273425624</v>
       </c>
       <c r="C12">
-        <v>0.0003800706384959884</v>
+        <v>0.0004677839433750997</v>
       </c>
       <c r="D12">
-        <v>0.1004944781033872</v>
+        <v>0.1250798273425624</v>
       </c>
       <c r="E12">
-        <v>0.09691721685892758</v>
+        <v>0.1479660125847444</v>
       </c>
       <c r="F12">
-        <v>0.7273681952431543</v>
+        <v>0.6683349037782873</v>
       </c>
       <c r="G12">
-        <v>0.8876944333584601</v>
+        <v>0.8287763099780482</v>
       </c>
       <c r="H12">
-        <v>-0.2310263768623599</v>
+        <v>-0.3078061995097197</v>
       </c>
       <c r="I12">
-        <v>0.2310263768623599</v>
+        <v>0.3078061995097197</v>
       </c>
       <c r="J12">
-        <v>-0.007668171700789372</v>
+        <v>-0.01015458070797571</v>
       </c>
       <c r="K12">
-        <v>366</v>
+        <v>526</v>
       </c>
       <c r="L12">
-        <v>0.4349913610222066</v>
+        <v>0.4063590257174555</v>
       </c>
       <c r="M12">
-        <v>1.208885954359389</v>
+        <v>1.173197110512321</v>
       </c>
       <c r="N12">
-        <v>-1.166388172269499</v>
+        <v>-0.924279355078652</v>
       </c>
       <c r="O12">
-        <v>16.27796671681424</v>
+        <v>15.86235187992608</v>
       </c>
       <c r="P12">
-        <v>1.115655027541209</v>
+        <v>1.044421366990705</v>
       </c>
       <c r="Q12">
-        <v>-0.008249507574076942</v>
+        <v>-0.01292207033728978</v>
       </c>
       <c r="R12">
-        <v>-0.01393465236564689</v>
+        <v>-0.02157285485981427</v>
       </c>
       <c r="S12">
-        <v>0.07909726718895821</v>
+        <v>0.1188470807649009</v>
       </c>
       <c r="T12">
-        <v>0.005537974683544304</v>
+        <v>0.01869830996044588</v>
       </c>
       <c r="U12">
-        <v>0.5537974683544303</v>
+        <v>0.54297015462064</v>
       </c>
       <c r="V12">
-        <v>1.613358121467788</v>
+        <v>2.671509809287837</v>
       </c>
       <c r="W12">
-        <v>0.3265008062328054</v>
+        <v>0.7199595338948339</v>
       </c>
       <c r="X12">
-        <v>0.03142769679337981</v>
+        <v>0.0175311945158468</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B13">
-        <v>0.1007541801159466</v>
+        <v>0.1253402210658534</v>
       </c>
       <c r="C13">
-        <v>0.0003810073393202273</v>
+        <v>0.0004687026983167808</v>
       </c>
       <c r="D13">
-        <v>0.1007541801159466</v>
+        <v>0.1253402210658534</v>
       </c>
       <c r="E13">
-        <v>0.09916355553870654</v>
+        <v>0.1467271683003178</v>
       </c>
       <c r="F13">
-        <v>0.7154813223679601</v>
+        <v>0.6743238170994685</v>
       </c>
       <c r="G13">
-        <v>0.8875144293397926</v>
+        <v>0.8475451722472562</v>
       </c>
       <c r="H13">
-        <v>-0.2296434943269113</v>
+        <v>-0.3120156659533578</v>
       </c>
       <c r="I13">
-        <v>0.2296434943269113</v>
+        <v>0.3120156659533578</v>
       </c>
       <c r="J13">
-        <v>-0.008060833493055624</v>
+        <v>-0.01048499861056892</v>
       </c>
       <c r="K13">
-        <v>368</v>
+        <v>514</v>
       </c>
       <c r="L13">
-        <v>0.4387417131552482</v>
+        <v>0.4017113072924681</v>
       </c>
       <c r="M13">
-        <v>1.203572800170929</v>
+        <v>1.170453120870652</v>
       </c>
       <c r="N13">
-        <v>-1.042882798809239</v>
+        <v>-0.9949386201091525</v>
       </c>
       <c r="O13">
-        <v>14.81194249169115</v>
+        <v>13.34045988012645</v>
       </c>
       <c r="P13">
-        <v>1.133897155092003</v>
+        <v>1.035819168518183</v>
       </c>
       <c r="Q13">
-        <v>-0.008469762728114501</v>
+        <v>-0.01298978141767447</v>
       </c>
       <c r="R13">
-        <v>-0.01422912788543283</v>
+        <v>-0.02133974305791627</v>
       </c>
       <c r="S13">
-        <v>0.07962413042883504</v>
+        <v>0.1162748839931547</v>
       </c>
       <c r="T13">
-        <v>0.005933544303797469</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="U13">
-        <v>0.5482594936708861</v>
+        <v>0.54297015462064</v>
       </c>
       <c r="V13">
-        <v>1.619551473566947</v>
+        <v>2.680898320816104</v>
       </c>
       <c r="W13">
-        <v>0.3040932334472858</v>
+        <v>0.6199924870887562</v>
       </c>
       <c r="X13">
-        <v>0.03456400106288281</v>
+        <v>0.02887883141397395</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>0.1066493988218891</v>
+        <v>0.1477210884132749</v>
       </c>
       <c r="C14">
-        <v>0.000402211383825346</v>
+        <v>0.0005468888306063846</v>
       </c>
       <c r="D14">
-        <v>0.1066493988218891</v>
+        <v>0.1477210884132749</v>
       </c>
       <c r="E14">
-        <v>0.1202509302090573</v>
+        <v>0.1655830691921587</v>
       </c>
       <c r="F14">
-        <v>0.6536141968112086</v>
+        <v>0.7345664670426648</v>
       </c>
       <c r="G14">
-        <v>0.8580560593187104</v>
+        <v>0.9179696810233824</v>
       </c>
       <c r="H14">
-        <v>-0.2392162274136546</v>
+        <v>-0.348782789795263</v>
       </c>
       <c r="I14">
-        <v>0.2392162274136546</v>
+        <v>0.348782789795263</v>
       </c>
       <c r="J14">
-        <v>-0.0113644277779708</v>
+        <v>-0.01273287151561032</v>
       </c>
       <c r="K14">
-        <v>371</v>
+        <v>527</v>
       </c>
       <c r="L14">
-        <v>0.4458284455655682</v>
+        <v>0.4235331923917113</v>
       </c>
       <c r="M14">
-        <v>1.177418787689804</v>
+        <v>1.177642455919871</v>
       </c>
       <c r="N14">
-        <v>-0.3702102242405209</v>
+        <v>-1.129135321068421</v>
       </c>
       <c r="O14">
-        <v>10.81057283307786</v>
+        <v>13.5214499843286</v>
       </c>
       <c r="P14">
-        <v>1.088211956039143</v>
+        <v>1.046249319931802</v>
       </c>
       <c r="Q14">
-        <v>-0.01078755969067562</v>
+        <v>-0.01458291878096198</v>
       </c>
       <c r="R14">
-        <v>-0.01725095011885912</v>
+        <v>-0.02414746213776784</v>
       </c>
       <c r="S14">
-        <v>0.09123552862364695</v>
+        <v>0.1319740133024927</v>
       </c>
       <c r="T14">
-        <v>0.01147151898734177</v>
+        <v>0.02553038475368572</v>
       </c>
       <c r="U14">
-        <v>0.5458860759493671</v>
+        <v>0.5411722402013665</v>
       </c>
       <c r="V14">
-        <v>1.763743084006485</v>
+        <v>3.574430035040073</v>
       </c>
       <c r="W14">
-        <v>0.3438576736645185</v>
+        <v>0.6938010120691439</v>
       </c>
       <c r="X14">
-        <v>0.03745410940604678</v>
+        <v>0.04322818048877572</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>0.0993644064961865</v>
+        <v>0.1244262118412585</v>
       </c>
       <c r="C15">
-        <v>0.000375992097991551</v>
+        <v>0.0004654768389356079</v>
       </c>
       <c r="D15">
-        <v>0.0993644064961865</v>
+        <v>0.1244262118412585</v>
       </c>
       <c r="E15">
-        <v>0.09700728717587305</v>
+        <v>0.1463509837141032</v>
       </c>
       <c r="F15">
-        <v>0.7161978806479881</v>
+        <v>0.6701189386375977</v>
       </c>
       <c r="G15">
-        <v>0.8774275300584894</v>
+        <v>0.843767354406785</v>
       </c>
       <c r="H15">
-        <v>-0.2287772298323999</v>
+        <v>-0.3110545339144519</v>
       </c>
       <c r="I15">
-        <v>0.2287772298323999</v>
+        <v>0.3110545339144519</v>
       </c>
       <c r="J15">
-        <v>-0.008006603209596076</v>
+        <v>-0.01065586669588032</v>
       </c>
       <c r="K15">
-        <v>368</v>
+        <v>514</v>
       </c>
       <c r="L15">
-        <v>0.4343282177556742</v>
+        <v>0.4000141398854482</v>
       </c>
       <c r="M15">
-        <v>1.20598178062843</v>
+        <v>1.169462058196164</v>
       </c>
       <c r="N15">
-        <v>-1.212063131373236</v>
+        <v>-0.9883157428865431</v>
       </c>
       <c r="O15">
-        <v>16.39090429758859</v>
+        <v>13.17092336989352</v>
       </c>
       <c r="P15">
-        <v>1.1122577383603</v>
+        <v>1.023894212585498</v>
       </c>
       <c r="Q15">
-        <v>-0.008360353933010349</v>
+        <v>-0.01303133404527492</v>
       </c>
       <c r="R15">
-        <v>-0.01391564542812658</v>
+        <v>-0.02127225278772761</v>
       </c>
       <c r="S15">
-        <v>0.07886709939358967</v>
+        <v>0.1157696055203105</v>
       </c>
       <c r="T15">
-        <v>0.005537974683544304</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="U15">
-        <v>0.5510284810126582</v>
+        <v>0.5418914059690759</v>
       </c>
       <c r="V15">
-        <v>1.586561472231359</v>
+        <v>2.648039517237004</v>
       </c>
       <c r="W15">
-        <v>0.2888242121362612</v>
+        <v>0.6132825846402619</v>
       </c>
       <c r="X15">
-        <v>0.03491772706184999</v>
+        <v>0.0287680314782391</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B16">
-        <v>0.09514185082161797</v>
+        <v>0.1248771738344792</v>
       </c>
       <c r="C16">
-        <v>0.0003607154350595554</v>
+        <v>0.0004670687683876462</v>
       </c>
       <c r="D16">
-        <v>0.09514185082161797</v>
+        <v>0.1248771738344792</v>
       </c>
       <c r="E16">
-        <v>0.0920460932211697</v>
+        <v>0.1480457593767225</v>
       </c>
       <c r="F16">
-        <v>0.7079741246986621</v>
+        <v>0.6668758659432363</v>
       </c>
       <c r="G16">
-        <v>0.8262519091835856</v>
+        <v>0.8347813402275543</v>
       </c>
       <c r="H16">
-        <v>-0.2312554780371907</v>
+        <v>-0.3166316857138505</v>
       </c>
       <c r="I16">
-        <v>0.2312554780371907</v>
+        <v>0.3166316857138505</v>
       </c>
       <c r="J16">
-        <v>-0.007364821063688898</v>
+        <v>-0.01066185142496104</v>
       </c>
       <c r="K16">
-        <v>368</v>
+        <v>514</v>
       </c>
       <c r="L16">
-        <v>0.4114144738500732</v>
+        <v>0.3943925370353945</v>
       </c>
       <c r="M16">
-        <v>1.212746202079747</v>
+        <v>1.168898286465323</v>
       </c>
       <c r="N16">
-        <v>-1.889554167038595</v>
+        <v>-1.021763292697875</v>
       </c>
       <c r="O16">
-        <v>25.5464712957363</v>
+        <v>13.70804412265812</v>
       </c>
       <c r="P16">
-        <v>1.079903670383461</v>
+        <v>1.026176005685778</v>
       </c>
       <c r="Q16">
-        <v>-0.007801875764496115</v>
+        <v>-0.01312606179804395</v>
       </c>
       <c r="R16">
-        <v>-0.01321199810246986</v>
+        <v>-0.02156454799543882</v>
       </c>
       <c r="S16">
-        <v>0.07855611610159127</v>
+        <v>0.1177980154294942</v>
       </c>
       <c r="T16">
-        <v>0.005537974683544304</v>
+        <v>0.01905789284430061</v>
       </c>
       <c r="U16">
-        <v>0.5534018987341772</v>
+        <v>0.544408486156059</v>
       </c>
       <c r="V16">
-        <v>1.488609680325673</v>
+        <v>2.664218199247594</v>
       </c>
       <c r="W16">
-        <v>0.2675143441135742</v>
+        <v>0.6356987555014473</v>
       </c>
       <c r="X16">
-        <v>0.03315735571663572</v>
+        <v>0.02689045061011888</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B17">
-        <v>0.110448516176906</v>
+        <v>0.1285608355326824</v>
       </c>
       <c r="C17">
-        <v>0.0004158165957719451</v>
+        <v>0.0004800486155887018</v>
       </c>
       <c r="D17">
-        <v>0.110448516176906</v>
+        <v>0.1285608355326824</v>
       </c>
       <c r="E17">
-        <v>0.1156993715732655</v>
+        <v>0.1400946547290255</v>
       </c>
       <c r="F17">
-        <v>0.7042596636944713</v>
+        <v>0.7197030177914795</v>
       </c>
       <c r="G17">
-        <v>0.9380432581288423</v>
+        <v>0.930288365626021</v>
       </c>
       <c r="H17">
-        <v>-0.2176124092194115</v>
+        <v>-0.282007197518133</v>
       </c>
       <c r="I17">
-        <v>0.2176124092194115</v>
+        <v>0.282007197518133</v>
       </c>
       <c r="J17">
-        <v>-0.01078219385357228</v>
+        <v>-0.01103783570593675</v>
       </c>
       <c r="K17">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="L17">
-        <v>0.5075469573315755</v>
+        <v>0.4558778522821779</v>
       </c>
       <c r="M17">
-        <v>1.189106021937437</v>
+        <v>1.179714172588788</v>
       </c>
       <c r="N17">
-        <v>-0.2069442080724593</v>
+        <v>-0.7732666455644036</v>
       </c>
       <c r="O17">
-        <v>10.66874285228188</v>
+        <v>10.37709312412414</v>
       </c>
       <c r="P17">
-        <v>1.084997780276828</v>
+        <v>1.057931454364823</v>
       </c>
       <c r="Q17">
-        <v>-0.01055322361538812</v>
+        <v>-0.01249320544733292</v>
       </c>
       <c r="R17">
-        <v>-0.01651112193706327</v>
+        <v>-0.02012781332249874</v>
       </c>
       <c r="S17">
-        <v>0.08651883891231295</v>
+        <v>0.1079510903602301</v>
       </c>
       <c r="T17">
-        <v>0.009098101265822785</v>
+        <v>0.01725997842502697</v>
       </c>
       <c r="U17">
-        <v>0.5443037974683544</v>
+        <v>0.5436893203883495</v>
       </c>
       <c r="V17">
-        <v>1.860412555854599</v>
+        <v>2.798836616732145</v>
       </c>
       <c r="W17">
-        <v>0.3465757349122603</v>
+        <v>0.512949795162446</v>
       </c>
       <c r="X17">
-        <v>0.04001357054511259</v>
+        <v>0.04286020593927918</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B18">
-        <v>0.1072611247365278</v>
+        <v>0.1372371223172268</v>
       </c>
       <c r="C18">
-        <v>0.0004044052058869152</v>
+        <v>0.0005104546180980662</v>
       </c>
       <c r="D18">
-        <v>0.1072611247365278</v>
+        <v>0.1372371223172268</v>
       </c>
       <c r="E18">
-        <v>0.1133904745252487</v>
+        <v>0.1412343819757843</v>
       </c>
       <c r="F18">
-        <v>0.6909275577853032</v>
+        <v>0.7692584368452225</v>
       </c>
       <c r="G18">
-        <v>0.9211520083683354</v>
+        <v>1.000599948898511</v>
       </c>
       <c r="H18">
-        <v>-0.2175910009353151</v>
+        <v>-0.2733887408370379</v>
       </c>
       <c r="I18">
-        <v>0.2175910009353151</v>
+        <v>0.2733887408370379</v>
       </c>
       <c r="J18">
-        <v>-0.01141003431868163</v>
+        <v>-0.0109597385361082</v>
       </c>
       <c r="K18">
-        <v>370</v>
+        <v>514</v>
       </c>
       <c r="L18">
-        <v>0.4929483493134632</v>
+        <v>0.501985275242302</v>
       </c>
       <c r="M18">
-        <v>1.186236989850532</v>
+        <v>1.190339600836695</v>
       </c>
       <c r="N18">
-        <v>-0.2997482955730706</v>
+        <v>-0.7001030110832231</v>
       </c>
       <c r="O18">
-        <v>9.273699730021741</v>
+        <v>10.56341595619961</v>
       </c>
       <c r="P18">
-        <v>1.090889100944612</v>
+        <v>1.062932401579881</v>
       </c>
       <c r="Q18">
-        <v>-0.01029795261579715</v>
+        <v>-0.01279352219867693</v>
       </c>
       <c r="R18">
-        <v>-0.01618801417427462</v>
+        <v>-0.02018246002728004</v>
       </c>
       <c r="S18">
-        <v>0.08471250384177011</v>
+        <v>0.1081488633916487</v>
       </c>
       <c r="T18">
-        <v>0.007911392405063292</v>
+        <v>0.01618122977346278</v>
       </c>
       <c r="U18">
-        <v>0.5482594936708861</v>
+        <v>0.544408486156059</v>
       </c>
       <c r="V18">
-        <v>1.779107122409814</v>
+        <v>3.133862095341311</v>
       </c>
       <c r="W18">
-        <v>0.2877350288899638</v>
+        <v>0.5228966158213314</v>
       </c>
       <c r="X18">
-        <v>0.04391624127308063</v>
+        <v>0.04955535090120891</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B19">
-        <v>0.09715803032607861</v>
+        <v>0.1371543661780021</v>
       </c>
       <c r="C19">
-        <v>0.0003680170180535569</v>
+        <v>0.0005101656924981768</v>
       </c>
       <c r="D19">
-        <v>0.09715803032607861</v>
+        <v>0.1371543661780021</v>
       </c>
       <c r="E19">
-        <v>0.09232856328043354</v>
+        <v>0.1444183692627476</v>
       </c>
       <c r="F19">
-        <v>0.7259806356751584</v>
+        <v>0.755040252521645</v>
       </c>
       <c r="G19">
-        <v>0.8490286795776836</v>
+        <v>0.9432124101132029</v>
       </c>
       <c r="H19">
-        <v>-0.2338407480322928</v>
+        <v>-0.2950270925171943</v>
       </c>
       <c r="I19">
-        <v>0.2338407480322928</v>
+        <v>0.2950270925171943</v>
       </c>
       <c r="J19">
-        <v>-0.006793810814054498</v>
+        <v>-0.009873977203728205</v>
       </c>
       <c r="K19">
-        <v>366</v>
+        <v>523</v>
       </c>
       <c r="L19">
-        <v>0.4154880239805824</v>
+        <v>0.4648873600312105</v>
       </c>
       <c r="M19">
-        <v>1.215974817512202</v>
+        <v>1.19228229136634</v>
       </c>
       <c r="N19">
-        <v>-1.676589636270173</v>
+        <v>-0.8412746475602891</v>
       </c>
       <c r="O19">
-        <v>21.96552011751891</v>
+        <v>15.34083153411718</v>
       </c>
       <c r="P19">
-        <v>1.078533064583547</v>
+        <v>1.044406432530662</v>
       </c>
       <c r="Q19">
-        <v>-0.007970418195293053</v>
+        <v>-0.01261827439197679</v>
       </c>
       <c r="R19">
-        <v>-0.01335353431929281</v>
+        <v>-0.02098641183891451</v>
       </c>
       <c r="S19">
-        <v>0.07863365951098322</v>
+        <v>0.1151470376973084</v>
       </c>
       <c r="T19">
-        <v>0.005142405063291139</v>
+        <v>0.01690039554117224</v>
       </c>
       <c r="U19">
-        <v>0.5581487341772152</v>
+        <v>0.5476447321107515</v>
       </c>
       <c r="V19">
-        <v>1.534954965661977</v>
+        <v>3.130543555384925</v>
       </c>
       <c r="W19">
-        <v>0.3233862008851338</v>
+        <v>0.6814281046021097</v>
       </c>
       <c r="X19">
-        <v>0.02833461664566694</v>
+        <v>0.03203630356754884</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B20">
-        <v>0.103805387788847</v>
+        <v>0.1314775613036392</v>
       </c>
       <c r="C20">
-        <v>0.0003919960688754109</v>
+        <v>0.000490296167661386</v>
       </c>
       <c r="D20">
-        <v>0.103805387788847</v>
+        <v>0.1314775613036392</v>
       </c>
       <c r="E20">
-        <v>0.1037880779482799</v>
+        <v>0.1415107516325743</v>
       </c>
       <c r="F20">
-        <v>0.7147554303800847</v>
+        <v>0.73218094817542</v>
       </c>
       <c r="G20">
-        <v>0.9099959325158056</v>
+        <v>0.9343014816777371</v>
       </c>
       <c r="H20">
-        <v>-0.2272047671722052</v>
+        <v>-0.2859413389514166</v>
       </c>
       <c r="I20">
-        <v>0.2272047671722052</v>
+        <v>0.2859413389514166</v>
       </c>
       <c r="J20">
-        <v>-0.008860174086366969</v>
+        <v>-0.01038215311465024</v>
       </c>
       <c r="K20">
-        <v>368</v>
+        <v>523</v>
       </c>
       <c r="L20">
-        <v>0.4568803246552032</v>
+        <v>0.459806062970063</v>
       </c>
       <c r="M20">
-        <v>1.199047646407321</v>
+        <v>1.184856922066633</v>
       </c>
       <c r="N20">
-        <v>-0.7127236816756642</v>
+        <v>-0.7875625902702652</v>
       </c>
       <c r="O20">
-        <v>12.43371641543251</v>
+        <v>12.84444084328138</v>
       </c>
       <c r="P20">
-        <v>1.105573436395091</v>
+        <v>1.056422641885695</v>
       </c>
       <c r="Q20">
-        <v>-0.009131279223936865</v>
+        <v>-0.01275923651529657</v>
       </c>
       <c r="R20">
-        <v>-0.01487047192574889</v>
+        <v>-0.02041584837054719</v>
       </c>
       <c r="S20">
-        <v>0.08119610859808371</v>
+        <v>0.1104563169798458</v>
       </c>
       <c r="T20">
-        <v>0.007120253164556962</v>
+        <v>0.01797914419273643</v>
       </c>
       <c r="U20">
-        <v>0.5474683544303798</v>
+        <v>0.5433297375044948</v>
       </c>
       <c r="V20">
-        <v>1.693312599040612</v>
+        <v>2.908600918967368</v>
       </c>
       <c r="W20">
-        <v>0.3208234167596943</v>
+        <v>0.5939400429496765</v>
       </c>
       <c r="X20">
-        <v>0.03579560474188893</v>
+        <v>0.03649276273683608</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21">
-        <v>0.1060542198285257</v>
+        <v>0.1337074222450949</v>
       </c>
       <c r="C21">
-        <v>0.0004000757440869585</v>
+        <v>0.0004981127746919167</v>
       </c>
       <c r="D21">
-        <v>0.1060542198285257</v>
+        <v>0.1337074222450949</v>
       </c>
       <c r="E21">
-        <v>0.1093734538225892</v>
+        <v>0.1412266542137574</v>
       </c>
       <c r="F21">
-        <v>0.7022723300309425</v>
+        <v>0.7472996241433314</v>
       </c>
       <c r="G21">
-        <v>0.9170499911884484</v>
+        <v>0.9601551521832759</v>
       </c>
       <c r="H21">
-        <v>-0.2233082026989555</v>
+        <v>-0.2812365194970886</v>
       </c>
       <c r="I21">
-        <v>0.2233082026989555</v>
+        <v>0.2812365194970886</v>
       </c>
       <c r="J21">
-        <v>-0.01025194192969927</v>
+        <v>-0.01046695495085391</v>
       </c>
       <c r="K21">
-        <v>368</v>
+        <v>514</v>
       </c>
       <c r="L21">
-        <v>0.4749230818515821</v>
+        <v>0.4754269555184104</v>
       </c>
       <c r="M21">
-        <v>1.191974318961534</v>
+        <v>1.187178528707687</v>
       </c>
       <c r="N21">
-        <v>-0.4590643267167738</v>
+        <v>-0.7580013477020483</v>
       </c>
       <c r="O21">
-        <v>10.72132230605629</v>
+        <v>11.984282635757</v>
       </c>
       <c r="P21">
-        <v>1.096369886249922</v>
+        <v>1.054968279045283</v>
       </c>
       <c r="Q21">
-        <v>-0.009751897753873633</v>
+        <v>-0.01280357982980846</v>
       </c>
       <c r="R21">
-        <v>-0.0156433309015975</v>
+        <v>-0.02030888154922631</v>
       </c>
       <c r="S21">
-        <v>0.08342461417393822</v>
+        <v>0.1094812510558054</v>
       </c>
       <c r="T21">
-        <v>0.007515822784810127</v>
+        <v>0.01725997842502697</v>
       </c>
       <c r="U21">
-        <v>0.5462816455696202</v>
+        <v>0.5440489032722042</v>
       </c>
       <c r="V21">
-        <v>1.748868076495548</v>
+        <v>2.994453345461412</v>
       </c>
       <c r="W21">
-        <v>0.3139732453872436</v>
+        <v>0.5672315623752617</v>
       </c>
       <c r="X21">
-        <v>0.03924210630474381</v>
+        <v>0.04143812722907175</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B22">
-        <v>0.1004944781033872</v>
+        <v>0.1346604356844781</v>
       </c>
       <c r="C22">
-        <v>0.0003800706384959884</v>
+        <v>0.0005014488206005474</v>
       </c>
       <c r="D22">
-        <v>0.1004944781033872</v>
+        <v>0.1346604356844781</v>
       </c>
       <c r="E22">
-        <v>0.09691721685892758</v>
+        <v>0.142590310535953</v>
       </c>
       <c r="F22">
-        <v>0.7273681952431543</v>
+        <v>0.7474525251851982</v>
       </c>
       <c r="G22">
-        <v>0.8876944333584601</v>
+        <v>0.9423616027922613</v>
       </c>
       <c r="H22">
-        <v>-0.2310263768623599</v>
+        <v>-0.2911991637296989</v>
       </c>
       <c r="I22">
-        <v>0.2310263768623599</v>
+        <v>0.2911991637296989</v>
       </c>
       <c r="J22">
-        <v>-0.007668171700789374</v>
+        <v>-0.01062225678798005</v>
       </c>
       <c r="K22">
-        <v>366</v>
+        <v>523</v>
       </c>
       <c r="L22">
-        <v>0.4349913610222066</v>
+        <v>0.4624341428723144</v>
       </c>
       <c r="M22">
-        <v>1.208885954359389</v>
+        <v>1.189482848774228</v>
       </c>
       <c r="N22">
-        <v>-1.166388172269498</v>
+        <v>-0.8293233211110181</v>
       </c>
       <c r="O22">
-        <v>16.27796671681423</v>
+        <v>14.32564858092225</v>
       </c>
       <c r="P22">
-        <v>1.115655027541209</v>
+        <v>1.054389221162436</v>
       </c>
       <c r="Q22">
-        <v>-0.008249507574076944</v>
+        <v>-0.0126129682308697</v>
       </c>
       <c r="R22">
-        <v>-0.01393465236564689</v>
+        <v>-0.02064744865859019</v>
       </c>
       <c r="S22">
-        <v>0.07909726718895821</v>
+        <v>0.1126485951733276</v>
       </c>
       <c r="T22">
-        <v>0.005537974683544304</v>
+        <v>0.01690039554117224</v>
       </c>
       <c r="U22">
-        <v>0.5537974683544303</v>
+        <v>0.5458468176914779</v>
       </c>
       <c r="V22">
-        <v>1.613358121467788</v>
+        <v>3.031665816121364</v>
       </c>
       <c r="W22">
-        <v>0.3265008062328054</v>
+        <v>0.6398155178704268</v>
       </c>
       <c r="X22">
-        <v>0.0314276967933798</v>
+        <v>0.03427657597462616</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B23">
-        <v>0.102899866674903</v>
+        <v>0.1239986916214435</v>
       </c>
       <c r="C23">
-        <v>0.0003887380527276552</v>
+        <v>0.0004639670733823653</v>
       </c>
       <c r="D23">
-        <v>0.102899866674903</v>
+        <v>0.1239986916214435</v>
       </c>
       <c r="E23">
-        <v>0.1027224369022153</v>
+        <v>0.1512775776381259</v>
       </c>
       <c r="F23">
-        <v>0.7131191312990858</v>
+        <v>0.6507177982733873</v>
       </c>
       <c r="G23">
-        <v>0.9031752399878411</v>
+        <v>0.8048255644120855</v>
       </c>
       <c r="H23">
-        <v>-0.2277985888944293</v>
+        <v>-0.3213058010241826</v>
       </c>
       <c r="I23">
-        <v>0.2277985888944293</v>
+        <v>0.3213058010241826</v>
       </c>
       <c r="J23">
-        <v>-0.008813333509115522</v>
+        <v>-0.01034097358924456</v>
       </c>
       <c r="K23">
-        <v>368</v>
+        <v>526</v>
       </c>
       <c r="L23">
-        <v>0.451714240963059</v>
+        <v>0.3859211107492919</v>
       </c>
       <c r="M23">
-        <v>1.199547579087729</v>
+        <v>1.166706374452757</v>
       </c>
       <c r="N23">
-        <v>-0.788517259313265</v>
+        <v>-1.061435370975984</v>
       </c>
       <c r="O23">
-        <v>12.78901930891674</v>
+        <v>15.44190778971671</v>
       </c>
       <c r="P23">
-        <v>1.106593894523655</v>
+        <v>1.023374348304265</v>
       </c>
       <c r="Q23">
-        <v>-0.009062078083513206</v>
+        <v>-0.01326122728335213</v>
       </c>
       <c r="R23">
-        <v>-0.01472390817419481</v>
+        <v>-0.02210960416066114</v>
       </c>
       <c r="S23">
-        <v>0.08078395513887604</v>
+        <v>0.1218246629217793</v>
       </c>
       <c r="T23">
-        <v>0.006724683544303798</v>
+        <v>0.01869830996044588</v>
       </c>
       <c r="U23">
-        <v>0.5474683544303798</v>
+        <v>0.5436893203883495</v>
       </c>
       <c r="V23">
-        <v>1.671229449881235</v>
+        <v>2.632761842091741</v>
       </c>
       <c r="W23">
-        <v>0.3123283896428741</v>
+        <v>0.7118387013049486</v>
       </c>
       <c r="X23">
-        <v>0.03588230295512879</v>
+        <v>0.01799705776462102</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B24">
-        <v>0.102899866674903</v>
+        <v>0.1327591685788678</v>
       </c>
       <c r="C24">
-        <v>0.0003887380527276552</v>
+        <v>0.0004947906170102989</v>
       </c>
       <c r="D24">
-        <v>0.102899866674903</v>
+        <v>0.1327591685788678</v>
       </c>
       <c r="E24">
-        <v>0.1027224369022153</v>
+        <v>0.1443559387215393</v>
       </c>
       <c r="F24">
-        <v>0.713119131299086</v>
+        <v>0.7284893651053175</v>
       </c>
       <c r="G24">
-        <v>0.9031752399878414</v>
+        <v>0.9207285253060318</v>
       </c>
       <c r="H24">
-        <v>-0.2277985888944293</v>
+        <v>-0.299543087468303</v>
       </c>
       <c r="I24">
-        <v>0.2277985888944293</v>
+        <v>0.299543087468303</v>
       </c>
       <c r="J24">
-        <v>-0.008813333509115518</v>
+        <v>-0.01085131362693392</v>
       </c>
       <c r="K24">
-        <v>368</v>
+        <v>514</v>
       </c>
       <c r="L24">
-        <v>0.451714240963059</v>
+        <v>0.443205582545503</v>
       </c>
       <c r="M24">
-        <v>1.199547579087729</v>
+        <v>1.182840729956648</v>
       </c>
       <c r="N24">
-        <v>-0.7885172593132656</v>
+        <v>-0.9121365701144887</v>
       </c>
       <c r="O24">
-        <v>12.78901930891674</v>
+        <v>13.17461937187506</v>
       </c>
       <c r="P24">
-        <v>1.106593894523655</v>
+        <v>1.036290862503876</v>
       </c>
       <c r="Q24">
-        <v>-0.009062078083513206</v>
+        <v>-0.01292479715835826</v>
       </c>
       <c r="R24">
-        <v>-0.01472390817419481</v>
+        <v>-0.02089977999324709</v>
       </c>
       <c r="S24">
-        <v>0.08078395513887604</v>
+        <v>0.1137616826007125</v>
       </c>
       <c r="T24">
-        <v>0.006724683544303798</v>
+        <v>0.01725997842502697</v>
       </c>
       <c r="U24">
-        <v>0.5474683544303798</v>
+        <v>0.544408486156059</v>
       </c>
       <c r="V24">
-        <v>1.671229449881235</v>
+        <v>2.957737007105099</v>
       </c>
       <c r="W24">
-        <v>0.3123283896428741</v>
+        <v>0.6081036478080861</v>
       </c>
       <c r="X24">
-        <v>0.03588230295512882</v>
+        <v>0.03644248203396787</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B25">
-        <v>0.102899866674903</v>
+        <v>0.1284977030692849</v>
       </c>
       <c r="C25">
-        <v>0.0003887380527276552</v>
+        <v>0.0004798265160013138</v>
       </c>
       <c r="D25">
-        <v>0.102899866674903</v>
+        <v>0.1284977030692849</v>
       </c>
       <c r="E25">
-        <v>0.1027224369022153</v>
+        <v>0.1470960372049205</v>
       </c>
       <c r="F25">
-        <v>0.713119131299086</v>
+        <v>0.6920675167938465</v>
       </c>
       <c r="G25">
-        <v>0.9031752399878414</v>
+        <v>0.8639476473520784</v>
       </c>
       <c r="H25">
-        <v>-0.2277985888944293</v>
+        <v>-0.3104286466479078</v>
       </c>
       <c r="I25">
-        <v>0.2277985888944293</v>
+        <v>0.3104286466479078</v>
       </c>
       <c r="J25">
-        <v>-0.008813333509115518</v>
+        <v>-0.01049019367088241</v>
       </c>
       <c r="K25">
-        <v>368</v>
+        <v>523</v>
       </c>
       <c r="L25">
-        <v>0.451714240963059</v>
+        <v>0.413936356895015</v>
       </c>
       <c r="M25">
-        <v>1.199547579087729</v>
+        <v>1.175504923248579</v>
       </c>
       <c r="N25">
-        <v>-0.7885172593132656</v>
+        <v>-1.000865856130285</v>
       </c>
       <c r="O25">
-        <v>12.78901930891674</v>
+        <v>14.51492170241182</v>
       </c>
       <c r="P25">
-        <v>1.106593894523655</v>
+        <v>1.029430430461842</v>
       </c>
       <c r="Q25">
-        <v>-0.009062078083513206</v>
+        <v>-0.0129679136992103</v>
       </c>
       <c r="R25">
-        <v>-0.01472390817419481</v>
+        <v>-0.02141290470509881</v>
       </c>
       <c r="S25">
-        <v>0.08078395513887604</v>
+        <v>0.1173631469303475</v>
       </c>
       <c r="T25">
-        <v>0.006724683544303798</v>
+        <v>0.01905789284430061</v>
       </c>
       <c r="U25">
-        <v>0.5474683544303798</v>
+        <v>0.5458468176914779</v>
       </c>
       <c r="V25">
-        <v>1.671229449881236</v>
+        <v>2.796492080653264</v>
       </c>
       <c r="W25">
-        <v>0.3123283896428741</v>
+        <v>0.6599711745565173</v>
       </c>
       <c r="X25">
-        <v>0.03588230295512882</v>
+        <v>0.02721976989929449</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3874,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3230,7 +3882,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3238,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2498378484047596</v>
+        <v>0.05134433196607675</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3246,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2677358681570708</v>
+        <v>0.1740510497714794</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3254,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1410461881292723</v>
+        <v>0.1466006696237192</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3262,7 +3914,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3413800953088972</v>
+        <v>0.1126711510820828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.09481038361699345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.08930675110440377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.141293717212103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.06813960428854791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1217823413345937</v>
       </c>
     </row>
   </sheetData>
@@ -3272,7 +3964,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3280,7 +3972,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3288,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2498378484047597</v>
+        <v>0.05454335329842248</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3296,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2677358681570708</v>
+        <v>0.2621658704078352</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3304,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1410461881292723</v>
+        <v>0.0820183371450606</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3312,7 +4004,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3413800953088972</v>
+        <v>0.09970129832999923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08281448445954807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1365362603114821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1199628201483406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.05931053133848589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1029470445608258</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +4054,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3330,7 +4062,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3338,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2498378484047597</v>
+        <v>0.05294384263224962</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3346,7 +4078,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2677358681570708</v>
+        <v>0.2181084600896573</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3354,7 +4086,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1410461881292723</v>
+        <v>0.1143095033843899</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3362,7 +4094,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3413800953088972</v>
+        <v>0.106186224706041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08881243403827077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1129215057079429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1306282686802218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.0637250678135169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1123646929477098</v>
       </c>
     </row>
   </sheetData>
@@ -3372,7 +4144,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3388,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2291543919250263</v>
+        <v>0.05401547251256092</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3396,7 +4168,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2348847593225241</v>
+        <v>0.1429464404802773</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3404,7 +4176,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1262501599855934</v>
+        <v>0.1827955144356051</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3412,7 +4184,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4097106887668562</v>
+        <v>0.1040583695273337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.09681320235488777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.07658184796578194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1196577978979427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.09502920505114133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1281021497744692</v>
       </c>
     </row>
   </sheetData>
@@ -3422,7 +4234,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3438,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2114563827087149</v>
+        <v>0.05647419421024114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3446,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1911748451924027</v>
+        <v>0.1291434754299796</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3454,7 +4266,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1102693520730679</v>
+        <v>0.1825128647689921</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3462,7 +4274,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4870994200258145</v>
+        <v>0.1065388797338882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.0979352266344259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.07489026107836784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1254707497609723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.09503125416154258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1320030942215903</v>
       </c>
     </row>
   </sheetData>
@@ -3472,7 +4324,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3488,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2844371357839249</v>
+        <v>0.04352903783665497</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3496,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3770337251633407</v>
+        <v>0.2368153366115071</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3504,7 +4356,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1489384921337034</v>
+        <v>0.1276582478742686</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3512,7 +4364,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1895906469190311</v>
+        <v>0.08396063373966209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.09133497043925765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.09354844618680463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1125445566814657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.1004594778724132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1101492927579661</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +4414,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3538,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2103656374710621</v>
+        <v>0.04762859664555984</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3546,7 +4438,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3584885551249766</v>
+        <v>0.2462976459707344</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3554,7 +4446,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.17152997305798</v>
+        <v>0.1613643514409236</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3562,7 +4454,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2596158343459813</v>
+        <v>0.08331128043615803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08535113846232402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1178986851436287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1112734603537571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.04280661716477285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1040682243821414</v>
       </c>
     </row>
   </sheetData>
@@ -3572,7 +4504,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3588,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2841874317463567</v>
+        <v>0.04103054378965548</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3596,7 +4528,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1937983276135103</v>
+        <v>0.1655552443527347</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3604,7 +4536,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.08259591629127343</v>
+        <v>0.1067786787175522</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3612,7 +4544,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4394183243488595</v>
+        <v>0.1487851719232426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.08441775137894751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.07496008683505549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.2257310691719971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.02458534412709914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1281561097037158</v>
       </c>
     </row>
   </sheetData>
@@ -3622,7 +4594,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3638,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2598236808223287</v>
+        <v>0.03774090648115671</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3646,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2775687809788256</v>
+        <v>0.2002838481648035</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3654,7 +4626,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1395590498447738</v>
+        <v>0.1352441652878418</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3662,7 +4634,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.323048488354072</v>
+        <v>0.1251579486606497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.09343522073112968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1059198027973654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1462244868862404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.03762491813939855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1183687028514142</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +4684,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3688,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2446063402985509</v>
+        <v>0.04167085230800071</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3696,7 +4708,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3151363021622614</v>
+        <v>0.218942115630575</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3704,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1593409058367509</v>
+        <v>0.1426011270988464</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3712,7 +4724,47 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2809164517024368</v>
+        <v>0.1027424352463106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.09060753784363665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1133317618069214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1359945414255136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.04048871888198918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1136209097582064</v>
       </c>
     </row>
   </sheetData>

--- a/optimization/hrp_portfolio_weights_all_rm.xlsx
+++ b/optimization/hrp_portfolio_weights_all_rm.xlsx
@@ -40,114 +40,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="57">
   <si>
     <t>weights</t>
   </si>
   <si>
-    <t>BTC-USD</t>
-  </si>
-  <si>
-    <t>GLD</t>
-  </si>
-  <si>
-    <t>IEMG</t>
-  </si>
-  <si>
-    <t>IJH</t>
-  </si>
-  <si>
-    <t>IWM</t>
-  </si>
-  <si>
-    <t>SLV</t>
+    <t>CEW</t>
+  </si>
+  <si>
+    <t>DBC</t>
+  </si>
+  <si>
+    <t>DBMF</t>
+  </si>
+  <si>
+    <t>HYG</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>REMX</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>Risk Measure</t>
+  </si>
+  <si>
+    <t>Annualized Return</t>
+  </si>
+  <si>
+    <t>Geometric Mean (daily)</t>
+  </si>
+  <si>
+    <t>Geometric Mean (annualized)</t>
+  </si>
+  <si>
+    <t>Annualized Volatility</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>Sortino Ratio</t>
+  </si>
+  <si>
+    <t>Max Drawdown</t>
+  </si>
+  <si>
+    <t>Max Drawdown (abs)</t>
+  </si>
+  <si>
+    <t>Average Drawdown</t>
+  </si>
+  <si>
+    <t>Max Drawdown Duration</t>
+  </si>
+  <si>
+    <t>Calmar Ratio</t>
+  </si>
+  <si>
+    <t>Omega Ratio</t>
+  </si>
+  <si>
+    <t>Skew</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Tail Ratio</t>
+  </si>
+  <si>
+    <t>VaR 5%</t>
+  </si>
+  <si>
+    <t>CVaR 5%</t>
+  </si>
+  <si>
+    <t>Downside Deviation</t>
+  </si>
+  <si>
+    <t>% Returns &lt; -2%</t>
+  </si>
+  <si>
+    <t>Win Rate</t>
+  </si>
+  <si>
+    <t>Total Return</t>
+  </si>
+  <si>
+    <t>Beta vs SPY</t>
+  </si>
+  <si>
+    <t>Jensen's Alpha</t>
   </si>
   <si>
     <t>SPY</t>
-  </si>
-  <si>
-    <t>USO</t>
-  </si>
-  <si>
-    <t>VEA</t>
-  </si>
-  <si>
-    <t>YPF</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>Risk Measure</t>
-  </si>
-  <si>
-    <t>Annualized Return</t>
-  </si>
-  <si>
-    <t>Geometric Mean (daily)</t>
-  </si>
-  <si>
-    <t>Geometric Mean (annualized)</t>
-  </si>
-  <si>
-    <t>Annualized Volatility</t>
-  </si>
-  <si>
-    <t>Sharpe Ratio</t>
-  </si>
-  <si>
-    <t>Sortino Ratio</t>
-  </si>
-  <si>
-    <t>Max Drawdown</t>
-  </si>
-  <si>
-    <t>Max Drawdown (abs)</t>
-  </si>
-  <si>
-    <t>Average Drawdown</t>
-  </si>
-  <si>
-    <t>Max Drawdown Duration</t>
-  </si>
-  <si>
-    <t>Calmar Ratio</t>
-  </si>
-  <si>
-    <t>Omega Ratio</t>
-  </si>
-  <si>
-    <t>Skew</t>
-  </si>
-  <si>
-    <t>Kurtosis</t>
-  </si>
-  <si>
-    <t>Tail Ratio</t>
-  </si>
-  <si>
-    <t>VaR 5%</t>
-  </si>
-  <si>
-    <t>CVaR 5%</t>
-  </si>
-  <si>
-    <t>Downside Deviation</t>
-  </si>
-  <si>
-    <t>% Returns &lt; -2%</t>
-  </si>
-  <si>
-    <t>Win Rate</t>
-  </si>
-  <si>
-    <t>Total Return</t>
-  </si>
-  <si>
-    <t>Beta vs SPY</t>
-  </si>
-  <si>
-    <t>Jensen's Alpha</t>
   </si>
   <si>
     <t>HRP_MSV</t>
@@ -577,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.05470557030090891</v>
+        <v>0.2696486411737599</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -601,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1269760358317348</v>
+        <v>0.09069900143556288</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -609,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1012993177267413</v>
+        <v>0.1397746706103266</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -617,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.04689514374143323</v>
+        <v>0.1735485039379813</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -625,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04364452779580527</v>
+        <v>0.07447123991551746</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -633,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06916151978054731</v>
+        <v>0.04219402496105469</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -641,39 +632,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1074418109946643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.0849039757105505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1152371368831989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.04509735834089747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.2046376028935181</v>
+        <v>0.2096639179657972</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +642,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.03963897847326035</v>
+        <v>0.2101062484568756</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -707,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1538595477577059</v>
+        <v>0.09467765519514214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -715,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.06696206467693004</v>
+        <v>0.1842641218642355</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -723,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.06825467927896678</v>
+        <v>0.3564957937746458</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -731,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04186200031174236</v>
+        <v>0.05685336204023684</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -739,7 +698,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.07098555656355778</v>
+        <v>0.03884701762333054</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -747,39 +706,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1568708365805949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.04366547955624497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1145590241138048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.0200516064058745</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.2232902262813176</v>
+        <v>0.05875580104553358</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +716,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -805,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01936171656581619</v>
+        <v>0.2006965882320257</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -813,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1125790318539084</v>
+        <v>0.07247349331175251</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -821,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1260614955045059</v>
+        <v>0.1116876536157539</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -829,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1208885869325926</v>
+        <v>0.1518997965081242</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -837,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1125089907318815</v>
+        <v>0.05542814422276957</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -845,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06131973555039102</v>
+        <v>0.0369306773611446</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -853,39 +780,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1394929853028761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.03098764083951586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1434063539533459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.02408830850482004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1093051542603464</v>
+        <v>0.3708836467484296</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +790,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -911,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.03395710902074089</v>
+        <v>0.09036133466747515</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -919,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.08728819766570783</v>
+        <v>0.08551688934725094</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -927,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1334174282092543</v>
+        <v>0.08908736863879409</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -935,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1333725695979617</v>
+        <v>0.08983800191777076</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -943,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1312741747641582</v>
+        <v>0.08182132008298953</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -951,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.07979175839359606</v>
+        <v>0.07195661660950421</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -959,39 +854,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1368289476541178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.04059648496678776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1362488931950767</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.03618444320699754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.05103999332560112</v>
+        <v>0.4914184687362154</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +864,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1017,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01891670623220856</v>
+        <v>0.1967952187363222</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1025,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1114856394350924</v>
+        <v>0.07064825172111963</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1033,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.126883842108007</v>
+        <v>0.1076443682145262</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1041,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1193560766441605</v>
+        <v>0.144093678268203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1049,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1113872325512725</v>
+        <v>0.05441275864687565</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1057,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.05992334221842752</v>
+        <v>0.03895587553206588</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1065,39 +928,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1315086477188163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.03083885675270192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1421084152968461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.02522600089771232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.122365240144755</v>
+        <v>0.3874498488808874</v>
       </c>
     </row>
   </sheetData>
@@ -1107,7 +938,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0176544480416529</v>
+        <v>0.1965423322464847</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1131,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.09821009466246317</v>
+        <v>0.07632954730171196</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1139,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1195433084277906</v>
+        <v>0.1088737262558272</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1147,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1178569282409537</v>
+        <v>0.17868706096999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1155,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1075474191170731</v>
+        <v>0.05905804795178869</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1163,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.05664742918748207</v>
+        <v>0.03667457194311489</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1171,39 +1002,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1350032354453595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.02935261675545162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1415389868508864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.02227606731351964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1543694659573674</v>
+        <v>0.3438347133310825</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1229,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02185088356782566</v>
+        <v>0.2385224031861222</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1237,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1670327087233955</v>
+        <v>0.06898049280243691</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1245,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1250505182103584</v>
+        <v>0.1327276734891802</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1253,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1098173063992628</v>
+        <v>0.09970083087968939</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1261,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1194627436279431</v>
+        <v>0.04401476899219527</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1269,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06598242574584802</v>
+        <v>0.03427750840198317</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1277,39 +1076,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1448408888139699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.03208323895823091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1417583232385013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.02385085036249364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.04827011235217076</v>
+        <v>0.381776322248393</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1335,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01647872052975584</v>
+        <v>0.2346597914223755</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1343,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1508681713472937</v>
+        <v>0.088972341816588</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1351,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.128517247540736</v>
+        <v>0.167343066886031</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1359,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1169573761060532</v>
+        <v>0.153756494236976</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1367,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1122987777003694</v>
+        <v>0.0624370541693343</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1375,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.07218755800303371</v>
+        <v>0.03327666346797166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1383,39 +1150,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1555013186431261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.01333169175937758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1393376551522324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.01250859067345893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.08201289254456319</v>
+        <v>0.2595545880007235</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01351311699790417</v>
+        <v>0.2545186409254479</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1449,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.07082462069312048</v>
+        <v>0.07299710696667766</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1457,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.07089817931879797</v>
+        <v>0.1545728230214408</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1465,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1792659463575292</v>
+        <v>0.3333752887251484</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1473,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1007238199245617</v>
+        <v>0.07678864451841952</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1481,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.03018511312335166</v>
+        <v>0.02842342711134049</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1489,39 +1224,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2405606649061542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.01081088077783317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1354189440922037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.009271277801724107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1385274360068197</v>
+        <v>0.0793240687315252</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1234,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1547,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01368597647850682</v>
+        <v>0.2333404705684648</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1555,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1193171097383164</v>
+        <v>0.09776559738609852</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1563,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1035537264938502</v>
+        <v>0.1676836731083697</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1571,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1531672178522555</v>
+        <v>0.2221043609920738</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1579,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1138345092388828</v>
+        <v>0.0649937628745139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1587,7 +1290,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.05999155382886638</v>
+        <v>0.03216222622197446</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1595,39 +1298,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1742052514412331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.01287002326181834</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1401678548606707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.01232751238229334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.09687926442330634</v>
+        <v>0.1819499088485048</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1653,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01415521369765067</v>
+        <v>0.2329576652457279</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1661,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1300001575251896</v>
+        <v>0.09281497739248686</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1669,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1128378589713411</v>
+        <v>0.1691888240996945</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1677,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1349016478396217</v>
+        <v>0.1973035317619241</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1685,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.11656695307019</v>
+        <v>0.06305607301605894</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1693,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06573137628656427</v>
+        <v>0.03272768499548345</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1701,39 +1372,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1757402995953627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.01268546182489259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1430705309550162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.01226508826981102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.08204541196436008</v>
+        <v>0.2119512434886242</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1759,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1034566158807077</v>
+        <v>0.1331940184613932</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1767,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0728443723070764</v>
+        <v>0.1252493746704332</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1775,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1236534148510269</v>
+        <v>0.1304787545268917</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1783,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.06149135742742869</v>
+        <v>0.1346878252328911</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1791,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.060523893524332</v>
+        <v>0.1206059035955337</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1799,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06658839007902735</v>
+        <v>0.1078795164113501</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1807,39 +1446,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1259781172388395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.1162426123128387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1262776620669072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.0592991309575685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.08364443335424701</v>
+        <v>0.247904607101507</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1456,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1865,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01377006535486663</v>
+        <v>0.2650622382491826</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1873,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0937837282530784</v>
+        <v>0.08589772889065003</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1881,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.082771122034751</v>
+        <v>0.1671764002978806</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1889,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1721167958494849</v>
+        <v>0.2787308383437233</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1897,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1055627751477482</v>
+        <v>0.07172408962158659</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1905,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.04326861896886606</v>
+        <v>0.03037304220242499</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1913,39 +1520,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2042274746316292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.01281696809148037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.141605235902658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.01071849054516406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1193587252202732</v>
+        <v>0.101035662394552</v>
       </c>
     </row>
   </sheetData>
@@ -1955,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1971,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.05360422244301322</v>
+        <v>0.2298762347484288</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1979,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1527907366381965</v>
+        <v>0.1019925820155657</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1987,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.09043885613724656</v>
+        <v>0.1711502333280575</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1995,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.05253833561527743</v>
+        <v>0.2304221337387854</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2003,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04370313254272438</v>
+        <v>0.06986833357681779</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2011,7 +1586,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.07702189691382717</v>
+        <v>0.04783022765271006</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2019,39 +1594,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1244173969904531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.06737491627159883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1122103379403636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.03542007864936619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1904800898579329</v>
+        <v>0.1488602549396348</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +1604,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2077,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01833439564869284</v>
+        <v>0.2143456683479628</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2085,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1141389459897566</v>
+        <v>0.08123964269367731</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2093,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1129534726819392</v>
+        <v>0.1375985577627498</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2101,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1357700451819876</v>
+        <v>0.1849489882603623</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2109,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1131167395874081</v>
+        <v>0.0633734664096532</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2117,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.05950289113064269</v>
+        <v>0.03757582938470078</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2125,39 +1668,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1637909714152645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.02263738639880901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1404661193497438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.01887166299579947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1004173696199563</v>
+        <v>0.2809178471408938</v>
       </c>
     </row>
   </sheetData>
@@ -2167,7 +1678,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2183,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.03596930904585303</v>
+        <v>0.2221109515481958</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2191,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1334648413139766</v>
+        <v>0.0916161123546215</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2199,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1016961644095929</v>
+        <v>0.1543743955454037</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2207,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.09415419039863253</v>
+        <v>0.2076855609995738</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2215,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.07840993606506623</v>
+        <v>0.06662089999323551</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2223,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06826239402223494</v>
+        <v>0.04270302851870542</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2231,39 +1742,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1441041842028589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.04500615133520393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1263382286450537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.02714587082258283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1454487297389447</v>
+        <v>0.2148890510402643</v>
       </c>
     </row>
   </sheetData>
@@ -2281,144 +1760,144 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>0.1412005921935504</v>
+        <v>0.1591601335532393</v>
       </c>
       <c r="C2">
-        <v>0.0005242677742993695</v>
+        <v>0.0005862659140567494</v>
       </c>
       <c r="D2">
-        <v>0.1412005921935504</v>
+        <v>0.1591601335532393</v>
       </c>
       <c r="E2">
-        <v>0.1840459999646326</v>
+        <v>0.2014594046650387</v>
       </c>
       <c r="F2">
-        <v>0.6471771259174837</v>
+        <v>0.6854091448317732</v>
       </c>
       <c r="G2">
-        <v>0.774422328081136</v>
+        <v>0.8361625931622969</v>
       </c>
       <c r="H2">
-        <v>-0.3197807250411943</v>
+        <v>-0.3371727142379062</v>
       </c>
       <c r="I2">
-        <v>0.3197807250411943</v>
+        <v>0.3371727142379062</v>
       </c>
       <c r="J2">
-        <v>-0.00772281121401779</v>
+        <v>-0.008621965391321991</v>
       </c>
       <c r="K2">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="L2">
-        <v>0.4415544188142075</v>
+        <v>0.472043338124144</v>
       </c>
       <c r="M2">
-        <v>1.171626056571285</v>
+        <v>1.174438468257171</v>
       </c>
       <c r="N2">
-        <v>-0.4346591596038625</v>
+        <v>-0.2899087267111498</v>
       </c>
       <c r="O2">
-        <v>13.39328607933912</v>
+        <v>13.42724242345514</v>
       </c>
       <c r="P2">
-        <v>0.943907865665082</v>
+        <v>0.9578621328027165</v>
       </c>
       <c r="Q2">
-        <v>-0.01709990661301498</v>
+        <v>-0.017739321571521</v>
       </c>
       <c r="R2">
-        <v>-0.02833265689757565</v>
+        <v>-0.03062038972168269</v>
       </c>
       <c r="S2">
-        <v>0.1538054327395905</v>
+        <v>0.165137880358373</v>
       </c>
       <c r="T2">
-        <v>0.03678797468354431</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="U2">
-        <v>0.5506329113924051</v>
+        <v>0.555421686746988</v>
       </c>
       <c r="V2">
-        <v>2.76219150971586</v>
+        <v>1.645648596651414</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -2429,1704 +1908,1704 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>0.1330542470087206</v>
+        <v>0.04751769168860198</v>
       </c>
       <c r="C3">
-        <v>0.0004958247058080012</v>
+        <v>0.0001842362635102734</v>
       </c>
       <c r="D3">
-        <v>0.1330542470087206</v>
+        <v>0.04751769168860198</v>
       </c>
       <c r="E3">
-        <v>0.1382724036086717</v>
+        <v>0.07728272193483357</v>
       </c>
       <c r="F3">
-        <v>0.7563591801074172</v>
+        <v>0.2512674152188406</v>
       </c>
       <c r="G3">
-        <v>0.9032040167128672</v>
+        <v>0.3226360989709492</v>
       </c>
       <c r="H3">
-        <v>-0.3303193417457913</v>
+        <v>-0.1485132023831265</v>
       </c>
       <c r="I3">
-        <v>0.3303193417457913</v>
+        <v>0.1485132023831265</v>
       </c>
       <c r="J3">
-        <v>-0.009552046622031355</v>
+        <v>-0.00580262850078085</v>
       </c>
       <c r="K3">
-        <v>481</v>
+        <v>923</v>
       </c>
       <c r="L3">
-        <v>0.4028048927002195</v>
+        <v>0.3199560101466155</v>
       </c>
       <c r="M3">
-        <v>1.194531010412896</v>
+        <v>1.118592504181066</v>
       </c>
       <c r="N3">
-        <v>-1.399565224587982</v>
+        <v>-0.7047759720335981</v>
       </c>
       <c r="O3">
-        <v>17.16873209348277</v>
+        <v>7.097854433478972</v>
       </c>
       <c r="P3">
-        <v>1.065800919091908</v>
+        <v>0.9607884209676925</v>
       </c>
       <c r="Q3">
-        <v>-0.01198025795860068</v>
+        <v>-0.007385787007248707</v>
       </c>
       <c r="R3">
-        <v>-0.02041012807097509</v>
+        <v>-0.01147684763063363</v>
       </c>
       <c r="S3">
-        <v>0.1153313746169005</v>
+        <v>0.05994809101006521</v>
       </c>
       <c r="T3">
-        <v>0.01542721518987342</v>
+        <v>0.003614457831325301</v>
       </c>
       <c r="U3">
-        <v>0.5486550632911392</v>
+        <v>0.5512048192771084</v>
       </c>
       <c r="V3">
-        <v>2.501299602229167</v>
+        <v>0.3577162063807682</v>
       </c>
       <c r="W3">
-        <v>0.5814206172572676</v>
+        <v>0.259842999821298</v>
       </c>
       <c r="X3">
-        <v>0.03533038203980586</v>
+        <v>-0.01646104205125747</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>0.1690579168607185</v>
+        <v>0.05935153345883504</v>
       </c>
       <c r="C4">
-        <v>0.0006200263639073444</v>
+        <v>0.0002288236365877161</v>
       </c>
       <c r="D4">
-        <v>0.1690579168607185</v>
+        <v>0.05935153345883504</v>
       </c>
       <c r="E4">
-        <v>0.1752050730526946</v>
+        <v>0.1016432253633932</v>
       </c>
       <c r="F4">
-        <v>0.8090020642557324</v>
+        <v>0.3230663830424976</v>
       </c>
       <c r="G4">
-        <v>0.9840874590162347</v>
+        <v>0.4260678730505275</v>
       </c>
       <c r="H4">
-        <v>-0.3816497699736444</v>
+        <v>-0.1846142718030651</v>
       </c>
       <c r="I4">
-        <v>0.3816497699736444</v>
+        <v>0.1846142718030651</v>
       </c>
       <c r="J4">
-        <v>-0.01208229975952347</v>
+        <v>-0.008625310913809789</v>
       </c>
       <c r="K4">
-        <v>377</v>
+        <v>977</v>
       </c>
       <c r="L4">
-        <v>0.442966117528102</v>
+        <v>0.3214894107544812</v>
       </c>
       <c r="M4">
-        <v>1.194568473654284</v>
+        <v>1.113662944999201</v>
       </c>
       <c r="N4">
-        <v>-1.28664600971709</v>
+        <v>-0.5348342014960004</v>
       </c>
       <c r="O4">
-        <v>15.39900592547639</v>
+        <v>5.923662458428254</v>
       </c>
       <c r="P4">
-        <v>1.049831741909311</v>
+        <v>0.9570362025589234</v>
       </c>
       <c r="Q4">
-        <v>-0.01503405852779805</v>
+        <v>-0.009860244683488006</v>
       </c>
       <c r="R4">
-        <v>-0.02577591410062212</v>
+        <v>-0.01494924987519285</v>
       </c>
       <c r="S4">
-        <v>0.1434605010769657</v>
+        <v>0.07676462858081871</v>
       </c>
       <c r="T4">
-        <v>0.02848101265822785</v>
+        <v>0.005421686746987952</v>
       </c>
       <c r="U4">
-        <v>0.538370253164557</v>
+        <v>0.5451807228915663</v>
       </c>
       <c r="V4">
-        <v>3.791966767525265</v>
+        <v>0.4619976944623627</v>
       </c>
       <c r="W4">
-        <v>0.7317596973963638</v>
+        <v>0.353660143046545</v>
       </c>
       <c r="X4">
-        <v>0.05458110383064207</v>
+        <v>-0.01599663252053626</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>0.1318931820915821</v>
+        <v>0.04704325208832749</v>
       </c>
       <c r="C5">
-        <v>0.0004917542572888678</v>
+        <v>0.0001824382332045182</v>
       </c>
       <c r="D5">
-        <v>0.1318931820915821</v>
+        <v>0.04704325208832749</v>
       </c>
       <c r="E5">
-        <v>0.1356728459727143</v>
+        <v>0.07789853014119782</v>
       </c>
       <c r="F5">
-        <v>0.760647509457384</v>
+        <v>0.2440767596432907</v>
       </c>
       <c r="G5">
-        <v>0.9071251178816165</v>
+        <v>0.3148175924961937</v>
       </c>
       <c r="H5">
-        <v>-0.3282440078856244</v>
+        <v>-0.1474771841205591</v>
       </c>
       <c r="I5">
-        <v>0.3282440078856244</v>
+        <v>0.1474771841205591</v>
       </c>
       <c r="J5">
-        <v>-0.009355715117426772</v>
+        <v>-0.005936847496058949</v>
       </c>
       <c r="K5">
-        <v>482</v>
+        <v>925</v>
       </c>
       <c r="L5">
-        <v>0.4018144396333957</v>
+        <v>0.3189866444010129</v>
       </c>
       <c r="M5">
-        <v>1.196259976200092</v>
+        <v>1.116336339640171</v>
       </c>
       <c r="N5">
-        <v>-1.435017362802588</v>
+        <v>-0.6826150328698386</v>
       </c>
       <c r="O5">
-        <v>17.2556971226367</v>
+        <v>6.860057194651182</v>
       </c>
       <c r="P5">
-        <v>1.061495915821945</v>
+        <v>0.9642070341122078</v>
       </c>
       <c r="Q5">
-        <v>-0.01176638287067799</v>
+        <v>-0.007540105660304495</v>
       </c>
       <c r="R5">
-        <v>-0.02002192368160647</v>
+        <v>-0.01154342128462872</v>
       </c>
       <c r="S5">
-        <v>0.1133127877272323</v>
+        <v>0.06015426609655966</v>
       </c>
       <c r="T5">
-        <v>0.01424050632911392</v>
+        <v>0.003614457831325301</v>
       </c>
       <c r="U5">
-        <v>0.5466772151898734</v>
+        <v>0.5506024096385542</v>
       </c>
       <c r="V5">
-        <v>2.465473235691223</v>
+        <v>0.3536705719525817</v>
       </c>
       <c r="W5">
-        <v>0.5655486943869988</v>
+        <v>0.2583939130580007</v>
       </c>
       <c r="X5">
-        <v>0.03583650307251318</v>
+        <v>-0.01666635804522792</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>0.127666698226325</v>
+        <v>0.04902330050632409</v>
       </c>
       <c r="C6">
-        <v>0.0004769018923478363</v>
+        <v>0.0001899368503239796</v>
       </c>
       <c r="D6">
-        <v>0.127666698226325</v>
+        <v>0.04902330050632409</v>
       </c>
       <c r="E6">
-        <v>0.127812334634338</v>
+        <v>0.07807314824698094</v>
       </c>
       <c r="F6">
-        <v>0.76999204637114</v>
+        <v>0.2679154606721497</v>
       </c>
       <c r="G6">
-        <v>0.9072833249226625</v>
+        <v>0.3409700568542536</v>
       </c>
       <c r="H6">
-        <v>-0.3194949819541474</v>
+        <v>-0.1534266690294709</v>
       </c>
       <c r="I6">
-        <v>0.3194949819541474</v>
+        <v>0.1534266690294709</v>
       </c>
       <c r="J6">
-        <v>-0.008768906506659371</v>
+        <v>-0.005547450510807893</v>
       </c>
       <c r="K6">
-        <v>484</v>
+        <v>908</v>
       </c>
       <c r="L6">
-        <v>0.3995890559703603</v>
+        <v>0.3195226802252187</v>
       </c>
       <c r="M6">
-        <v>1.201977597186968</v>
+        <v>1.121894991941254</v>
       </c>
       <c r="N6">
-        <v>-1.574463469289206</v>
+        <v>-0.729806487543762</v>
       </c>
       <c r="O6">
-        <v>17.97446266287532</v>
+        <v>7.600338013117083</v>
       </c>
       <c r="P6">
-        <v>1.060091049756216</v>
+        <v>0.9551569388470293</v>
       </c>
       <c r="Q6">
-        <v>-0.01102156028027607</v>
+        <v>-0.007400706239876991</v>
       </c>
       <c r="R6">
-        <v>-0.01892331591693952</v>
+        <v>-0.01162819701065817</v>
       </c>
       <c r="S6">
-        <v>0.1080403075755877</v>
+        <v>0.06110165315286893</v>
       </c>
       <c r="T6">
-        <v>0.01305379746835443</v>
+        <v>0.003614457831325301</v>
       </c>
       <c r="U6">
-        <v>0.5462816455696202</v>
+        <v>0.5524096385542169</v>
       </c>
       <c r="V6">
-        <v>2.337829004041305</v>
+        <v>0.3706227961094761</v>
       </c>
       <c r="W6">
-        <v>0.5302230672385295</v>
+        <v>0.2712216860147556</v>
       </c>
       <c r="X6">
-        <v>0.03525941999152107</v>
+        <v>-0.01653386144690431</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>0.1353483160789122</v>
+        <v>0.04991759293172415</v>
       </c>
       <c r="C7">
-        <v>0.0005038550283011922</v>
+        <v>0.0001933189938965185</v>
       </c>
       <c r="D7">
-        <v>0.1353483160789122</v>
+        <v>0.04991759293172415</v>
       </c>
       <c r="E7">
-        <v>0.1442148888522794</v>
+        <v>0.07341902618456966</v>
       </c>
       <c r="F7">
-        <v>0.7449689833449833</v>
+        <v>0.2916933251195384</v>
       </c>
       <c r="G7">
-        <v>0.9162503486191156</v>
+        <v>0.3752476911811662</v>
       </c>
       <c r="H7">
-        <v>-0.3266071233208585</v>
+        <v>-0.1400269186071221</v>
       </c>
       <c r="I7">
-        <v>0.3266071233208585</v>
+        <v>0.1400269186071221</v>
       </c>
       <c r="J7">
-        <v>-0.01076342045508764</v>
+        <v>-0.006110053034983937</v>
       </c>
       <c r="K7">
-        <v>481</v>
+        <v>812</v>
       </c>
       <c r="L7">
-        <v>0.4144071161177527</v>
+        <v>0.3564856916674678</v>
       </c>
       <c r="M7">
-        <v>1.188723483668941</v>
+        <v>1.128813790748477</v>
       </c>
       <c r="N7">
-        <v>-1.066989033878135</v>
+        <v>-0.7465688808377213</v>
       </c>
       <c r="O7">
-        <v>15.23725081269118</v>
+        <v>6.206926889007564</v>
       </c>
       <c r="P7">
-        <v>1.098635273223887</v>
+        <v>0.9654079565129948</v>
       </c>
       <c r="Q7">
-        <v>-0.01225989304864473</v>
+        <v>-0.00711970252477933</v>
       </c>
       <c r="R7">
-        <v>-0.02102880622770592</v>
+        <v>-0.01097828261919864</v>
       </c>
       <c r="S7">
-        <v>0.1167895195902159</v>
+        <v>0.05684428603840488</v>
       </c>
       <c r="T7">
-        <v>0.01700949367088608</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="U7">
-        <v>0.5431170886075949</v>
+        <v>0.5512048192771084</v>
       </c>
       <c r="V7">
-        <v>2.57306841900148</v>
+        <v>0.3783381231935552</v>
       </c>
       <c r="W7">
-        <v>0.5652708246611546</v>
+        <v>0.2369482542338153</v>
       </c>
       <c r="X7">
-        <v>0.04010600697730306</v>
+        <v>-0.01130247699011655</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>0.1392920690733073</v>
+        <v>0.0570694223965369</v>
       </c>
       <c r="C8">
-        <v>0.0005176223228819943</v>
+        <v>0.0002202638713559857</v>
       </c>
       <c r="D8">
-        <v>0.1392920690733073</v>
+        <v>0.0570694223965369</v>
       </c>
       <c r="E8">
-        <v>0.1326610432054957</v>
+        <v>0.07750471385097658</v>
       </c>
       <c r="F8">
-        <v>0.8238200029595101</v>
+        <v>0.3679318687889883</v>
       </c>
       <c r="G8">
-        <v>1.011142860284304</v>
+        <v>0.4558551797388559</v>
       </c>
       <c r="H8">
-        <v>-0.2932455987688721</v>
+        <v>-0.1596886739722619</v>
       </c>
       <c r="I8">
-        <v>0.2932455987688721</v>
+        <v>0.1596886739722619</v>
       </c>
       <c r="J8">
-        <v>-0.00926578693341581</v>
+        <v>-0.006093244079632897</v>
       </c>
       <c r="K8">
-        <v>363</v>
+        <v>532</v>
       </c>
       <c r="L8">
-        <v>0.4750013969795104</v>
+        <v>0.3573792741647407</v>
       </c>
       <c r="M8">
-        <v>1.210476930719831</v>
+        <v>1.142850099386693</v>
       </c>
       <c r="N8">
-        <v>-1.039715121173339</v>
+        <v>-0.8801607841231766</v>
       </c>
       <c r="O8">
-        <v>16.33175157921474</v>
+        <v>8.030311148875066</v>
       </c>
       <c r="P8">
-        <v>1.083945169937887</v>
+        <v>0.981683647543484</v>
       </c>
       <c r="Q8">
-        <v>-0.01145915153462791</v>
+        <v>-0.007352093557055597</v>
       </c>
       <c r="R8">
-        <v>-0.01933948571200924</v>
+        <v>-0.01181065002931674</v>
       </c>
       <c r="S8">
-        <v>0.1076546901182225</v>
+        <v>0.06230721842530478</v>
       </c>
       <c r="T8">
-        <v>0.0134493670886076</v>
+        <v>0.003614457831325301</v>
       </c>
       <c r="U8">
-        <v>0.5474683544303798</v>
+        <v>0.558433734939759</v>
       </c>
       <c r="V8">
-        <v>2.699548118000491</v>
+        <v>0.441375352892339</v>
       </c>
       <c r="W8">
-        <v>0.5468750147050666</v>
+        <v>0.2787810204385783</v>
       </c>
       <c r="X8">
-        <v>0.04415034042213416</v>
+        <v>-0.009978219628424767</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>0.1283265487218557</v>
+        <v>0.05816430020148267</v>
       </c>
       <c r="C9">
-        <v>0.0004792243338818114</v>
+        <v>0.0002243728447088866</v>
       </c>
       <c r="D9">
-        <v>0.1283265487218557</v>
+        <v>0.05816430020148267</v>
       </c>
       <c r="E9">
-        <v>0.1202259376782112</v>
+        <v>0.08169484612025661</v>
       </c>
       <c r="F9">
-        <v>0.8154887007677992</v>
+        <v>0.3658319321942848</v>
       </c>
       <c r="G9">
-        <v>0.9523423597938395</v>
+        <v>0.4386064615446201</v>
       </c>
       <c r="H9">
-        <v>-0.2897275458053156</v>
+        <v>-0.1868568409137676</v>
       </c>
       <c r="I9">
-        <v>0.2897275458053156</v>
+        <v>0.1868568409137676</v>
       </c>
       <c r="J9">
-        <v>-0.007349451810383312</v>
+        <v>-0.004952536315794526</v>
       </c>
       <c r="K9">
-        <v>356</v>
+        <v>486</v>
       </c>
       <c r="L9">
-        <v>0.4429214639055604</v>
+        <v>0.3112773389352378</v>
       </c>
       <c r="M9">
-        <v>1.219155555569117</v>
+        <v>1.147157168559304</v>
       </c>
       <c r="N9">
-        <v>-1.457036070161398</v>
+        <v>-0.8514471621780645</v>
       </c>
       <c r="O9">
-        <v>19.13295626275945</v>
+        <v>12.48506032397603</v>
       </c>
       <c r="P9">
-        <v>1.047682838547493</v>
+        <v>0.9438117481025726</v>
       </c>
       <c r="Q9">
-        <v>-0.01030881036182207</v>
+        <v>-0.007578939242921408</v>
       </c>
       <c r="R9">
-        <v>-0.01785263024159179</v>
+        <v>-0.01238805583007089</v>
       </c>
       <c r="S9">
-        <v>0.1025398677148843</v>
+        <v>0.06786892627484949</v>
       </c>
       <c r="T9">
-        <v>0.01028481012658228</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="U9">
-        <v>0.553006329113924</v>
+        <v>0.5512048192771084</v>
       </c>
       <c r="V9">
-        <v>2.357474060759363</v>
+        <v>0.4512382298328343</v>
       </c>
       <c r="W9">
-        <v>0.5497315857669282</v>
+        <v>0.3302813920080973</v>
       </c>
       <c r="X9">
-        <v>0.03256416592052634</v>
+        <v>-0.01571937082708217</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>0.134722160818479</v>
+        <v>0.05786766632148699</v>
       </c>
       <c r="C10">
-        <v>0.0005016647946369801</v>
+        <v>0.0002232600240557048</v>
       </c>
       <c r="D10">
-        <v>0.134722160818479</v>
+        <v>0.05786766632148699</v>
       </c>
       <c r="E10">
-        <v>0.1285215969053948</v>
+        <v>0.07968732745254947</v>
       </c>
       <c r="F10">
-        <v>0.8148683948292654</v>
+        <v>0.3694898084120852</v>
       </c>
       <c r="G10">
-        <v>0.9843752937716821</v>
+        <v>0.4529689167249696</v>
       </c>
       <c r="H10">
-        <v>-0.2953884362873485</v>
+        <v>-0.1681613037598428</v>
       </c>
       <c r="I10">
-        <v>0.2953884362873485</v>
+        <v>0.1681613037598428</v>
       </c>
       <c r="J10">
-        <v>-0.008679386377033388</v>
+        <v>-0.005662180954714885</v>
       </c>
       <c r="K10">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="L10">
-        <v>0.4560847489893739</v>
+        <v>0.3441199909114042</v>
       </c>
       <c r="M10">
-        <v>1.211657487596816</v>
+        <v>1.144231146696155</v>
       </c>
       <c r="N10">
-        <v>-1.166422931506575</v>
+        <v>-0.8732753526986068</v>
       </c>
       <c r="O10">
-        <v>17.2239786617139</v>
+        <v>9.567622106573676</v>
       </c>
       <c r="P10">
-        <v>1.074243868403457</v>
+        <v>1.001865115903251</v>
       </c>
       <c r="Q10">
-        <v>-0.01113940913832539</v>
+        <v>-0.007288433856518383</v>
       </c>
       <c r="R10">
-        <v>-0.01884881990999913</v>
+        <v>-0.01208835200924528</v>
       </c>
       <c r="S10">
-        <v>0.1059674822378736</v>
+        <v>0.0647430356003687</v>
       </c>
       <c r="T10">
-        <v>0.0134493670886076</v>
+        <v>0.004216867469879518</v>
       </c>
       <c r="U10">
-        <v>0.5506329113924051</v>
+        <v>0.5518072289156627</v>
       </c>
       <c r="V10">
-        <v>2.553349214346211</v>
+        <v>0.4485604565530592</v>
       </c>
       <c r="W10">
-        <v>0.545971173417371</v>
+        <v>0.3029074035482091</v>
       </c>
       <c r="X10">
-        <v>0.03969736364949353</v>
+        <v>-0.01238244056822288</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>0.1390077101509513</v>
+        <v>0.05739507286302414</v>
       </c>
       <c r="C11">
-        <v>0.000516631239997789</v>
+        <v>0.0002214864496474789</v>
       </c>
       <c r="D11">
-        <v>0.1390077101509513</v>
+        <v>0.05739507286302414</v>
       </c>
       <c r="E11">
-        <v>0.1317961223892264</v>
+        <v>0.07839240330135527</v>
       </c>
       <c r="F11">
-        <v>0.8264783600016125</v>
+        <v>0.3685821400921864</v>
       </c>
       <c r="G11">
-        <v>1.005880750697914</v>
+        <v>0.4534914545355419</v>
       </c>
       <c r="H11">
-        <v>-0.296495025449843</v>
+        <v>-0.1629431633852687</v>
       </c>
       <c r="I11">
-        <v>0.296495025449843</v>
+        <v>0.1629431633852687</v>
       </c>
       <c r="J11">
-        <v>-0.008951821813376478</v>
+        <v>-0.005676303560419755</v>
       </c>
       <c r="K11">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="L11">
-        <v>0.4688365679661857</v>
+        <v>0.3522398342501622</v>
       </c>
       <c r="M11">
-        <v>1.212112384149206</v>
+        <v>1.14388715269637</v>
       </c>
       <c r="N11">
-        <v>-1.098853012017124</v>
+        <v>-0.881582096376976</v>
       </c>
       <c r="O11">
-        <v>16.70978264141607</v>
+        <v>8.905625623313361</v>
       </c>
       <c r="P11">
-        <v>1.075146369502104</v>
+        <v>1.001860697408067</v>
       </c>
       <c r="Q11">
-        <v>-0.0114307498655463</v>
+        <v>-0.007271701319436006</v>
       </c>
       <c r="R11">
-        <v>-0.01927704080807512</v>
+        <v>-0.01191359660945269</v>
       </c>
       <c r="S11">
-        <v>0.1078592401450101</v>
+        <v>0.06346128950146053</v>
       </c>
       <c r="T11">
-        <v>0.01384493670886076</v>
+        <v>0.004216867469879518</v>
       </c>
       <c r="U11">
-        <v>0.5518196202531646</v>
+        <v>0.5560240963855422</v>
       </c>
       <c r="V11">
-        <v>2.690295438050661</v>
+        <v>0.444302918378253</v>
       </c>
       <c r="W11">
-        <v>0.5508422916760916</v>
+        <v>0.291783361344729</v>
       </c>
       <c r="X11">
-        <v>0.04331561870941952</v>
+        <v>-0.01139602483457419</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>0.129998892146834</v>
+        <v>0.05828120377326629</v>
       </c>
       <c r="C12">
-        <v>0.0004851043406384203</v>
+        <v>0.0002248113225731263</v>
       </c>
       <c r="D12">
-        <v>0.129998892146834</v>
+        <v>0.05828120377326629</v>
       </c>
       <c r="E12">
-        <v>0.12461203525193</v>
+        <v>0.08065883975748445</v>
       </c>
       <c r="F12">
-        <v>0.8029864783872467</v>
+        <v>0.3708569055691549</v>
       </c>
       <c r="G12">
-        <v>0.9533082292651249</v>
+        <v>0.4482746061516228</v>
       </c>
       <c r="H12">
-        <v>-0.2941144701367283</v>
+        <v>-0.1801660857421962</v>
       </c>
       <c r="I12">
-        <v>0.2941144701367283</v>
+        <v>0.1801660857421962</v>
       </c>
       <c r="J12">
-        <v>-0.007829545064955075</v>
+        <v>-0.005214496747036502</v>
       </c>
       <c r="K12">
-        <v>359</v>
+        <v>492</v>
       </c>
       <c r="L12">
-        <v>0.4420010075886439</v>
+        <v>0.3234859853516617</v>
       </c>
       <c r="M12">
-        <v>1.212706991543901</v>
+        <v>1.146590845727169</v>
       </c>
       <c r="N12">
-        <v>-1.314075006892393</v>
+        <v>-0.8781400508548534</v>
       </c>
       <c r="O12">
-        <v>18.32395712804492</v>
+        <v>11.13104190503779</v>
       </c>
       <c r="P12">
-        <v>1.049569039960627</v>
+        <v>0.9773847127100186</v>
       </c>
       <c r="Q12">
-        <v>-0.01074329237415323</v>
+        <v>-0.007356174740670865</v>
       </c>
       <c r="R12">
-        <v>-0.01839129263567508</v>
+        <v>-0.01225047423041044</v>
       </c>
       <c r="S12">
-        <v>0.1045453241236823</v>
+        <v>0.06646361162561763</v>
       </c>
       <c r="T12">
-        <v>0.01265822784810127</v>
+        <v>0.004216867469879518</v>
       </c>
       <c r="U12">
-        <v>0.5498417721518988</v>
+        <v>0.5524096385542169</v>
       </c>
       <c r="V12">
-        <v>2.407730124298438</v>
+        <v>0.4522946944921171</v>
       </c>
       <c r="W12">
-        <v>0.5549598160398245</v>
+        <v>0.3190436258492413</v>
       </c>
       <c r="X12">
-        <v>0.03396031515961467</v>
+        <v>-0.01414133195847611</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>0.1122751842158727</v>
+        <v>0.03473519351804688</v>
       </c>
       <c r="C13">
-        <v>0.0004223416731778951</v>
+        <v>0.0001355073640567639</v>
       </c>
       <c r="D13">
-        <v>0.1122751842158727</v>
+        <v>0.03473519351804688</v>
       </c>
       <c r="E13">
-        <v>0.1473035811973486</v>
+        <v>0.08104127635977765</v>
       </c>
       <c r="F13">
-        <v>0.5930107587316268</v>
+        <v>0.09175816356944327</v>
       </c>
       <c r="G13">
-        <v>0.7178262997413943</v>
+        <v>0.122511761890039</v>
       </c>
       <c r="H13">
-        <v>-0.3239024696843961</v>
+        <v>-0.1958806892436162</v>
       </c>
       <c r="I13">
-        <v>0.3239024696843961</v>
+        <v>0.1958806892436162</v>
       </c>
       <c r="J13">
-        <v>-0.009005653967844808</v>
+        <v>-0.007177906958442196</v>
       </c>
       <c r="K13">
-        <v>472</v>
+        <v>1027</v>
       </c>
       <c r="L13">
-        <v>0.3466326895416121</v>
+        <v>0.1773283198674415</v>
       </c>
       <c r="M13">
-        <v>1.159587584240043</v>
+        <v>1.082681122145867</v>
       </c>
       <c r="N13">
-        <v>-1.089650398502986</v>
+        <v>-0.5925425341953858</v>
       </c>
       <c r="O13">
-        <v>17.37637329304268</v>
+        <v>5.556189213511159</v>
       </c>
       <c r="P13">
-        <v>1.031980407289448</v>
+        <v>0.9445833394680774</v>
       </c>
       <c r="Q13">
-        <v>-0.0129641359123457</v>
+        <v>-0.00804932667025117</v>
       </c>
       <c r="R13">
-        <v>-0.02170619843918167</v>
+        <v>-0.01178158812701012</v>
       </c>
       <c r="S13">
-        <v>0.1212065936154643</v>
+        <v>0.06045649062840377</v>
       </c>
       <c r="T13">
-        <v>0.01780063291139241</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="U13">
-        <v>0.5395569620253164</v>
+        <v>0.5403614457831325</v>
       </c>
       <c r="V13">
-        <v>1.907967403707303</v>
+        <v>0.2522312812455751</v>
       </c>
       <c r="W13">
-        <v>0.7127021528223002</v>
+        <v>0.1859609620570068</v>
       </c>
       <c r="X13">
-        <v>0.002462397532249125</v>
+        <v>-0.01824168486422117</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>0.1236699746260819</v>
+        <v>0.03424537018935347</v>
       </c>
       <c r="C14">
-        <v>0.0004628058372924126</v>
+        <v>0.0001336281729193978</v>
       </c>
       <c r="D14">
-        <v>0.1236699746260819</v>
+        <v>0.03424537018935347</v>
       </c>
       <c r="E14">
-        <v>0.1625535412900826</v>
+        <v>0.09932427727613651</v>
       </c>
       <c r="F14">
-        <v>0.6148008141849838</v>
+        <v>0.08671968870785915</v>
       </c>
       <c r="G14">
-        <v>0.7474158144283253</v>
+        <v>0.1188213843474066</v>
       </c>
       <c r="H14">
-        <v>-0.3515804187877127</v>
+        <v>-0.2639493041133635</v>
       </c>
       <c r="I14">
-        <v>0.3515804187877127</v>
+        <v>0.2639493041133635</v>
       </c>
       <c r="J14">
-        <v>-0.009698988129978459</v>
+        <v>-0.009206881427064474</v>
       </c>
       <c r="K14">
-        <v>475</v>
+        <v>1027</v>
       </c>
       <c r="L14">
-        <v>0.3517544436988536</v>
+        <v>0.1297422257065146</v>
       </c>
       <c r="M14">
-        <v>1.159721904255837</v>
+        <v>1.068348471737819</v>
       </c>
       <c r="N14">
-        <v>-1.079419530935033</v>
+        <v>-0.4597130991764954</v>
       </c>
       <c r="O14">
-        <v>16.85542119996324</v>
+        <v>4.590366092594892</v>
       </c>
       <c r="P14">
-        <v>1.053524575422718</v>
+        <v>0.9358481023132651</v>
       </c>
       <c r="Q14">
-        <v>-0.01413423021765976</v>
+        <v>-0.01014615907683592</v>
       </c>
       <c r="R14">
-        <v>-0.02398609391333361</v>
+        <v>-0.01442010694797316</v>
       </c>
       <c r="S14">
-        <v>0.1331797883431554</v>
+        <v>0.07220183744147171</v>
       </c>
       <c r="T14">
-        <v>0.02373417721518987</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="U14">
-        <v>0.5348101265822784</v>
+        <v>0.5379518072289157</v>
       </c>
       <c r="V14">
-        <v>2.221034254311482</v>
+        <v>0.2483316096105304</v>
       </c>
       <c r="W14">
-        <v>0.7799493760301955</v>
+        <v>0.2007386527559353</v>
       </c>
       <c r="X14">
-        <v>0.00703799756402694</v>
+        <v>-0.01910504798464217</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>0.1112208141391402</v>
+        <v>0.03364190973426684</v>
       </c>
       <c r="C15">
-        <v>0.0004185766403086433</v>
+        <v>0.0001313117974954814</v>
       </c>
       <c r="D15">
-        <v>0.1112208141391402</v>
+        <v>0.03364190973426684</v>
       </c>
       <c r="E15">
-        <v>0.1456219243091812</v>
+        <v>0.08249214346740438</v>
       </c>
       <c r="F15">
-        <v>0.5916454347442287</v>
+        <v>0.07876614682039934</v>
       </c>
       <c r="G15">
-        <v>0.7158228800914818</v>
+        <v>0.1056928301860694</v>
       </c>
       <c r="H15">
-        <v>-0.3231301252590484</v>
+        <v>-0.2039101023689899</v>
       </c>
       <c r="I15">
-        <v>0.3231301252590484</v>
+        <v>0.2039101023689899</v>
       </c>
       <c r="J15">
-        <v>-0.008885344831657723</v>
+        <v>-0.007296110163722343</v>
       </c>
       <c r="K15">
-        <v>474</v>
+        <v>1027</v>
       </c>
       <c r="L15">
-        <v>0.3441982206084196</v>
+        <v>0.1649840265068839</v>
       </c>
       <c r="M15">
-        <v>1.159676212168651</v>
+        <v>1.078882207754143</v>
       </c>
       <c r="N15">
-        <v>-1.11476642626071</v>
+        <v>-0.5702964921375903</v>
       </c>
       <c r="O15">
-        <v>17.45856324105577</v>
+        <v>5.356584463984813</v>
       </c>
       <c r="P15">
-        <v>1.035886828736671</v>
+        <v>0.9357351872744538</v>
       </c>
       <c r="Q15">
-        <v>-0.01284036542606453</v>
+        <v>-0.008268298937904461</v>
       </c>
       <c r="R15">
-        <v>-0.02145288257012649</v>
+        <v>-0.01200525077692672</v>
       </c>
       <c r="S15">
-        <v>0.1198815754341971</v>
+        <v>0.06123171107334443</v>
       </c>
       <c r="T15">
-        <v>0.01700949367088608</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="U15">
-        <v>0.538370253164557</v>
+        <v>0.5403614457831325</v>
       </c>
       <c r="V15">
-        <v>1.880432186324656</v>
+        <v>0.243541395957918</v>
       </c>
       <c r="W15">
-        <v>0.702330929695964</v>
+        <v>0.1807231943367571</v>
       </c>
       <c r="X15">
-        <v>0.002501655932355989</v>
+        <v>-0.01845705321061793</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>0.1095360165885502</v>
+        <v>0.0368307131964003</v>
       </c>
       <c r="C16">
-        <v>0.0004125530324103899</v>
+        <v>0.0001435367656723585</v>
       </c>
       <c r="D16">
-        <v>0.1095360165885502</v>
+        <v>0.0368307131964003</v>
       </c>
       <c r="E16">
-        <v>0.1419136944239362</v>
+        <v>0.08013618599488917</v>
       </c>
       <c r="F16">
-        <v>0.5926356033223401</v>
+        <v>0.1171347699060256</v>
       </c>
       <c r="G16">
-        <v>0.7131721548727782</v>
+        <v>0.154854619017454</v>
       </c>
       <c r="H16">
-        <v>-0.3194752615890412</v>
+        <v>-0.1870053384902942</v>
       </c>
       <c r="I16">
-        <v>0.3194752615890412</v>
+        <v>0.1870053384902942</v>
       </c>
       <c r="J16">
-        <v>-0.008393698303574115</v>
+        <v>-0.006993123565489615</v>
       </c>
       <c r="K16">
-        <v>474</v>
+        <v>1027</v>
       </c>
       <c r="L16">
-        <v>0.3428622799891544</v>
+        <v>0.1969500629967944</v>
       </c>
       <c r="M16">
-        <v>1.161306429326108</v>
+        <v>1.088785814704957</v>
       </c>
       <c r="N16">
-        <v>-1.169152682549559</v>
+        <v>-0.6160264237098345</v>
       </c>
       <c r="O16">
-        <v>17.71270391438943</v>
+        <v>5.967404014527288</v>
       </c>
       <c r="P16">
-        <v>1.029380576416909</v>
+        <v>0.9279754447816775</v>
       </c>
       <c r="Q16">
-        <v>-0.01249968032329913</v>
+        <v>-0.008047702093180885</v>
       </c>
       <c r="R16">
-        <v>-0.02097227318436488</v>
+        <v>-0.01165740269575283</v>
       </c>
       <c r="S16">
-        <v>0.117459297901965</v>
+        <v>0.06037540644456319</v>
       </c>
       <c r="T16">
-        <v>0.01542721518987342</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="U16">
-        <v>0.5403481012658228</v>
+        <v>0.5391566265060241</v>
       </c>
       <c r="V16">
-        <v>1.83692010113946</v>
+        <v>0.269031400008646</v>
       </c>
       <c r="W16">
-        <v>0.6873640986676413</v>
+        <v>0.2028082440128761</v>
       </c>
       <c r="X16">
-        <v>0.002230921781996548</v>
+        <v>-0.01861745822821501</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>0.117740055016359</v>
+        <v>0.03301277165853023</v>
       </c>
       <c r="C17">
-        <v>0.0004417993057235226</v>
+        <v>0.0001288954242335549</v>
       </c>
       <c r="D17">
-        <v>0.117740055016359</v>
+        <v>0.03301277165853023</v>
       </c>
       <c r="E17">
-        <v>0.1502124747830466</v>
+        <v>0.07888821178817819</v>
       </c>
       <c r="F17">
-        <v>0.617009381579056</v>
+        <v>0.07095066917385186</v>
       </c>
       <c r="G17">
-        <v>0.7549010457406482</v>
+        <v>0.09569901834622824</v>
       </c>
       <c r="H17">
-        <v>-0.3191135923096364</v>
+        <v>-0.1897320828697259</v>
       </c>
       <c r="I17">
-        <v>0.3191135923096364</v>
+        <v>0.1897320828697259</v>
       </c>
       <c r="J17">
-        <v>-0.009452661203462288</v>
+        <v>-0.007455712905293396</v>
       </c>
       <c r="K17">
-        <v>445</v>
+        <v>1027</v>
       </c>
       <c r="L17">
-        <v>0.3689596991597763</v>
+        <v>0.1739967809302842</v>
       </c>
       <c r="M17">
-        <v>1.163364744399014</v>
+        <v>1.080090549203283</v>
       </c>
       <c r="N17">
-        <v>-0.9430369676950729</v>
+        <v>-0.5699619986111658</v>
       </c>
       <c r="O17">
-        <v>16.9110760912795</v>
+        <v>5.060269025881844</v>
       </c>
       <c r="P17">
-        <v>1.043990825550485</v>
+        <v>0.9339861608230741</v>
       </c>
       <c r="Q17">
-        <v>-0.01314038632045621</v>
+        <v>-0.007949496530082506</v>
       </c>
       <c r="R17">
-        <v>-0.02205191046087627</v>
+        <v>-0.0114538779465045</v>
       </c>
       <c r="S17">
-        <v>0.122286207340063</v>
+        <v>0.05825468505074696</v>
       </c>
       <c r="T17">
-        <v>0.0189873417721519</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="U17">
-        <v>0.5399525316455697</v>
+        <v>0.5403614457831325</v>
       </c>
       <c r="V17">
-        <v>2.054518597402834</v>
+        <v>0.2385639649998708</v>
       </c>
       <c r="W17">
-        <v>0.7161676937046292</v>
+        <v>0.157863211544056</v>
       </c>
       <c r="X17">
-        <v>0.007379513427298381</v>
+        <v>-0.01620091523057421</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18">
-        <v>0.1147828467261309</v>
+        <v>0.04442725993906671</v>
       </c>
       <c r="C18">
-        <v>0.0004312819818710345</v>
+        <v>0.0001725095548659183</v>
       </c>
       <c r="D18">
-        <v>0.1147828467261309</v>
+        <v>0.04442725993906671</v>
       </c>
       <c r="E18">
-        <v>0.1450842814533295</v>
+        <v>0.07415704816441497</v>
       </c>
       <c r="F18">
-        <v>0.6152694083060882</v>
+        <v>0.2188119260414928</v>
       </c>
       <c r="G18">
-        <v>0.7528493867132807</v>
+        <v>0.2830980336760389</v>
       </c>
       <c r="H18">
-        <v>-0.3055434163439775</v>
+        <v>-0.1368322447720467</v>
       </c>
       <c r="I18">
-        <v>0.3055434163439775</v>
+        <v>0.1368322447720467</v>
       </c>
       <c r="J18">
-        <v>-0.008705850148709796</v>
+        <v>-0.005587615928207198</v>
       </c>
       <c r="K18">
-        <v>492</v>
+        <v>952</v>
       </c>
       <c r="L18">
-        <v>0.3756678775788434</v>
+        <v>0.3246841416150085</v>
       </c>
       <c r="M18">
-        <v>1.164937420809913</v>
+        <v>1.114160044623595</v>
       </c>
       <c r="N18">
-        <v>-0.9117497265635816</v>
+        <v>-0.7354901523900171</v>
       </c>
       <c r="O18">
-        <v>17.10789872196475</v>
+        <v>6.539992581903402</v>
       </c>
       <c r="P18">
-        <v>1.06474903133088</v>
+        <v>0.9480394009384678</v>
       </c>
       <c r="Q18">
-        <v>-0.01265135968824038</v>
+        <v>-0.007227677589890171</v>
       </c>
       <c r="R18">
-        <v>-0.02122417812774759</v>
+        <v>-0.01088776136572615</v>
       </c>
       <c r="S18">
-        <v>0.1180992986010683</v>
+        <v>0.05708950853144298</v>
       </c>
       <c r="T18">
-        <v>0.01700949367088608</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="U18">
-        <v>0.5450949367088608</v>
+        <v>0.55</v>
       </c>
       <c r="V18">
-        <v>1.974410322729498</v>
+        <v>0.3315466528789499</v>
       </c>
       <c r="W18">
-        <v>0.6999052384964878</v>
+        <v>0.2201852062890733</v>
       </c>
       <c r="X18">
-        <v>0.00589995417561992</v>
+        <v>-0.01417719315765685</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>0.1137153412592915</v>
+        <v>0.05379600971283538</v>
       </c>
       <c r="C19">
-        <v>0.0004274785665809855</v>
+        <v>0.0002079537313488533</v>
       </c>
       <c r="D19">
-        <v>0.1137153412592915</v>
+        <v>0.05379600971283538</v>
       </c>
       <c r="E19">
-        <v>0.1488282627299002</v>
+        <v>0.07902448069789635</v>
       </c>
       <c r="F19">
-        <v>0.5971302261886759</v>
+        <v>0.3231054037692679</v>
       </c>
       <c r="G19">
-        <v>0.7145393526047127</v>
+        <v>0.3931503707446443</v>
       </c>
       <c r="H19">
-        <v>-0.3178056800100393</v>
+        <v>-0.1752931850711383</v>
       </c>
       <c r="I19">
-        <v>0.3178056800100393</v>
+        <v>0.1752931850711383</v>
       </c>
       <c r="J19">
-        <v>-0.00780412319763312</v>
+        <v>-0.004788234786495953</v>
       </c>
       <c r="K19">
-        <v>398</v>
+        <v>591</v>
       </c>
       <c r="L19">
-        <v>0.3578140619000243</v>
+        <v>0.3068916209777557</v>
       </c>
       <c r="M19">
-        <v>1.163327058769238</v>
+        <v>1.138122371991025</v>
       </c>
       <c r="N19">
-        <v>-1.01351253382543</v>
+        <v>-0.8210562414828957</v>
       </c>
       <c r="O19">
-        <v>17.03257419162126</v>
+        <v>11.1346192287632</v>
       </c>
       <c r="P19">
-        <v>1.026743436124229</v>
+        <v>0.9602573730989884</v>
       </c>
       <c r="Q19">
-        <v>-0.01310689633092252</v>
+        <v>-0.007273436278787871</v>
       </c>
       <c r="R19">
-        <v>-0.02213700082809547</v>
+        <v>-0.01187573876611715</v>
       </c>
       <c r="S19">
-        <v>0.1238791022550423</v>
+        <v>0.0646869860230942</v>
       </c>
       <c r="T19">
-        <v>0.01977848101265823</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="U19">
-        <v>0.5450949367088608</v>
+        <v>0.5566265060240964</v>
       </c>
       <c r="V19">
-        <v>1.945960474797831</v>
+        <v>0.4122261736301138</v>
       </c>
       <c r="W19">
-        <v>0.7612205429145242</v>
+        <v>0.3139087314086474</v>
       </c>
       <c r="X19">
-        <v>-0.001799399703577814</v>
+        <v>-0.01781194583273567</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <v>0.1127645747676418</v>
+        <v>0.04967383125034908</v>
       </c>
       <c r="C20">
-        <v>0.000424088022129121</v>
+        <v>0.0001923973909543353</v>
       </c>
       <c r="D20">
-        <v>0.1127645747676418</v>
+        <v>0.04967383125034908</v>
       </c>
       <c r="E20">
-        <v>0.1474882541877248</v>
+        <v>0.07466269557198024</v>
       </c>
       <c r="F20">
-        <v>0.5953773640481872</v>
+        <v>0.2849679493051804</v>
       </c>
       <c r="G20">
-        <v>0.7221111485316966</v>
+        <v>0.3584877908604215</v>
       </c>
       <c r="H20">
-        <v>-0.3130220392156633</v>
+        <v>-0.1497773341824195</v>
       </c>
       <c r="I20">
-        <v>0.3130220392156633</v>
+        <v>0.1497773341824195</v>
       </c>
       <c r="J20">
-        <v>-0.008620529801256414</v>
+        <v>-0.005383268764329009</v>
       </c>
       <c r="K20">
-        <v>444</v>
+        <v>714</v>
       </c>
       <c r="L20">
-        <v>0.3602448410667666</v>
+        <v>0.3316511908928053</v>
       </c>
       <c r="M20">
-        <v>1.161266830423902</v>
+        <v>1.129020431373407</v>
       </c>
       <c r="N20">
-        <v>-0.9574308041560636</v>
+        <v>-0.8009158107795585</v>
       </c>
       <c r="O20">
-        <v>17.19546430195818</v>
+        <v>8.033160850404814</v>
       </c>
       <c r="P20">
-        <v>1.034230026540138</v>
+        <v>0.9714136029138563</v>
       </c>
       <c r="Q20">
-        <v>-0.0129233087326853</v>
+        <v>-0.00695529434286533</v>
       </c>
       <c r="R20">
-        <v>-0.02168172407780707</v>
+        <v>-0.01116132055223416</v>
       </c>
       <c r="S20">
-        <v>0.1211198816526552</v>
+        <v>0.05911463971959242</v>
       </c>
       <c r="T20">
-        <v>0.0189873417721519</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="U20">
-        <v>0.5450949367088608</v>
+        <v>0.555421686746988</v>
       </c>
       <c r="V20">
-        <v>1.920828336607704</v>
+        <v>0.3762314757473977</v>
       </c>
       <c r="W20">
-        <v>0.7298135753886873</v>
+        <v>0.2586567575963719</v>
       </c>
       <c r="X20">
-        <v>0.0008828093647483548</v>
+        <v>-0.01443939774695645</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>0.1135629252995314</v>
+        <v>0.04764973217348989</v>
       </c>
       <c r="C21">
-        <v>0.0004269352275356741</v>
+        <v>0.0001847365260079226</v>
       </c>
       <c r="D21">
-        <v>0.1135629252995314</v>
+        <v>0.04764973217348989</v>
       </c>
       <c r="E21">
-        <v>0.1479428070861897</v>
+        <v>0.07394944870879526</v>
       </c>
       <c r="F21">
-        <v>0.5988395695385454</v>
+        <v>0.2608884999427751</v>
       </c>
       <c r="G21">
-        <v>0.728751778558519</v>
+        <v>0.3317052931336698</v>
       </c>
       <c r="H21">
-        <v>-0.3110703814713314</v>
+        <v>-0.1441527877364329</v>
       </c>
       <c r="I21">
-        <v>0.3110703814713314</v>
+        <v>0.1441527877364329</v>
       </c>
       <c r="J21">
-        <v>-0.008643295314694901</v>
+        <v>-0.005559627000049727</v>
       </c>
       <c r="K21">
-        <v>492</v>
+        <v>726</v>
       </c>
       <c r="L21">
-        <v>0.365071482416263</v>
+        <v>0.3305501955370578</v>
       </c>
       <c r="M21">
-        <v>1.16146424114942</v>
+        <v>1.123983448649885</v>
       </c>
       <c r="N21">
-        <v>-0.9227883528830969</v>
+        <v>-0.775854270837163</v>
       </c>
       <c r="O21">
-        <v>17.07817113793367</v>
+        <v>7.399880829693453</v>
       </c>
       <c r="P21">
-        <v>1.040109393934453</v>
+        <v>0.9616101247689577</v>
       </c>
       <c r="Q21">
-        <v>-0.01296724440499249</v>
+        <v>-0.006933827874042401</v>
       </c>
       <c r="R21">
-        <v>-0.02172187182325935</v>
+        <v>-0.01099738874928768</v>
       </c>
       <c r="S21">
-        <v>0.1210861443636609</v>
+        <v>0.05793049087887086</v>
       </c>
       <c r="T21">
-        <v>0.01859177215189873</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="U21">
-        <v>0.5466772151898734</v>
+        <v>0.5524096385542169</v>
       </c>
       <c r="V21">
-        <v>1.941918521388125</v>
+        <v>0.3588439625955799</v>
       </c>
       <c r="W21">
-        <v>0.7275361356063991</v>
+        <v>0.2430695396765505</v>
       </c>
       <c r="X21">
-        <v>0.001936914945502688</v>
+        <v>-0.01427099618016621</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22">
-        <v>0.1131273971180027</v>
+        <v>0.05345310631941369</v>
       </c>
       <c r="C22">
-        <v>0.0004253822293807108</v>
+        <v>0.0002066619905263245</v>
       </c>
       <c r="D22">
-        <v>0.1131273971180027</v>
+        <v>0.05345310631941369</v>
       </c>
       <c r="E22">
-        <v>0.1479481883489108</v>
+        <v>0.07699060869329862</v>
       </c>
       <c r="F22">
-        <v>0.5962143801185842</v>
+        <v>0.3253472188741682</v>
       </c>
       <c r="G22">
-        <v>0.7165551374493989</v>
+        <v>0.3993955862834946</v>
       </c>
       <c r="H22">
-        <v>-0.3152086334910641</v>
+        <v>-0.1641669794411165</v>
       </c>
       <c r="I22">
-        <v>0.3152086334910641</v>
+        <v>0.1641669794411165</v>
       </c>
       <c r="J22">
-        <v>-0.008021517166023935</v>
+        <v>-0.005428570727506452</v>
       </c>
       <c r="K22">
-        <v>394</v>
+        <v>503</v>
       </c>
       <c r="L22">
-        <v>0.3588968863735446</v>
+        <v>0.3256020577425943</v>
       </c>
       <c r="M22">
-        <v>1.16247834778015</v>
+        <v>1.13831553391003</v>
       </c>
       <c r="N22">
-        <v>-1.000134545651697</v>
+        <v>-0.8439502421044356</v>
       </c>
       <c r="O22">
-        <v>17.23207425019313</v>
+        <v>9.901709282666182</v>
       </c>
       <c r="P22">
-        <v>1.029752191203787</v>
+        <v>0.9672379268872551</v>
       </c>
       <c r="Q22">
-        <v>-0.01307559376702104</v>
+        <v>-0.007112593825001489</v>
       </c>
       <c r="R22">
-        <v>-0.02187500584849865</v>
+        <v>-0.01160164358329816</v>
       </c>
       <c r="S22">
-        <v>0.1226117858368781</v>
+        <v>0.06246709713714502</v>
       </c>
       <c r="T22">
-        <v>0.0189873417721519</v>
+        <v>0.003614457831325301</v>
       </c>
       <c r="U22">
-        <v>0.5474683544303798</v>
+        <v>0.555421686746988</v>
       </c>
       <c r="V22">
-        <v>1.930396153507015</v>
+        <v>0.4092018221728426</v>
       </c>
       <c r="W22">
-        <v>0.7461480642245921</v>
+        <v>0.2955099135951871</v>
       </c>
       <c r="X22">
-        <v>-0.0006651281022877209</v>
+        <v>-0.01575595442114972</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>0.1371083203370864</v>
+        <v>0.05428452627174907</v>
       </c>
       <c r="C23">
-        <v>0.0005100049240911453</v>
+        <v>0.0002097932841444994</v>
       </c>
       <c r="D23">
-        <v>0.1371083203370864</v>
+        <v>0.05428452627174907</v>
       </c>
       <c r="E23">
-        <v>0.1345795068667082</v>
+        <v>0.07939319853817609</v>
       </c>
       <c r="F23">
-        <v>0.7998413204237335</v>
+        <v>0.3278061954750222</v>
       </c>
       <c r="G23">
-        <v>0.9594447054154759</v>
+        <v>0.4110391185608765</v>
       </c>
       <c r="H23">
-        <v>-0.3156174149929186</v>
+        <v>-0.1593403043642652</v>
       </c>
       <c r="I23">
-        <v>0.3156174149929186</v>
+        <v>0.1593403043642652</v>
       </c>
       <c r="J23">
-        <v>-0.009003549428247123</v>
+        <v>-0.005945273249050008</v>
       </c>
       <c r="K23">
-        <v>363</v>
+        <v>620</v>
       </c>
       <c r="L23">
-        <v>0.4344130387740571</v>
+        <v>0.3406829583282968</v>
       </c>
       <c r="M23">
-        <v>1.205674738049257</v>
+        <v>1.133558458387649</v>
       </c>
       <c r="N23">
-        <v>-1.311630574749307</v>
+        <v>-0.7820903590202323</v>
       </c>
       <c r="O23">
-        <v>17.23216137057018</v>
+        <v>8.17997279244088</v>
       </c>
       <c r="P23">
-        <v>1.077478114309178</v>
+        <v>0.9978314044223129</v>
       </c>
       <c r="Q23">
-        <v>-0.01162445300361899</v>
+        <v>-0.007466309555608071</v>
       </c>
       <c r="R23">
-        <v>-0.01982939434569193</v>
+        <v>-0.01189658292371359</v>
       </c>
       <c r="S23">
-        <v>0.1117461456383429</v>
+        <v>0.06306480171409674</v>
       </c>
       <c r="T23">
-        <v>0.01424050632911392</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="U23">
-        <v>0.5462816455696202</v>
+        <v>0.5590361445783133</v>
       </c>
       <c r="V23">
-        <v>2.629024165098677</v>
+        <v>0.4165443166400633</v>
       </c>
       <c r="W23">
-        <v>0.5722602782545595</v>
+        <v>0.2902863799363271</v>
       </c>
       <c r="X23">
-        <v>0.03948012197729736</v>
+        <v>-0.01405777588708228</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B24">
-        <v>0.1143236001650412</v>
+        <v>0.04240870216222703</v>
       </c>
       <c r="C24">
-        <v>0.000429646177086962</v>
+        <v>0.0001648314204767409</v>
       </c>
       <c r="D24">
-        <v>0.1143236001650412</v>
+        <v>0.04240870216222703</v>
       </c>
       <c r="E24">
-        <v>0.1480339939865893</v>
+        <v>0.07679642593302158</v>
       </c>
       <c r="F24">
-        <v>0.6032280702919889</v>
+        <v>0.1886916746940394</v>
       </c>
       <c r="G24">
-        <v>0.7298359776574498</v>
+        <v>0.2458091803495081</v>
       </c>
       <c r="H24">
-        <v>-0.3196506854117657</v>
+        <v>-0.1566141381766936</v>
       </c>
       <c r="I24">
-        <v>0.3196506854117657</v>
+        <v>0.1566141381766936</v>
       </c>
       <c r="J24">
-        <v>-0.008838534135128345</v>
+        <v>-0.006148633386472578</v>
       </c>
       <c r="K24">
-        <v>471</v>
+        <v>961</v>
       </c>
       <c r="L24">
-        <v>0.3576516659670931</v>
+        <v>0.2707846344905409</v>
       </c>
       <c r="M24">
-        <v>1.16228715149138</v>
+        <v>1.105941340056369</v>
       </c>
       <c r="N24">
-        <v>-1.030836590945402</v>
+        <v>-0.6803045923640267</v>
       </c>
       <c r="O24">
-        <v>17.3129849278236</v>
+        <v>6.569978516858038</v>
       </c>
       <c r="P24">
-        <v>1.036090517099093</v>
+        <v>0.9345520860920001</v>
       </c>
       <c r="Q24">
-        <v>-0.01297379121116727</v>
+        <v>-0.007573837419187065</v>
       </c>
       <c r="R24">
-        <v>-0.02181040045740653</v>
+        <v>-0.01120689016052677</v>
       </c>
       <c r="S24">
-        <v>0.1218673773021388</v>
+        <v>0.05871720613650315</v>
       </c>
       <c r="T24">
-        <v>0.0189873417721519</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="U24">
-        <v>0.5431170886075949</v>
+        <v>0.5427710843373494</v>
       </c>
       <c r="V24">
-        <v>1.962140868672691</v>
+        <v>0.3146856792470727</v>
       </c>
       <c r="W24">
-        <v>0.7263137807551421</v>
+        <v>0.2259424413272461</v>
       </c>
       <c r="X24">
-        <v>0.002786763691793259</v>
+        <v>-0.01670776468569355</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B25">
-        <v>0.1259560590168722</v>
+        <v>0.04842610073720555</v>
       </c>
       <c r="C25">
-        <v>0.000470874735418958</v>
+        <v>0.0001876766881878655</v>
       </c>
       <c r="D25">
-        <v>0.1259560590168722</v>
+        <v>0.04842610073720555</v>
       </c>
       <c r="E25">
-        <v>0.1395824141274798</v>
+        <v>0.07692577566466959</v>
       </c>
       <c r="F25">
-        <v>0.705463192607216</v>
+        <v>0.2633475465741685</v>
       </c>
       <c r="G25">
-        <v>0.8466078080218532</v>
+        <v>0.3364137173970446</v>
       </c>
       <c r="H25">
-        <v>-0.3175428634271851</v>
+        <v>-0.1479240878436165</v>
       </c>
       <c r="I25">
-        <v>0.3175428634271851</v>
+        <v>0.1479240878436165</v>
       </c>
       <c r="J25">
-        <v>-0.008691101882470515</v>
+        <v>-0.005700354698808348</v>
       </c>
       <c r="K25">
-        <v>473</v>
+        <v>924</v>
       </c>
       <c r="L25">
-        <v>0.3966584468548602</v>
+        <v>0.3273712986379946</v>
       </c>
       <c r="M25">
-        <v>1.185713130328814</v>
+        <v>1.121583500110761</v>
       </c>
       <c r="N25">
-        <v>-1.210467681173881</v>
+        <v>-0.7257825757381162</v>
       </c>
       <c r="O25">
-        <v>17.91650552304955</v>
+        <v>7.303267571685208</v>
       </c>
       <c r="P25">
-        <v>1.047729226448268</v>
+        <v>0.9631784513967424</v>
       </c>
       <c r="Q25">
-        <v>-0.01209188740787994</v>
+        <v>-0.007297992656876436</v>
       </c>
       <c r="R25">
-        <v>-0.02059821059263459</v>
+        <v>-0.01141229415433379</v>
       </c>
       <c r="S25">
-        <v>0.1158490639836428</v>
+        <v>0.05997872074576748</v>
       </c>
       <c r="T25">
-        <v>0.01621835443037975</v>
+        <v>0.003614457831325301</v>
       </c>
       <c r="U25">
-        <v>0.5443037974683544</v>
+        <v>0.5524096385542169</v>
       </c>
       <c r="V25">
-        <v>2.287380875286382</v>
+        <v>0.365491000578994</v>
       </c>
       <c r="W25">
-        <v>0.6492870295048511</v>
+        <v>0.2581144106317866</v>
       </c>
       <c r="X25">
-        <v>0.0211334428345453</v>
+        <v>-0.0153827702863879</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +3615,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4144,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4152,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.05360422244301322</v>
+        <v>0.2298762347484288</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4160,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1527907366381965</v>
+        <v>0.1019925820155657</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4168,7 +3647,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.09043885613724656</v>
+        <v>0.1711502333280575</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4176,7 +3655,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.05253833561527743</v>
+        <v>0.2304221337387854</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4184,7 +3663,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04370313254272438</v>
+        <v>0.06986833357681779</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4192,7 +3671,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.07702189691382717</v>
+        <v>0.04783022765271006</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4200,39 +3679,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1244173969904531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.06737491627159883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1122103379403636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.03542007864936619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1904800898579329</v>
+        <v>0.1488602549396348</v>
       </c>
     </row>
   </sheetData>
@@ -4242,7 +3689,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4250,7 +3697,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4258,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01833439564869284</v>
+        <v>0.2143456683479628</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4266,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1141389459897566</v>
+        <v>0.08123964269367731</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4274,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1129534726819392</v>
+        <v>0.1375985577627498</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4282,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1357700451819876</v>
+        <v>0.1849489882603623</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4290,7 +3737,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1131167395874081</v>
+        <v>0.0633734664096532</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4298,7 +3745,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.05950289113064269</v>
+        <v>0.03757582938470078</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4306,39 +3753,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1637909714152645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.02263738639880901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1404661193497438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.01887166299579947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1004173696199563</v>
+        <v>0.2809178471408938</v>
       </c>
     </row>
   </sheetData>
@@ -4348,7 +3763,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4356,7 +3771,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4364,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.03596930904585303</v>
+        <v>0.2221109515481958</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4372,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1334648413139766</v>
+        <v>0.0916161123546215</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4380,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1016961644095929</v>
+        <v>0.1543743955454037</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4388,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.09415419039863253</v>
+        <v>0.2076855609995738</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4396,7 +3811,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.07840993606506623</v>
+        <v>0.06662089999323551</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4404,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06826239402223494</v>
+        <v>0.04270302851870542</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4412,39 +3827,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1441041842028589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.04500615133520393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1263382286450537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.02714587082258283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1454487297389447</v>
+        <v>0.2148890510402643</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +3837,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4470,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.05395145004801189</v>
+        <v>0.2678076646085587</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4478,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1241796072515162</v>
+        <v>0.08925405366076923</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4486,7 +3869,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.09967195956867225</v>
+        <v>0.1359934036984357</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4494,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.0454306707988785</v>
+        <v>0.1675593841638407</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4502,7 +3885,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04239747849890946</v>
+        <v>0.07404729602528379</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4510,7 +3893,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.0667463284023668</v>
+        <v>0.04529985348535994</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4518,39 +3901,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.09952510582511988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.08163021601754571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1116314259445135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.04697438018742496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.2278613774570408</v>
+        <v>0.220038344357752</v>
       </c>
     </row>
   </sheetData>
@@ -4560,7 +3911,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4576,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.05050363694422999</v>
+        <v>0.2553149858291444</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4584,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1043457533722248</v>
+        <v>0.09731395326632834</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4592,7 +3943,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.09036576690014406</v>
+        <v>0.138805129642803</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4600,7 +3951,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.04243305981847864</v>
+        <v>0.1983000867949671</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4608,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.03872123715449066</v>
+        <v>0.07671835631317307</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4616,7 +3967,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06018646754677024</v>
+        <v>0.04070004151397037</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4624,39 +3975,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.09672762265342519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.07489201217651871</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1069928485438869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.0422242838997859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.2926073109900449</v>
+        <v>0.1928474466396137</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +3985,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4682,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.05148972977371954</v>
+        <v>0.2899779858996254</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4690,7 +4009,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2299022930336289</v>
+        <v>0.1004000792551441</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4698,7 +4017,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.09090258147664593</v>
+        <v>0.1931831507181376</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4706,7 +4025,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.03775005971317199</v>
+        <v>0.1270115583339218</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4714,7 +4033,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04106571043600541</v>
+        <v>0.05350991727277998</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4722,7 +4041,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.09081760749035193</v>
+        <v>0.0436670358664672</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4730,39 +4049,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.0995790623703183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.09752689437389526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1030479338478516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.05222450569687202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1056936217875391</v>
+        <v>0.1922502726539239</v>
       </c>
     </row>
   </sheetData>
@@ -4772,7 +4059,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4788,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.05021277241776378</v>
+        <v>0.2514545845807143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4796,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.210900058527631</v>
+        <v>0.1159314646026046</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4804,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1045608687024528</v>
+        <v>0.2180489626223618</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4812,7 +4099,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.04458577989381385</v>
+        <v>0.1863029889832556</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4820,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04280985733086966</v>
+        <v>0.06690572519232393</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4828,7 +4115,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1009116772069874</v>
+        <v>0.0403205204322494</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4836,39 +4123,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1181550642951952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.04644313590681189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1133642880194911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.02223991698144306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1458165807175403</v>
+        <v>0.1210357535864903</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4894,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.03772102649279966</v>
+        <v>0.186641059715001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4902,7 +4157,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1252361323203456</v>
+        <v>0.08300223719575885</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4910,7 +4165,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.05643241625152186</v>
+        <v>0.1757588848870461</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4918,7 +4173,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.07010596186338282</v>
+        <v>0.417811676579047</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4926,7 +4181,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.03939030486181894</v>
+        <v>0.0563098794449179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4934,7 +4189,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.0533750380055034</v>
+        <v>0.03562243554681223</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4942,39 +4197,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1813803182568082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.03596618160248117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1077886385063572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.01835477949445462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.2742492023445266</v>
+        <v>0.044853826631417</v>
       </c>
     </row>
   </sheetData>
@@ -4984,7 +4207,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5000,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.04476162812246005</v>
+        <v>0.2062546590736455</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5008,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1838579651817441</v>
+        <v>0.1116824363316342</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5016,7 +4239,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.08139773408908274</v>
+        <v>0.1915532830206277</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5024,7 +4247,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.05858935984713451</v>
+        <v>0.295036996128606</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5032,7 +4255,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04354385434651052</v>
+        <v>0.05744938445927648</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5040,7 +4263,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.09244210691372778</v>
+        <v>0.04272336918984974</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5048,39 +4271,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1303983031316596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.04510428655522357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1101780318689312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.02367443611012368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1860522938334022</v>
+        <v>0.0952998717963604</v>
       </c>
     </row>
   </sheetData>
@@ -5090,7 +4281,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5106,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.04960081597627022</v>
+        <v>0.2283624996855703</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5114,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1958056007983578</v>
+        <v>0.1117155645422793</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5122,7 +4313,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.08914243712924773</v>
+        <v>0.2036419716897088</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5130,7 +4321,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.04984728377008526</v>
+        <v>0.2474665234586972</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5138,7 +4329,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04307246116675948</v>
+        <v>0.06181227150913471</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5146,7 +4337,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.09900427714943172</v>
+        <v>0.04104846149665637</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5154,39 +4345,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1281177285579063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.04737436850387779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1130263896086937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.02406038841921716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.1609482489201528</v>
+        <v>0.1059527076179535</v>
       </c>
     </row>
   </sheetData>
